--- a/Process Results/Unified_IBNP_PRT.xlsx
+++ b/Process Results/Unified_IBNP_PRT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joranias\Documents\GitHub\DMI_IBNP\Process Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7577B1B9-6936-4291-9D60-C23DF79168AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{37C7ADBD-84DD-4883-A618-1A49C9018B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Process Results/Unified_IBNP_PRT.xlsx
+++ b/Process Results/Unified_IBNP_PRT.xlsx
@@ -3727,20 +3727,20 @@
         <v/>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.2157884586058029</v>
+        <v>0.4863286194510115</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.04098475341120371</v>
+        <v>0.41581830348755</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.04103997306336504</v>
+        <v>0.3950738420093642</v>
       </c>
       <c r="H7" s="4">
         <f>+I7/I8</f>
         <v/>
       </c>
       <c r="I7" s="5" t="n">
-        <v>0.06888597681565639</v>
+        <v>0.4483179764530081</v>
       </c>
       <c r="J7" s="5">
         <f>I7</f>
@@ -3765,20 +3765,20 @@
         <v/>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.4747346089327664</v>
+        <v>0.4863286194510115</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1007053940961005</v>
+        <v>0.41581830348755</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.09667193654925987</v>
+        <v>0.3950738420093642</v>
       </c>
       <c r="H8" s="4">
         <f>+I8/I9</f>
         <v/>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1661627124704228</v>
+        <v>0.4483179764530081</v>
       </c>
       <c r="J8" s="5">
         <f>I8</f>
@@ -3803,20 +3803,20 @@
         <v/>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.6977160161587627</v>
+        <v>0.4863286194510115</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.6337126698244975</v>
+        <v>0.4573887019767205</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.4693351505765188</v>
+        <v>0.5257168679236023</v>
       </c>
       <c r="H9" s="4">
         <f>+I9/I10</f>
         <v/>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.6641759848410549</v>
+        <v>0.4714149267670568</v>
       </c>
       <c r="J9" s="5">
         <f>I9</f>
@@ -3841,20 +3841,20 @@
         <v/>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.7344957528951408</v>
+        <v>0.5735249568816405</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.6621058520199572</v>
+        <v>0.5776635713490035</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>0.523852559370325</v>
+        <v>0.6510050598039165</v>
       </c>
       <c r="H10" s="4">
         <f>+I10/I11</f>
         <v/>
       </c>
       <c r="I10" s="5" t="n">
-        <v>0.6964247134818967</v>
+        <v>0.5755868247909675</v>
       </c>
       <c r="J10" s="5">
         <f>I10</f>
@@ -3879,20 +3879,20 @@
         <v/>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7464479423433357</v>
+        <v>0.721991728843785</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.7110396546490713</v>
+        <v>0.705568909542875</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.5743803334933462</v>
+        <v>0.7746445316213212</v>
       </c>
       <c r="H11" s="4">
         <f>+I11/I12</f>
         <v/>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.7283136930050738</v>
+        <v>0.7136858542065063</v>
       </c>
       <c r="J11" s="5">
         <f>I11</f>
@@ -3917,20 +3917,20 @@
         <v/>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7494252586855216</v>
+        <v>0.757859328322294</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.7387252466120929</v>
+        <v>0.736700540996802</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.6504192690572521</v>
+        <v>0.7839805110437635</v>
       </c>
       <c r="H12" s="4">
         <f>+I12/I13</f>
         <v/>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.744036785350653</v>
+        <v>0.7471301600368393</v>
       </c>
       <c r="J12" s="5">
         <f>I12</f>
@@ -3955,20 +3955,20 @@
         <v/>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.8162046941835585</v>
+        <v>0.757859328322294</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.7852472132587723</v>
+        <v>0.7646722901815088</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.723541404446961</v>
+        <v>0.8147178264413277</v>
       </c>
       <c r="H13" s="4">
         <f>+I13/I14</f>
         <v/>
       </c>
       <c r="I13" s="5" t="n">
-        <v>0.8004267359860731</v>
+        <v>0.7612505660711586</v>
       </c>
       <c r="J13" s="5">
         <f>I13</f>
@@ -3993,20 +3993,20 @@
         <v/>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.8317697617904004</v>
+        <v>0.7760873672952981</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.7961250730527922</v>
+        <v>0.7740827969722583</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.7375851813430292</v>
+        <v>0.8255472004728511</v>
       </c>
       <c r="H14" s="4">
         <f>+I14/I15</f>
         <v/>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.8135571760472745</v>
+        <v>0.7750837860495571</v>
       </c>
       <c r="J14" s="5">
         <f>I14</f>
@@ -4031,20 +4031,20 @@
         <v/>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8799829982398716</v>
+        <v>0.7975201771543763</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.8226199956352084</v>
+        <v>0.8347005470141925</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.763032301991264</v>
+        <v>0.855257721051608</v>
       </c>
       <c r="H15" s="4">
         <f>+I15/I16</f>
         <v/>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.8503351782832032</v>
+        <v>0.8156868961024955</v>
       </c>
       <c r="J15" s="5">
         <f>I15</f>
@@ -4069,20 +4069,20 @@
         <v/>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.8799829982398716</v>
+        <v>0.8177501611431824</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.8392692114781303</v>
+        <v>0.8698301304737566</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.8010937995329283</v>
+        <v>0.8684168601064149</v>
       </c>
       <c r="H16" s="4">
         <f>+I16/I17</f>
         <v/>
       </c>
       <c r="I16" s="5" t="n">
-        <v>0.8591440311925805</v>
+        <v>0.8429865327244145</v>
       </c>
       <c r="J16" s="5">
         <f>I16</f>
@@ -4107,20 +4107,20 @@
         <v/>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.9076798938690241</v>
+        <v>0.8177501611431824</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.8855596051995193</v>
+        <v>0.8730251218918081</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.8775434361296657</v>
+        <v>0.876043413810065</v>
       </c>
       <c r="H17" s="4">
         <f>+I17/I18</f>
         <v/>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.8964833184632751</v>
+        <v>0.8444841147991848</v>
       </c>
       <c r="J17" s="5">
         <f>I17</f>
@@ -4145,20 +4145,20 @@
         <v/>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9198837354341158</v>
+        <v>0.8177501611431824</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.9309463937819209</v>
+        <v>0.8730251218918081</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.9034875793889322</v>
+        <v>0.8783168140457243</v>
       </c>
       <c r="H18" s="4">
         <f>+I18/I19</f>
         <v/>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.9253820031163699</v>
+        <v>0.8444841147991848</v>
       </c>
       <c r="J18" s="5">
         <f>I18</f>
@@ -4183,20 +4183,20 @@
         <v/>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.9198837354341158</v>
+        <v>0.858956275894314</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.9475712894887305</v>
+        <v>0.8842647510852526</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>0.9448058119998165</v>
+        <v>0.8851697827229618</v>
       </c>
       <c r="H19" s="4">
         <f>+I19/I20</f>
         <v/>
       </c>
       <c r="I19" s="5" t="n">
-        <v>0.9335222596871138</v>
+        <v>0.8714267964204682</v>
       </c>
       <c r="J19" s="5">
         <f>I19</f>
@@ -4221,20 +4221,20 @@
         <v/>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.9212940258365382</v>
+        <v>0.858956275894314</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.956181257516184</v>
+        <v>0.8842647510852526</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.9673460724493488</v>
+        <v>0.8851697827229618</v>
       </c>
       <c r="H20" s="4">
         <f>+I20/I21</f>
         <v/>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.9384135045372304</v>
+        <v>0.8714267964204682</v>
       </c>
       <c r="J20" s="5">
         <f>I20</f>
@@ -4259,20 +4259,20 @@
         <v/>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.9394047934848033</v>
+        <v>0.858956275894314</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.9664929419719822</v>
+        <v>0.8842647510852526</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.9725831195497197</v>
+        <v>0.8851697827229618</v>
       </c>
       <c r="H21" s="4">
         <f>+I21/I22</f>
         <v/>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.9527563684733664</v>
+        <v>0.8714267964204682</v>
       </c>
       <c r="J21" s="5">
         <f>I21</f>
@@ -4297,20 +4297,20 @@
         <v/>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.9394047934848033</v>
+        <v>0.858956275894314</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.9780657073419439</v>
+        <v>0.8842647510852526</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.9804123789122283</v>
+        <v>0.8851697827229618</v>
       </c>
       <c r="H22" s="4">
         <f>+I22/I23</f>
         <v/>
       </c>
       <c r="I22" s="5" t="n">
-        <v>0.9583455009336229</v>
+        <v>0.8714267964204682</v>
       </c>
       <c r="J22" s="5">
         <f>I22</f>
@@ -4335,20 +4335,20 @@
         <v/>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.9394047934848033</v>
+        <v>0.858956275894314</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.9780657073419439</v>
+        <v>0.8900727954779786</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.9804123789122283</v>
+        <v>0.8900727954779786</v>
       </c>
       <c r="H23" s="4">
         <f>+I23/I24</f>
         <v/>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.9583455009336229</v>
+        <v>0.874237742748039</v>
       </c>
       <c r="J23" s="5">
         <f>I23</f>
@@ -4373,20 +4373,20 @@
         <v/>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1</v>
+        <v>0.858956275894314</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1</v>
+        <v>0.8900727954779786</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1</v>
+        <v>0.8900727954779786</v>
       </c>
       <c r="H24" s="4">
         <f>+I24/I25</f>
         <v/>
       </c>
       <c r="I24" s="5" t="n">
-        <v>1</v>
+        <v>0.874237742748039</v>
       </c>
       <c r="J24" s="5">
         <f>I24</f>
@@ -4411,20 +4411,20 @@
         <v/>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1</v>
+        <v>0.858956275894314</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1</v>
+        <v>0.8900727954779786</v>
       </c>
       <c r="G25" s="5" t="n">
-        <v>1</v>
+        <v>0.8900727954779786</v>
       </c>
       <c r="H25" s="4">
         <f>+I25/I26</f>
         <v/>
       </c>
       <c r="I25" s="5" t="n">
-        <v>1</v>
+        <v>0.874237742748039</v>
       </c>
       <c r="J25" s="5">
         <f>I25</f>
@@ -4449,20 +4449,20 @@
         <v/>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1</v>
+        <v>0.858956275894314</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1</v>
+        <v>0.8900727954779786</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>1</v>
+        <v>0.8900727954779786</v>
       </c>
       <c r="H26" s="4">
         <f>+I26/I27</f>
         <v/>
       </c>
       <c r="I26" s="5" t="n">
-        <v>1</v>
+        <v>0.874237742748039</v>
       </c>
       <c r="J26" s="5">
         <f>I26</f>
@@ -4836,31 +4836,31 @@
         <v/>
       </c>
       <c r="C38" s="4" t="n">
-        <v>1.6345</v>
+        <v/>
       </c>
       <c r="D38" s="4" t="n">
-        <v>1.744704802691955</v>
+        <v>1.598717964098196</v>
       </c>
       <c r="E38" s="4" t="n">
-        <v>1.108706324604098</v>
+        <v>1.048077380044173</v>
       </c>
       <c r="F38" s="4" t="n">
-        <v>1.102820616626393</v>
+        <v>1.310404902938804</v>
       </c>
       <c r="G38" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.291397579214611</v>
       </c>
       <c r="H38" s="4" t="n">
-        <v>1.021509632013215</v>
+        <v>1</v>
       </c>
       <c r="I38" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="J38" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="K38" s="4" t="n">
-        <v>1.028075613241582</v>
+        <v>1.021154231269338</v>
       </c>
       <c r="L38" s="4" t="n">
         <v>1</v>
@@ -4875,7 +4875,7 @@
         <v>1</v>
       </c>
       <c r="P38" s="4" t="n">
-        <v>1.006827224787741</v>
+        <v>1</v>
       </c>
       <c r="Q38" s="4" t="n">
         <v>1</v>
@@ -4911,25 +4911,25 @@
         <v/>
       </c>
       <c r="C39" s="4" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="D39" s="4" t="n">
-        <v>2.113636363636364</v>
+        <v>2.638681818181818</v>
       </c>
       <c r="E39" s="4" t="n">
-        <v>1.30192688172043</v>
+        <v>1</v>
       </c>
       <c r="F39" s="4" t="n">
-        <v>1.099108682581319</v>
+        <v>1.790868374360476</v>
       </c>
       <c r="G39" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="H39" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="I39" s="4" t="n">
-        <v>1.353173148020126</v>
+        <v>1.038475707880883</v>
       </c>
       <c r="J39" s="4" t="n">
         <v>1</v>
@@ -4938,13 +4938,13 @@
         <v>1</v>
       </c>
       <c r="L39" s="4" t="n">
-        <v>1</v>
+        <v>1.032418904111365</v>
       </c>
       <c r="M39" s="4" t="n">
-        <v>1.022279086091009</v>
+        <v>1</v>
       </c>
       <c r="N39" s="4" t="n">
-        <v>1.195555246529981</v>
+        <v>1</v>
       </c>
       <c r="O39" s="4" t="n">
         <v>1</v>
@@ -4986,64 +4986,64 @@
         <v/>
       </c>
       <c r="C40" s="4" t="n">
-        <v>2.271185</v>
+        <v>2.502253333333333</v>
       </c>
       <c r="D40" s="4" t="n">
-        <v>1.126704781864974</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E40" s="4" t="n">
-        <v>1.058617677919307</v>
+        <v>1.039963979133474</v>
       </c>
       <c r="F40" s="4" t="n">
-        <v>1.156887065307471</v>
+        <v>1.076856467984157</v>
       </c>
       <c r="G40" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H40" s="4" t="n">
-        <v>1.25526850257901</v>
+        <v>1.035685567329149</v>
       </c>
       <c r="I40" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J40" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K40" s="4" t="n">
+        <v>1.126338615053131</v>
+      </c>
+      <c r="L40" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="O40" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P40" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="4" t="n">
+        <v>1.132561620759558</v>
+      </c>
+      <c r="R40" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="S40" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T40" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="U40" s="4" t="n">
+        <v>1.649674612578286</v>
+      </c>
+      <c r="V40" s="4" t="n">
         <v>0.9999999999999999</v>
-      </c>
-      <c r="J40" s="4" t="n">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="K40" s="4" t="n">
-        <v>1.386500353969478</v>
-      </c>
-      <c r="L40" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" s="4" t="n">
-        <v>1.119169189081169</v>
-      </c>
-      <c r="N40" s="4" t="n">
-        <v>1.008190772930478</v>
-      </c>
-      <c r="O40" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P40" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q40" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="R40" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="S40" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="T40" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="U40" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="V40" s="4" t="n">
-        <v>1</v>
       </c>
       <c r="W40" t="n">
         <v/>
@@ -5061,37 +5061,37 @@
         <v/>
       </c>
       <c r="C41" s="4" t="n">
-        <v>1.521252</v>
+        <v>1.63258064516129</v>
       </c>
       <c r="D41" s="4" t="n">
-        <v>1</v>
+        <v>1.019758940920767</v>
       </c>
       <c r="E41" s="4" t="n">
-        <v>1.120953004498926</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F41" s="4" t="n">
-        <v>1</v>
+        <v>1.442367758186398</v>
       </c>
       <c r="G41" s="4" t="n">
-        <v>1</v>
+        <v>1.120901765971795</v>
       </c>
       <c r="H41" s="4" t="n">
-        <v>1</v>
+        <v>1.035953720371138</v>
       </c>
       <c r="I41" s="4" t="n">
-        <v>1.715436780018437</v>
+        <v>1.219912865019447</v>
       </c>
       <c r="J41" s="4" t="n">
-        <v>1.437569139342525</v>
+        <v>1</v>
       </c>
       <c r="K41" s="4" t="n">
-        <v>1.246541229871599</v>
+        <v>1</v>
       </c>
       <c r="L41" s="4" t="n">
-        <v>1.038153231006368</v>
+        <v>1</v>
       </c>
       <c r="M41" s="4" t="n">
-        <v>1.1286287077225</v>
+        <v>1</v>
       </c>
       <c r="N41" s="4" t="n">
         <v>1</v>
@@ -5100,7 +5100,7 @@
         <v>1</v>
       </c>
       <c r="P41" s="4" t="n">
-        <v>1.039075092559126</v>
+        <v>1</v>
       </c>
       <c r="Q41" s="4" t="n">
         <v>1</v>
@@ -5133,25 +5133,25 @@
         <v/>
       </c>
       <c r="B42" s="4" t="n">
-        <v/>
+        <v>2</v>
       </c>
       <c r="C42" s="4" t="n">
-        <v>2.319586666666666</v>
+        <v>1.386</v>
       </c>
       <c r="D42" s="4" t="n">
-        <v>1.014370376331415</v>
+        <v>1.054112554112554</v>
       </c>
       <c r="E42" s="4" t="n">
-        <v>1</v>
+        <v>1.410677618069815</v>
       </c>
       <c r="F42" s="4" t="n">
-        <v>1.454677592098329</v>
+        <v>1.388161086851043</v>
       </c>
       <c r="G42" s="4" t="n">
-        <v>1.009779689176897</v>
+        <v>1.297098916462775</v>
       </c>
       <c r="H42" s="4" t="n">
-        <v>1.019315937287822</v>
+        <v>1.040420371867421</v>
       </c>
       <c r="I42" s="4" t="n">
         <v>1</v>
@@ -5160,7 +5160,7 @@
         <v>1</v>
       </c>
       <c r="K42" s="4" t="n">
-        <v>1.075693637571294</v>
+        <v>1</v>
       </c>
       <c r="L42" s="4" t="n">
         <v>1</v>
@@ -5181,7 +5181,7 @@
         <v>1</v>
       </c>
       <c r="R42" s="4" t="n">
-        <v>1.237489576846349</v>
+        <v>1</v>
       </c>
       <c r="S42" s="4" t="n">
         <v>1</v>
@@ -5211,37 +5211,37 @@
         <v/>
       </c>
       <c r="C43" s="4" t="n">
-        <v>1.734647368421053</v>
+        <v>6.6985</v>
       </c>
       <c r="D43" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E43" s="4" t="n">
-        <v>1</v>
+        <v>1.272449055758752</v>
       </c>
       <c r="F43" s="4" t="n">
-        <v>1</v>
+        <v>1.011732269607555</v>
       </c>
       <c r="G43" s="4" t="n">
-        <v>1.015191924340758</v>
+        <v>1</v>
       </c>
       <c r="H43" s="4" t="n">
-        <v>1.089661974356675</v>
+        <v>1.0057981098162</v>
       </c>
       <c r="I43" s="4" t="n">
         <v>1</v>
       </c>
       <c r="J43" s="4" t="n">
-        <v>1</v>
+        <v>1.046117484291232</v>
       </c>
       <c r="K43" s="4" t="n">
-        <v>1</v>
+        <v>1.024797487187965</v>
       </c>
       <c r="L43" s="4" t="n">
         <v>1</v>
       </c>
       <c r="M43" s="4" t="n">
-        <v>1.123670424312241</v>
+        <v>1</v>
       </c>
       <c r="N43" s="4" t="n">
         <v>1</v>
@@ -5283,55 +5283,55 @@
         <v/>
       </c>
       <c r="B44" s="4" t="n">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="C44" s="4" t="n">
-        <v>1.916940909090909</v>
+        <v>1.532375</v>
       </c>
       <c r="D44" s="4" t="n">
-        <v>1.237575493150782</v>
+        <v>1.081572722081736</v>
       </c>
       <c r="E44" s="4" t="n">
-        <v>1.205541472910547</v>
+        <v>1.196093219699827</v>
       </c>
       <c r="F44" s="4" t="n">
-        <v>1.087413282050874</v>
+        <v>1</v>
       </c>
       <c r="G44" s="4" t="n">
-        <v>1.306930041874027</v>
+        <v>1.176555898858692</v>
       </c>
       <c r="H44" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I44" s="4" t="n">
-        <v>1.157050755148485</v>
+        <v>1.535934401629241</v>
       </c>
       <c r="J44" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K44" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="L44" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="M44" s="4" t="n">
-        <v>1.038661201261515</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="N44" s="4" t="n">
-        <v>1.037357078582469</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O44" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="P44" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Q44" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="R44" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="S44" t="n">
         <v/>
@@ -5358,25 +5358,25 @@
         <v/>
       </c>
       <c r="B45" s="4" t="n">
-        <v>4</v>
+        <v/>
       </c>
       <c r="C45" s="4" t="n">
-        <v>1.775</v>
+        <v>26.563375</v>
       </c>
       <c r="D45" s="4" t="n">
-        <v>1.028228169014085</v>
+        <v>1.015999472958538</v>
       </c>
       <c r="E45" s="4" t="n">
-        <v>1.30683166174001</v>
+        <v>1.004168461420889</v>
       </c>
       <c r="F45" s="4" t="n">
-        <v>1.385926405755721</v>
+        <v>1.001844958880479</v>
       </c>
       <c r="G45" s="4" t="n">
-        <v>1.030391035763769</v>
+        <v>1.012890928929546</v>
       </c>
       <c r="H45" s="4" t="n">
-        <v>1</v>
+        <v>1.005454371906348</v>
       </c>
       <c r="I45" s="4" t="n">
         <v>1</v>
@@ -5388,10 +5388,10 @@
         <v>1</v>
       </c>
       <c r="L45" s="4" t="n">
-        <v>1.315615788422919</v>
+        <v>1</v>
       </c>
       <c r="M45" s="4" t="n">
-        <v>1.044794288825808</v>
+        <v>1</v>
       </c>
       <c r="N45" s="4" t="n">
         <v>1</v>
@@ -5433,25 +5433,25 @@
         <v/>
       </c>
       <c r="B46" s="4" t="n">
-        <v/>
+        <v>2.2</v>
       </c>
       <c r="C46" s="4" t="n">
-        <v>2.05</v>
+        <v>1.022727272727273</v>
       </c>
       <c r="D46" s="4" t="n">
-        <v>1.669892682926829</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="E46" s="4" t="n">
-        <v>1.029211750134374</v>
+        <v>1.038095238095238</v>
       </c>
       <c r="F46" s="4" t="n">
-        <v>1.099614563702005</v>
+        <v>1.073394495412844</v>
       </c>
       <c r="G46" s="4" t="n">
-        <v>1</v>
+        <v>1.41025641025641</v>
       </c>
       <c r="H46" s="4" t="n">
-        <v>1.116151513196102</v>
+        <v>1.157575757575757</v>
       </c>
       <c r="I46" s="4" t="n">
         <v>1</v>
@@ -5460,22 +5460,22 @@
         <v>1</v>
       </c>
       <c r="K46" s="4" t="n">
-        <v>1</v>
+        <v>1.021032460732984</v>
       </c>
       <c r="L46" s="4" t="n">
         <v>1</v>
       </c>
       <c r="M46" s="4" t="n">
-        <v>1.023125397467769</v>
+        <v>1.04636309002488</v>
       </c>
       <c r="N46" s="4" t="n">
-        <v>1.008326835056789</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O46" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="P46" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Q46" s="4" t="n">
         <v/>
@@ -5508,34 +5508,34 @@
         <v/>
       </c>
       <c r="B47" s="4" t="n">
-        <v/>
+        <v>2</v>
       </c>
       <c r="C47" s="4" t="n">
-        <v>1.705882352941176</v>
+        <v>1.5</v>
       </c>
       <c r="D47" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.617433333333333</v>
       </c>
       <c r="E47" s="4" t="n">
-        <v>1.353386206896551</v>
+        <v>1</v>
       </c>
       <c r="F47" s="4" t="n">
-        <v>1.921418052292844</v>
+        <v>1</v>
       </c>
       <c r="G47" s="4" t="n">
-        <v>1.320788943963974</v>
+        <v>1.041341219627806</v>
       </c>
       <c r="H47" s="4" t="n">
-        <v>1.030119393274942</v>
+        <v>1.039581230580459</v>
       </c>
       <c r="I47" s="4" t="n">
         <v>1</v>
       </c>
       <c r="J47" s="4" t="n">
-        <v>1</v>
+        <v>1.066827847474728</v>
       </c>
       <c r="K47" s="4" t="n">
-        <v>1.131574330725238</v>
+        <v>1</v>
       </c>
       <c r="L47" s="4" t="n">
         <v>1</v>
@@ -5547,7 +5547,7 @@
         <v>1</v>
       </c>
       <c r="O47" s="4" t="n">
-        <v>1.043064986787662</v>
+        <v>1</v>
       </c>
       <c r="P47" t="n">
         <v/>
@@ -5583,43 +5583,43 @@
         <v/>
       </c>
       <c r="B48" s="4" t="n">
-        <v/>
+        <v>2.4</v>
       </c>
       <c r="C48" s="4" t="n">
-        <v/>
+        <v>1.854166666666667</v>
       </c>
       <c r="D48" s="4" t="n">
-        <v>2.291652941176471</v>
+        <v>1</v>
       </c>
       <c r="E48" s="4" t="n">
-        <v>1.66824357450697</v>
+        <v>1.467415730337079</v>
       </c>
       <c r="F48" s="4" t="n">
-        <v>1.018570092134983</v>
+        <v>1</v>
       </c>
       <c r="G48" s="4" t="n">
-        <v>1.011329561848078</v>
+        <v>1.03062787136294</v>
       </c>
       <c r="H48" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="I48" s="4" t="n">
-        <v>1</v>
+        <v>1.111579494799406</v>
       </c>
       <c r="J48" s="4" t="n">
-        <v>1.134431690030397</v>
+        <v>1</v>
       </c>
       <c r="K48" s="4" t="n">
-        <v>1.052667267951309</v>
+        <v>1</v>
       </c>
       <c r="L48" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="M48" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.115079274902987</v>
       </c>
       <c r="N48" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="O48" t="n">
         <v/>
@@ -5661,19 +5661,19 @@
         <v/>
       </c>
       <c r="C49" s="4" t="n">
-        <v/>
+        <v>1.277777777777778</v>
       </c>
       <c r="D49" s="4" t="n">
-        <v>1.598717964098196</v>
+        <v>1.326086956521739</v>
       </c>
       <c r="E49" s="4" t="n">
-        <v>1.048077380044173</v>
+        <v>1.147540983606557</v>
       </c>
       <c r="F49" s="4" t="n">
-        <v>1.310404902938804</v>
+        <v>1</v>
       </c>
       <c r="G49" s="4" t="n">
-        <v>1.291397579214611</v>
+        <v>1</v>
       </c>
       <c r="H49" s="4" t="n">
         <v>1</v>
@@ -5682,10 +5682,10 @@
         <v>1</v>
       </c>
       <c r="J49" s="4" t="n">
-        <v>1</v>
+        <v>1.142857142857143</v>
       </c>
       <c r="K49" s="4" t="n">
-        <v>1.021154231269338</v>
+        <v>1</v>
       </c>
       <c r="L49" s="4" t="n">
         <v>1</v>
@@ -5736,34 +5736,34 @@
         <v/>
       </c>
       <c r="C50" s="4" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="D50" s="4" t="n">
-        <v>2.638681818181818</v>
+        <v>1</v>
       </c>
       <c r="E50" s="4" t="n">
-        <v>1</v>
+        <v>1.266666666666667</v>
       </c>
       <c r="F50" s="4" t="n">
-        <v>1.790868374360476</v>
+        <v>1.079468421052632</v>
       </c>
       <c r="G50" s="4" t="n">
-        <v>1</v>
+        <v>1.146480480158362</v>
       </c>
       <c r="H50" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I50" s="4" t="n">
-        <v>1.038475707880883</v>
+        <v>1.29769245817421</v>
       </c>
       <c r="J50" s="4" t="n">
-        <v>1</v>
+        <v>1.033256647724666</v>
       </c>
       <c r="K50" s="4" t="n">
         <v>1</v>
       </c>
       <c r="L50" s="4" t="n">
-        <v>1.032418904111365</v>
+        <v>1</v>
       </c>
       <c r="M50" t="n">
         <v/>
@@ -5811,31 +5811,31 @@
         <v/>
       </c>
       <c r="C51" s="4" t="n">
-        <v>2.502253333333333</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="D51" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E51" s="4" t="n">
-        <v>1.039963979133474</v>
+        <v>1.043028571428571</v>
       </c>
       <c r="F51" s="4" t="n">
-        <v>1.076856467984157</v>
+        <v>1.192127321536186</v>
       </c>
       <c r="G51" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H51" s="4" t="n">
-        <v>1.035685567329149</v>
+        <v>1</v>
       </c>
       <c r="I51" s="4" t="n">
         <v>1</v>
       </c>
       <c r="J51" s="4" t="n">
-        <v>1</v>
+        <v>1.070363374831686</v>
       </c>
       <c r="K51" s="4" t="n">
-        <v>1.126338615053131</v>
+        <v>1</v>
       </c>
       <c r="L51" t="n">
         <v/>
@@ -5886,25 +5886,25 @@
         <v/>
       </c>
       <c r="C52" s="4" t="n">
-        <v>1.63258064516129</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="D52" s="4" t="n">
-        <v>1.019758940920767</v>
+        <v>1.36158</v>
       </c>
       <c r="E52" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.264398713259596</v>
       </c>
       <c r="F52" s="4" t="n">
-        <v>1.442367758186398</v>
+        <v>1</v>
       </c>
       <c r="G52" s="4" t="n">
-        <v>1.120901765971795</v>
+        <v>1.058448634393987</v>
       </c>
       <c r="H52" s="4" t="n">
-        <v>1.035953720371138</v>
+        <v>1</v>
       </c>
       <c r="I52" s="4" t="n">
-        <v>1.219912865019447</v>
+        <v>1.055690800810447</v>
       </c>
       <c r="J52" s="4" t="n">
         <v>1</v>
@@ -5958,25 +5958,25 @@
         <v/>
       </c>
       <c r="B53" s="4" t="n">
-        <v>2</v>
+        <v/>
       </c>
       <c r="C53" s="4" t="n">
-        <v>1.386</v>
+        <v/>
       </c>
       <c r="D53" s="4" t="n">
-        <v>1.054112554112554</v>
+        <v>2.04607817758219</v>
       </c>
       <c r="E53" s="4" t="n">
-        <v>1.410677618069815</v>
+        <v>1.194643413266895</v>
       </c>
       <c r="F53" s="4" t="n">
-        <v>1.388161086851043</v>
+        <v>1</v>
       </c>
       <c r="G53" s="4" t="n">
-        <v>1.297098916462775</v>
+        <v>1</v>
       </c>
       <c r="H53" s="4" t="n">
-        <v>1.040420371867421</v>
+        <v>1</v>
       </c>
       <c r="I53" s="4" t="n">
         <v>1</v>
@@ -6036,22 +6036,22 @@
         <v/>
       </c>
       <c r="C54" s="4" t="n">
-        <v>6.6985</v>
+        <v>1</v>
       </c>
       <c r="D54" s="4" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="E54" s="4" t="n">
-        <v>1.272449055758752</v>
+        <v>1</v>
       </c>
       <c r="F54" s="4" t="n">
-        <v>1.011732269607555</v>
+        <v>1.166991666666667</v>
       </c>
       <c r="G54" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H54" s="4" t="n">
-        <v>1.0057981098162</v>
+        <v>1.144459757638943</v>
       </c>
       <c r="I54" t="n">
         <v/>
@@ -6108,22 +6108,22 @@
         <v/>
       </c>
       <c r="B55" s="4" t="n">
-        <v>4</v>
+        <v/>
       </c>
       <c r="C55" s="4" t="n">
-        <v>1.532375</v>
+        <v>1.133333333333333</v>
       </c>
       <c r="D55" s="4" t="n">
-        <v>1.081572722081736</v>
+        <v>1.029876470588235</v>
       </c>
       <c r="E55" s="4" t="n">
-        <v>1.196093219699827</v>
+        <v>1.22891380462534</v>
       </c>
       <c r="F55" s="4" t="n">
         <v>1</v>
       </c>
       <c r="G55" s="4" t="n">
-        <v>1.176555898858692</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
         <v/>
@@ -6186,16 +6186,16 @@
         <v/>
       </c>
       <c r="C56" s="4" t="n">
-        <v>26.563375</v>
+        <v>1.133235627206715</v>
       </c>
       <c r="D56" s="4" t="n">
-        <v>1.015999472958538</v>
+        <v>1</v>
       </c>
       <c r="E56" s="4" t="n">
-        <v>1.004168461420889</v>
+        <v>1</v>
       </c>
       <c r="F56" s="4" t="n">
-        <v>1.001844958880479</v>
+        <v>1.029757215919111</v>
       </c>
       <c r="G56" t="n">
         <v/>
@@ -6258,16 +6258,16 @@
         <v/>
       </c>
       <c r="B57" s="4" t="n">
-        <v>2.2</v>
+        <v/>
       </c>
       <c r="C57" s="4" t="n">
-        <v>1.022727272727273</v>
+        <v/>
       </c>
       <c r="D57" s="4" t="n">
-        <v>1.166666666666667</v>
+        <v>1</v>
       </c>
       <c r="E57" s="4" t="n">
-        <v>1.038095238095238</v>
+        <v>1.667576197387518</v>
       </c>
       <c r="F57" t="n">
         <v/>
@@ -6333,13 +6333,13 @@
         <v/>
       </c>
       <c r="B58" s="4" t="n">
-        <v>2</v>
+        <v/>
       </c>
       <c r="C58" s="4" t="n">
-        <v>1.5</v>
+        <v/>
       </c>
       <c r="D58" s="4" t="n">
-        <v>1.617433333333333</v>
+        <v>1.697499378573204</v>
       </c>
       <c r="E58" t="n">
         <v/>
@@ -6408,10 +6408,10 @@
         <v/>
       </c>
       <c r="B59" s="4" t="n">
-        <v>2.4</v>
+        <v/>
       </c>
       <c r="C59" s="4" t="n">
-        <v>1.854166666666667</v>
+        <v/>
       </c>
       <c r="D59" t="n">
         <v/>
@@ -6704,61 +6704,61 @@
         <v>1</v>
       </c>
       <c r="B2" s="34" t="n">
-        <v>0.05538520487609844</v>
+        <v>0.06991996184774192</v>
       </c>
       <c r="C2" s="34" t="n">
-        <v>0.04103997306336504</v>
+        <v>0.3950738420093642</v>
       </c>
       <c r="D2" s="34" t="n">
-        <v>0.04098475341120371</v>
+        <v>0.41581830348755</v>
       </c>
       <c r="E2" s="34" t="n">
-        <v>0.2157884586058029</v>
+        <v>0.4863286194510115</v>
       </c>
       <c r="F2" s="34" t="n">
-        <v>0.03772208031180813</v>
+        <v>0.04805543081932229</v>
       </c>
       <c r="G2" s="34" t="n">
-        <v>0.02597994176013806</v>
+        <v>0.3279496344776153</v>
       </c>
       <c r="H2" s="34" t="n">
-        <v>0.02605736112492402</v>
+        <v>0.3601270019364592</v>
       </c>
       <c r="I2" s="34" t="n">
-        <v>0.1526082809052027</v>
+        <v>0.4201773106650469</v>
       </c>
       <c r="J2" s="34" t="n">
-        <v>0.06888597681565639</v>
+        <v>0.4483179764530081</v>
       </c>
       <c r="M2" s="33" t="n">
         <v>1</v>
       </c>
       <c r="N2" s="22" t="n">
-        <v>2.466666666666667</v>
+        <v>2.355555555555556</v>
       </c>
       <c r="O2" s="22" t="n">
-        <v>2.355555555555556</v>
+        <v/>
       </c>
       <c r="P2" s="22" t="n">
-        <v>2.457142857142857</v>
+        <v/>
       </c>
       <c r="Q2" s="22" t="n">
-        <v>2.2</v>
+        <v/>
       </c>
       <c r="R2" s="22" t="n">
-        <v>2.685714285714285</v>
+        <v>2.52</v>
       </c>
       <c r="S2" s="22" t="n">
-        <v>2.52</v>
+        <v/>
       </c>
       <c r="T2" s="22" t="n">
-        <v>2.65</v>
+        <v/>
       </c>
       <c r="U2" s="22" t="n">
-        <v>2.2</v>
+        <v/>
       </c>
       <c r="V2" s="22" t="n">
-        <v>2.328571428571429</v>
+        <v/>
       </c>
     </row>
     <row r="3">
@@ -6767,62 +6767,62 @@
         <v/>
       </c>
       <c r="B3" s="34" t="n">
-        <v>0.1366168386943761</v>
+        <v>0.164700354574681</v>
       </c>
       <c r="C3" s="34" t="n">
-        <v>0.09667193654925987</v>
+        <v>0.3950738420093642</v>
       </c>
       <c r="D3" s="34" t="n">
-        <v>0.1007053940961005</v>
+        <v>0.41581830348755</v>
       </c>
       <c r="E3" s="34" t="n">
-        <v>0.4747346089327664</v>
+        <v>0.4863286194510115</v>
       </c>
       <c r="F3" s="34" t="n">
-        <v>0.1013107299802847</v>
+        <v>0.1210996856646922</v>
       </c>
       <c r="G3" s="34" t="n">
-        <v>0.06546945323554791</v>
+        <v>0.3279496344776153</v>
       </c>
       <c r="H3" s="34" t="n">
-        <v>0.06905200698104866</v>
+        <v>0.3601270019364592</v>
       </c>
       <c r="I3" s="34" t="n">
-        <v>0.335738217991446</v>
+        <v>0.4201773106650469</v>
       </c>
       <c r="J3" s="34" t="n">
-        <v>0.1661627124704228</v>
+        <v>0.4483179764530081</v>
       </c>
       <c r="M3">
         <f>+M2+1</f>
         <v/>
       </c>
       <c r="N3" s="22" t="n">
-        <v>3.307112416555407</v>
+        <v>3.557567069990433</v>
       </c>
       <c r="O3" s="22" t="n">
-        <v>4.85492654155496</v>
+        <v>1.330680019840801</v>
       </c>
       <c r="P3" s="22" t="n">
-        <v>6.292738095238096</v>
+        <v>1.099972507560421</v>
       </c>
       <c r="Q3" s="22" t="n">
-        <v>1.46969696969697</v>
+        <v/>
       </c>
       <c r="R3" s="22" t="n">
-        <v>3.246048610750419</v>
+        <v>3.251156352325866</v>
       </c>
       <c r="S3" s="22" t="n">
-        <v>4.689197791788856</v>
+        <v>1.278980842289728</v>
       </c>
       <c r="T3" s="22" t="n">
-        <v>6.52852398989899</v>
+        <v>1.088856320180016</v>
       </c>
       <c r="U3" s="22" t="n">
-        <v>1.458964646464646</v>
+        <v/>
       </c>
       <c r="V3" s="22" t="n">
-        <v>3.881217532467533</v>
+        <v>0.5499862537802105</v>
       </c>
     </row>
     <row r="4">
@@ -6831,62 +6831,62 @@
         <v/>
       </c>
       <c r="B4" s="34" t="n">
-        <v>0.4518072435567185</v>
+        <v>0.5859325578506331</v>
       </c>
       <c r="C4" s="34" t="n">
-        <v>0.4693351505765188</v>
+        <v>0.5257168679236023</v>
       </c>
       <c r="D4" s="34" t="n">
-        <v>0.6337126698244975</v>
+        <v>0.4573887019767205</v>
       </c>
       <c r="E4" s="34" t="n">
-        <v>0.6977160161587627</v>
+        <v>0.4863286194510115</v>
       </c>
       <c r="F4" s="34" t="n">
-        <v>0.3288595543066138</v>
+        <v>0.3937140123134296</v>
       </c>
       <c r="G4" s="34" t="n">
-        <v>0.306999215541755</v>
+        <v>0.4194412997327889</v>
       </c>
       <c r="H4" s="34" t="n">
-        <v>0.4508076841264487</v>
+        <v>0.3921265621259946</v>
       </c>
       <c r="I4" s="34" t="n">
-        <v>0.4898301905165605</v>
+        <v>0.4201773106650469</v>
       </c>
       <c r="J4" s="34" t="n">
-        <v>0.6641759848410549</v>
+        <v>0.4714149267670568</v>
       </c>
       <c r="M4">
         <f>+M3+1</f>
         <v/>
       </c>
       <c r="N4" s="22" t="n">
-        <v>1.152188551534776</v>
+        <v>1.113019005157385</v>
       </c>
       <c r="O4" s="22" t="n">
-        <v>1.116158801928299</v>
+        <v>1.238318759630367</v>
       </c>
       <c r="P4" s="22" t="n">
-        <v>1.044804504545132</v>
+        <v>1.262959860732206</v>
       </c>
       <c r="Q4" s="22" t="n">
-        <v>1.052714479651574</v>
+        <v>1.179295097888872</v>
       </c>
       <c r="R4" s="22" t="n">
-        <v>1.353319480149832</v>
+        <v>1.278764974077094</v>
       </c>
       <c r="S4" s="22" t="n">
-        <v>1.373716367794173</v>
+        <v>1.273212859716558</v>
       </c>
       <c r="T4" s="22" t="n">
-        <v>1.155964124858805</v>
+        <v>1.328909004457272</v>
       </c>
       <c r="U4" s="22" t="n">
-        <v>1.266699824319512</v>
+        <v>1.232499792857735</v>
       </c>
       <c r="V4" s="22" t="n">
-        <v>1.048759492098353</v>
+        <v>1.221127479310539</v>
       </c>
     </row>
     <row r="5">
@@ -6895,62 +6895,62 @@
         <v/>
       </c>
       <c r="B5" s="34" t="n">
-        <v>0.5205671335265352</v>
+        <v>0.6521540726282337</v>
       </c>
       <c r="C5" s="34" t="n">
-        <v>0.523852559370325</v>
+        <v>0.6510050598039165</v>
       </c>
       <c r="D5" s="34" t="n">
-        <v>0.6621058520199572</v>
+        <v>0.5776635713490035</v>
       </c>
       <c r="E5" s="34" t="n">
-        <v>0.7344957528951408</v>
+        <v>0.5735249568816405</v>
       </c>
       <c r="F5" s="34" t="n">
-        <v>0.4450520410765322</v>
+        <v>0.5034676887497715</v>
       </c>
       <c r="G5" s="34" t="n">
-        <v>0.4217298472896803</v>
+        <v>0.5340380567160142</v>
       </c>
       <c r="H5" s="34" t="n">
-        <v>0.5211175100608547</v>
+        <v>0.5211005192961079</v>
       </c>
       <c r="I5" s="34" t="n">
-        <v>0.6204678162737205</v>
+        <v>0.5178684483581905</v>
       </c>
       <c r="J5" s="34" t="n">
-        <v>0.6964247134818967</v>
+        <v>0.5755868247909675</v>
       </c>
       <c r="M5">
         <f>+M4+1</f>
         <v/>
       </c>
       <c r="N5" s="22" t="n">
-        <v>1.108113086749628</v>
+        <v>1.097896628539842</v>
       </c>
       <c r="O5" s="22" t="n">
-        <v>1.096454189674583</v>
+        <v>1.189920907611141</v>
       </c>
       <c r="P5" s="22" t="n">
-        <v>1.073906313438896</v>
+        <v>1.22141839045723</v>
       </c>
       <c r="Q5" s="22" t="n">
-        <v>1.016272646099155</v>
+        <v>1.258867151604675</v>
       </c>
       <c r="R5" s="22" t="n">
-        <v>1.158147175357669</v>
+        <v>1.16448545164002</v>
       </c>
       <c r="S5" s="22" t="n">
-        <v>1.171697206980005</v>
+        <v>1.193189943222789</v>
       </c>
       <c r="T5" s="22" t="n">
-        <v>1.153580598840753</v>
+        <v>1.225922021423225</v>
       </c>
       <c r="U5" s="22" t="n">
-        <v>1.079452306405318</v>
+        <v>1.298830000670953</v>
       </c>
       <c r="V5" s="22" t="n">
-        <v>1.045089479769025</v>
+        <v>1.240142771030952</v>
       </c>
     </row>
     <row r="6">
@@ -6959,62 +6959,62 @@
         <v/>
       </c>
       <c r="B6" s="34" t="n">
-        <v>0.5768472531924947</v>
+        <v>0.7159977576270651</v>
       </c>
       <c r="C6" s="34" t="n">
-        <v>0.5743803334933462</v>
+        <v>0.7746445316213212</v>
       </c>
       <c r="D6" s="34" t="n">
-        <v>0.7110396546490713</v>
+        <v>0.705568909542875</v>
       </c>
       <c r="E6" s="34" t="n">
-        <v>0.7464479423433357</v>
+        <v>0.721991728843785</v>
       </c>
       <c r="F6" s="34" t="n">
-        <v>0.5154357642599512</v>
+        <v>0.5862807989199346</v>
       </c>
       <c r="G6" s="34" t="n">
-        <v>0.4941396841694226</v>
+        <v>0.6372088385717893</v>
       </c>
       <c r="H6" s="34" t="n">
-        <v>0.6011510493224033</v>
+        <v>0.6388286019801769</v>
       </c>
       <c r="I6" s="34" t="n">
-        <v>0.6697654153269388</v>
+        <v>0.6726230771285338</v>
       </c>
       <c r="J6" s="34" t="n">
-        <v>0.7283136930050738</v>
+        <v>0.7136858542065063</v>
       </c>
       <c r="M6">
         <f>+M5+1</f>
         <v/>
       </c>
       <c r="N6" s="22" t="n">
-        <v>1.129700484991786</v>
+        <v>1.078985875187502</v>
       </c>
       <c r="O6" s="22" t="n">
-        <v>1.132384295091445</v>
+        <v>1.012051952916911</v>
       </c>
       <c r="P6" s="22" t="n">
-        <v>1.038936776285263</v>
+        <v>1.0441227370323</v>
       </c>
       <c r="Q6" s="22" t="n">
-        <v>1.003988645655368</v>
+        <v>1.049678684735001</v>
       </c>
       <c r="R6" s="22" t="n">
-        <v>1.228877482703097</v>
+        <v>1.134946049441913</v>
       </c>
       <c r="S6" s="22" t="n">
-        <v>1.287313744391206</v>
+        <v>1.045298673288993</v>
       </c>
       <c r="T6" s="22" t="n">
-        <v>1.153493756918272</v>
+        <v>1.064812700686994</v>
       </c>
       <c r="U6" s="22" t="n">
-        <v>1.004525742829345</v>
+        <v>1.065582960861926</v>
       </c>
       <c r="V6" s="22" t="n">
-        <v>1.021462710970316</v>
+        <v>1.046900710883651</v>
       </c>
     </row>
     <row r="7">
@@ -7023,62 +7023,62 @@
         <v/>
       </c>
       <c r="B7" s="34" t="n">
-        <v>0.6516646216977411</v>
+        <v>0.7725514671455279</v>
       </c>
       <c r="C7" s="34" t="n">
-        <v>0.6504192690572521</v>
+        <v>0.7839805110437635</v>
       </c>
       <c r="D7" s="34" t="n">
-        <v>0.7387252466120929</v>
+        <v>0.736700540996802</v>
       </c>
       <c r="E7" s="34" t="n">
-        <v>0.7494252586855216</v>
+        <v>0.757859328322294</v>
       </c>
       <c r="F7" s="34" t="n">
-        <v>0.633407404478916</v>
+        <v>0.6653970765978284</v>
       </c>
       <c r="G7" s="34" t="n">
-        <v>0.6361128070804273</v>
+        <v>0.6660735535671115</v>
       </c>
       <c r="H7" s="34" t="n">
-        <v>0.6934239823582604</v>
+        <v>0.6802328089506088</v>
       </c>
       <c r="I7" s="34" t="n">
-        <v>0.6727966013526979</v>
+        <v>0.7167356900706827</v>
       </c>
       <c r="J7" s="34" t="n">
-        <v>0.744036785350653</v>
+        <v>0.7471301600368393</v>
       </c>
       <c r="M7">
         <f>+M6+1</f>
         <v/>
       </c>
       <c r="N7" s="22" t="n">
-        <v>1.08138902363723</v>
+        <v>1.053151071862493</v>
       </c>
       <c r="O7" s="22" t="n">
-        <v>1.112423076726641</v>
+        <v>1.039206734050878</v>
       </c>
       <c r="P7" s="22" t="n">
-        <v>1.062976007466966</v>
+        <v>1.037968954314679</v>
       </c>
       <c r="Q7" s="22" t="n">
-        <v>1.089107532371096</v>
+        <v>1</v>
       </c>
       <c r="R7" s="22" t="n">
-        <v>1.087798075415299</v>
+        <v>1.088111094735384</v>
       </c>
       <c r="S7" s="22" t="n">
-        <v>1.12961614532981</v>
+        <v>1.073050120298978</v>
       </c>
       <c r="T7" s="22" t="n">
-        <v>1.099092763548877</v>
+        <v>1.034154852425392</v>
       </c>
       <c r="U7" s="22" t="n">
-        <v>1.157884938440489</v>
+        <v>1</v>
       </c>
       <c r="V7" s="22" t="n">
-        <v>1.076041769919031</v>
+        <v>1.01898447715734</v>
       </c>
     </row>
     <row r="8">
@@ -7087,62 +7087,62 @@
         <v/>
       </c>
       <c r="B8" s="34" t="n">
-        <v>0.7047029689966449</v>
+        <v>0.8136134056932542</v>
       </c>
       <c r="C8" s="34" t="n">
-        <v>0.723541404446961</v>
+        <v>0.8147178264413277</v>
       </c>
       <c r="D8" s="34" t="n">
-        <v>0.7852472132587723</v>
+        <v>0.7646722901815088</v>
       </c>
       <c r="E8" s="34" t="n">
-        <v>0.8162046941835585</v>
+        <v>0.757859328322294</v>
       </c>
       <c r="F8" s="34" t="n">
-        <v>0.6890193555459644</v>
+        <v>0.7240259414505875</v>
       </c>
       <c r="G8" s="34" t="n">
-        <v>0.7185632971291174</v>
+        <v>0.7147303067831571</v>
       </c>
       <c r="H8" s="34" t="n">
-        <v>0.7621372810812082</v>
+        <v>0.7034660601552265</v>
       </c>
       <c r="I8" s="34" t="n">
-        <v>0.7790210513402388</v>
+        <v>0.7167356900706827</v>
       </c>
       <c r="J8" s="34" t="n">
-        <v>0.8004267359860731</v>
+        <v>0.7612505660711586</v>
       </c>
       <c r="M8">
         <f>+M7+1</f>
         <v/>
       </c>
       <c r="N8" s="22" t="n">
-        <v>1.030125764317403</v>
+        <v>1.014397648559453</v>
       </c>
       <c r="O8" s="22" t="n">
-        <v>1.019409776427104</v>
+        <v>1.013292177585982</v>
       </c>
       <c r="P8" s="22" t="n">
-        <v>1.013852783697094</v>
+        <v>1.012306587948304</v>
       </c>
       <c r="Q8" s="22" t="n">
-        <v>1.019070054016795</v>
+        <v>1.024052008455654</v>
       </c>
       <c r="R8" s="22" t="n">
-        <v>1.038228513064216</v>
+        <v>1.027348758063848</v>
       </c>
       <c r="S8" s="22" t="n">
-        <v>1.029482554184302</v>
+        <v>1.029405768959809</v>
       </c>
       <c r="T8" s="22" t="n">
-        <v>1.019642961563985</v>
+        <v>1.024076626273157</v>
       </c>
       <c r="U8" s="22" t="n">
-        <v>1.027390734018253</v>
+        <v>1.048153252546314</v>
       </c>
       <c r="V8" s="22" t="n">
-        <v>1.016461418856945</v>
+        <v>1.018179298201979</v>
       </c>
     </row>
     <row r="9">
@@ -7151,62 +7151,62 @@
         <v/>
       </c>
       <c r="B9" s="34" t="n">
-        <v>0.725932684554412</v>
+        <v>0.8253275255716854</v>
       </c>
       <c r="C9" s="34" t="n">
-        <v>0.7375851813430292</v>
+        <v>0.8255472004728511</v>
       </c>
       <c r="D9" s="34" t="n">
-        <v>0.7961250730527922</v>
+        <v>0.7740827969722583</v>
       </c>
       <c r="E9" s="34" t="n">
-        <v>0.8317697617904004</v>
+        <v>0.7760873672952981</v>
       </c>
       <c r="F9" s="34" t="n">
-        <v>0.7153595409809513</v>
+        <v>0.7438271517552697</v>
       </c>
       <c r="G9" s="34" t="n">
-        <v>0.7397483784715775</v>
+        <v>0.7357475010529958</v>
       </c>
       <c r="H9" s="34" t="n">
-        <v>0.7771079143999663</v>
+        <v>0.7204031495814341</v>
       </c>
       <c r="I9" s="34" t="n">
-        <v>0.8003590097521192</v>
+        <v>0.7512488447636133</v>
       </c>
       <c r="J9" s="34" t="n">
-        <v>0.8135571760472745</v>
+        <v>0.7750837860495571</v>
       </c>
       <c r="M9">
         <f>+M8+1</f>
         <v/>
       </c>
       <c r="N9" s="22" t="n">
-        <v>1.07710906236505</v>
+        <v>1.03884855922344</v>
       </c>
       <c r="O9" s="22" t="n">
-        <v>1.034500585548505</v>
+        <v>1.035988881752297</v>
       </c>
       <c r="P9" s="22" t="n">
-        <v>1.033279849459859</v>
+        <v>1.078309129564736</v>
       </c>
       <c r="Q9" s="22" t="n">
-        <v>1.057964641976995</v>
+        <v>1.027616491083694</v>
       </c>
       <c r="R9" s="22" t="n">
-        <v>1.092753078505461</v>
+        <v>1.078705358019602</v>
       </c>
       <c r="S9" s="22" t="n">
-        <v>1.034619944004068</v>
+        <v>1.083408096284442</v>
       </c>
       <c r="T9" s="22" t="n">
-        <v>1.043064762150055</v>
+        <v>1.077493792297344</v>
       </c>
       <c r="U9" s="22" t="n">
-        <v>1.073304288339816</v>
+        <v>1.018563600270149</v>
       </c>
       <c r="V9" s="22" t="n">
-        <v>1.045622245718427</v>
+        <v>1.052962810324215</v>
       </c>
     </row>
     <row r="10">
@@ -7215,62 +7215,62 @@
         <v/>
       </c>
       <c r="B10" s="34" t="n">
-        <v>0.7819086732005464</v>
+        <v>0.857390310827592</v>
       </c>
       <c r="C10" s="34" t="n">
-        <v>0.763032301991264</v>
+        <v>0.855257721051608</v>
       </c>
       <c r="D10" s="34" t="n">
-        <v>0.8226199956352084</v>
+        <v>0.8347005470141925</v>
       </c>
       <c r="E10" s="34" t="n">
-        <v>0.8799829982398716</v>
+        <v>0.7975201771543763</v>
       </c>
       <c r="F10" s="34" t="n">
-        <v>0.7817113406451883</v>
+        <v>0.802370334038869</v>
       </c>
       <c r="G10" s="34" t="n">
-        <v>0.7653584259113634</v>
+        <v>0.7971147994618617</v>
       </c>
       <c r="H10" s="34" t="n">
-        <v>0.8105738818985262</v>
+        <v>0.77622992162545</v>
       </c>
       <c r="I10" s="34" t="n">
-        <v>0.8590287573783577</v>
+        <v>0.7651947280212161</v>
       </c>
       <c r="J10" s="34" t="n">
-        <v>0.8503351782832032</v>
+        <v>0.8156868961024955</v>
       </c>
       <c r="M10">
         <f>+M9+1</f>
         <v/>
       </c>
       <c r="N10" s="22" t="n">
-        <v>1.038610169504294</v>
+        <v>1.013043881813449</v>
       </c>
       <c r="O10" s="22" t="n">
-        <v>1.049881895487696</v>
+        <v>1.015386168088172</v>
       </c>
       <c r="P10" s="22" t="n">
-        <v>1.020239254979531</v>
+        <v>1.04208645074599</v>
       </c>
       <c r="Q10" s="22" t="n">
-        <v>1</v>
+        <v>1.025366109307715</v>
       </c>
       <c r="R10" s="22" t="n">
-        <v>1.038133388624861</v>
+        <v>1.023961499811964</v>
       </c>
       <c r="S10" s="22" t="n">
-        <v>1.047666735781077</v>
+        <v>1.029951874764955</v>
       </c>
       <c r="T10" s="22" t="n">
-        <v>1.022405281671733</v>
+        <v>1.052217502148037</v>
       </c>
       <c r="U10" s="22" t="n">
-        <v>1</v>
+        <v>1.034540007518784</v>
       </c>
       <c r="V10" s="22" t="n">
-        <v>1.010119627489766</v>
+        <v>1.033726280026853</v>
       </c>
     </row>
     <row r="11">
@@ -7279,62 +7279,62 @@
         <v/>
       </c>
       <c r="B11" s="34" t="n">
-        <v>0.8120982996096973</v>
+        <v>0.8685740087100233</v>
       </c>
       <c r="C11" s="34" t="n">
-        <v>0.8010937995329283</v>
+        <v>0.8684168601064149</v>
       </c>
       <c r="D11" s="34" t="n">
-        <v>0.8392692114781303</v>
+        <v>0.8698301304737566</v>
       </c>
       <c r="E11" s="34" t="n">
-        <v>0.8799829982398716</v>
+        <v>0.8177501611431824</v>
       </c>
       <c r="F11" s="34" t="n">
-        <v>0.8115206429904727</v>
+        <v>0.8215963306470667</v>
       </c>
       <c r="G11" s="34" t="n">
-        <v>0.8018405637771011</v>
+        <v>0.8209898821086352</v>
       </c>
       <c r="H11" s="34" t="n">
-        <v>0.8287350180382125</v>
+        <v>0.8167627092252978</v>
       </c>
       <c r="I11" s="34" t="n">
-        <v>0.8590287573783577</v>
+        <v>0.7916245596804028</v>
       </c>
       <c r="J11" s="34" t="n">
-        <v>0.8591440311925805</v>
+        <v>0.8429865327244145</v>
       </c>
       <c r="M11">
         <f>+M10+1</f>
         <v/>
       </c>
       <c r="N11" s="22" t="n">
-        <v>1.082680503392113</v>
+        <v>1.008732650698162</v>
       </c>
       <c r="O11" s="22" t="n">
-        <v>1.095431566991669</v>
+        <v>1.008782134541602</v>
       </c>
       <c r="P11" s="22" t="n">
-        <v>1.055155596188095</v>
+        <v>1.003673121114247</v>
       </c>
       <c r="Q11" s="22" t="n">
-        <v>1.031474353123357</v>
+        <v>1</v>
       </c>
       <c r="R11" s="22" t="n">
-        <v>1.076324662832355</v>
+        <v>1.013808771017387</v>
       </c>
       <c r="S11" s="22" t="n">
-        <v>1.086705805534282</v>
+        <v>1.01434738024784</v>
       </c>
       <c r="T11" s="22" t="n">
-        <v>1.055289074166503</v>
+        <v>1.003505410122164</v>
       </c>
       <c r="U11" s="22" t="n">
-        <v>1.04916428210749</v>
+        <v>1</v>
       </c>
       <c r="V11" s="22" t="n">
-        <v>1.043314974655726</v>
+        <v>1.001836560557124</v>
       </c>
     </row>
     <row r="12">
@@ -7343,62 +7343,62 @@
         <v/>
       </c>
       <c r="B12" s="34" t="n">
-        <v>0.879242995825306</v>
+        <v>0.8761589621335905</v>
       </c>
       <c r="C12" s="34" t="n">
-        <v>0.8775434361296657</v>
+        <v>0.876043413810065</v>
       </c>
       <c r="D12" s="34" t="n">
-        <v>0.8855596051995193</v>
+        <v>0.8730251218918081</v>
       </c>
       <c r="E12" s="34" t="n">
-        <v>0.9076798938690241</v>
+        <v>0.8177501611431824</v>
       </c>
       <c r="F12" s="34" t="n">
-        <v>0.8734596824482163</v>
+        <v>0.8329415662456974</v>
       </c>
       <c r="G12" s="34" t="n">
-        <v>0.8713647957694576</v>
+        <v>0.8327689361268771</v>
       </c>
       <c r="H12" s="34" t="n">
-        <v>0.8745550099149051</v>
+        <v>0.8196257974936223</v>
       </c>
       <c r="I12" s="34" t="n">
-        <v>0.9012622895445538</v>
+        <v>0.7916245596804028</v>
       </c>
       <c r="J12" s="34" t="n">
-        <v>0.8964833184632751</v>
+        <v>0.8444841147991848</v>
       </c>
       <c r="M12">
         <f>+M11+1</f>
         <v/>
       </c>
       <c r="N12" s="22" t="n">
-        <v>1.027574383508019</v>
+        <v>1.002462854351086</v>
       </c>
       <c r="O12" s="22" t="n">
-        <v>1.029564511784956</v>
+        <v>1.002595077138668</v>
       </c>
       <c r="P12" s="22" t="n">
-        <v>1.051252099029716</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="22" t="n">
-        <v>1.013445094077244</v>
+        <v>1</v>
       </c>
       <c r="R12" s="22" t="n">
-        <v>1.029706763349281</v>
+        <v>1.00249376185472</v>
       </c>
       <c r="S12" s="22" t="n">
-        <v>1.032182326961721</v>
+        <v>1.002701575342614</v>
       </c>
       <c r="T12" s="22" t="n">
-        <v>1.058005782089047</v>
+        <v>1</v>
       </c>
       <c r="U12" s="22" t="n">
-        <v>1.010806301370455</v>
+        <v>1</v>
       </c>
       <c r="V12" s="22" t="n">
-        <v>1.03234859655348</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -7407,62 +7407,62 @@
         <v/>
       </c>
       <c r="B13" s="34" t="n">
-        <v>0.9034875793889322</v>
+        <v>0.8783168140457243</v>
       </c>
       <c r="C13" s="34" t="n">
-        <v>0.9034875793889322</v>
+        <v>0.8783168140457243</v>
       </c>
       <c r="D13" s="34" t="n">
-        <v>0.9309463937819209</v>
+        <v>0.8730251218918081</v>
       </c>
       <c r="E13" s="34" t="n">
-        <v>0.9198837354341158</v>
+        <v>0.8177501611431824</v>
       </c>
       <c r="F13" s="34" t="n">
-        <v>0.8994073425298434</v>
+        <v>0.8350187241508121</v>
       </c>
       <c r="G13" s="34" t="n">
-        <v>0.8994073425298434</v>
+        <v>0.8350187241508121</v>
       </c>
       <c r="H13" s="34" t="n">
-        <v>0.9252842572449138</v>
+        <v>0.8196257974936223</v>
       </c>
       <c r="I13" s="34" t="n">
-        <v>0.9110016014591985</v>
+        <v>0.7916245596804028</v>
       </c>
       <c r="J13" s="34" t="n">
-        <v>0.9253820031163699</v>
+        <v>0.8444841147991848</v>
       </c>
       <c r="M13">
         <f>+M12+1</f>
         <v/>
       </c>
       <c r="N13" s="22" t="n">
-        <v>1.045731932074627</v>
+        <v>1.007802388121971</v>
       </c>
       <c r="O13" s="22" t="n">
-        <v>1.045731932074627</v>
+        <v>1.007802388121971</v>
       </c>
       <c r="P13" s="22" t="n">
-        <v>1.017858059086809</v>
+        <v>1.012874347955863</v>
       </c>
       <c r="Q13" s="22" t="n">
-        <v>1</v>
+        <v>1.050389613734257</v>
       </c>
       <c r="R13" s="22" t="n">
-        <v>1.041694024563501</v>
+        <v>1.013453530410656</v>
       </c>
       <c r="S13" s="22" t="n">
-        <v>1.041694024563501</v>
+        <v>1.013453530410656</v>
       </c>
       <c r="T13" s="22" t="n">
-        <v>1.017763481259182</v>
+        <v>1.026907060821311</v>
       </c>
       <c r="U13" s="22" t="n">
-        <v>1</v>
+        <v>1.038359758300996</v>
       </c>
       <c r="V13" s="22" t="n">
-        <v>1.008929029543405</v>
+        <v>1.03163198084506</v>
       </c>
     </row>
     <row r="14">
@@ -7471,62 +7471,62 @@
         <v/>
       </c>
       <c r="B14" s="34" t="n">
-        <v>0.9448058119998165</v>
+        <v>0.8851697827229618</v>
       </c>
       <c r="C14" s="34" t="n">
-        <v>0.9448058119998165</v>
+        <v>0.8851697827229618</v>
       </c>
       <c r="D14" s="34" t="n">
-        <v>0.9475712894887305</v>
+        <v>0.8842647510852526</v>
       </c>
       <c r="E14" s="34" t="n">
-        <v>0.9198837354341158</v>
+        <v>0.858956275894314</v>
       </c>
       <c r="F14" s="34" t="n">
-        <v>0.9369072543618759</v>
+        <v>0.8462526739496418</v>
       </c>
       <c r="G14" s="34" t="n">
-        <v>0.9369072543618759</v>
+        <v>0.8462526739496418</v>
       </c>
       <c r="H14" s="34" t="n">
-        <v>0.9417205268079</v>
+        <v>0.8416795186774989</v>
       </c>
       <c r="I14" s="34" t="n">
-        <v>0.9110016014591985</v>
+        <v>0.8219910864548751</v>
       </c>
       <c r="J14" s="34" t="n">
-        <v>0.9335222596871138</v>
+        <v>0.8714267964204682</v>
       </c>
       <c r="M14">
         <f>+M13+1</f>
         <v/>
       </c>
       <c r="N14" s="22" t="n">
-        <v>1.023857029839627</v>
+        <v>1</v>
       </c>
       <c r="O14" s="22" t="n">
-        <v>1.023857029839627</v>
+        <v>1</v>
       </c>
       <c r="P14" s="22" t="n">
-        <v>1.009086353842674</v>
+        <v>1</v>
       </c>
       <c r="Q14" s="22" t="n">
-        <v>1.001533118097535</v>
+        <v>1</v>
       </c>
       <c r="R14" s="22" t="n">
-        <v>1.02267544846361</v>
+        <v>1</v>
       </c>
       <c r="S14" s="22" t="n">
-        <v>1.02267544846361</v>
+        <v>1</v>
       </c>
       <c r="T14" s="22" t="n">
-        <v>1.007613985606543</v>
+        <v>1</v>
       </c>
       <c r="U14" s="22" t="n">
-        <v>1.002775611685596</v>
+        <v>1</v>
       </c>
       <c r="V14" s="22" t="n">
-        <v>1.005309735970105</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -7535,62 +7535,62 @@
         <v/>
       </c>
       <c r="B15" s="34" t="n">
-        <v>0.9673460724493488</v>
+        <v>0.8851697827229618</v>
       </c>
       <c r="C15" s="34" t="n">
-        <v>0.9673460724493488</v>
+        <v>0.8851697827229618</v>
       </c>
       <c r="D15" s="34" t="n">
-        <v>0.956181257516184</v>
+        <v>0.8842647510852526</v>
       </c>
       <c r="E15" s="34" t="n">
-        <v>0.9212940258365382</v>
+        <v>0.858956275894314</v>
       </c>
       <c r="F15" s="34" t="n">
-        <v>0.9581520465233414</v>
+        <v>0.8462526739496418</v>
       </c>
       <c r="G15" s="34" t="n">
-        <v>0.9581520465233414</v>
+        <v>0.8462526739496418</v>
       </c>
       <c r="H15" s="34" t="n">
-        <v>0.9488907733444014</v>
+        <v>0.8416795186774989</v>
       </c>
       <c r="I15" s="34" t="n">
-        <v>0.9135301881498058</v>
+        <v>0.8219910864548751</v>
       </c>
       <c r="J15" s="34" t="n">
-        <v>0.9384135045372304</v>
+        <v>0.8714267964204682</v>
       </c>
       <c r="M15">
         <f>+M14+1</f>
         <v/>
       </c>
       <c r="N15" s="22" t="n">
-        <v>1.005413829910024</v>
+        <v>1</v>
       </c>
       <c r="O15" s="22" t="n">
-        <v>1.005413829910024</v>
+        <v>1</v>
       </c>
       <c r="P15" s="22" t="n">
-        <v>1.010784236121281</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="22" t="n">
-        <v>1.019657967098854</v>
+        <v>1</v>
       </c>
       <c r="R15" s="22" t="n">
-        <v>1.004306498678766</v>
+        <v>1</v>
       </c>
       <c r="S15" s="22" t="n">
-        <v>1.004306498678766</v>
+        <v>1</v>
       </c>
       <c r="T15" s="22" t="n">
-        <v>1.007177497797944</v>
+        <v>1</v>
       </c>
       <c r="U15" s="22" t="n">
-        <v>1.014354995595887</v>
+        <v>1</v>
       </c>
       <c r="V15" s="22" t="n">
-        <v>1.015221101610067</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -7599,62 +7599,62 @@
         <v/>
       </c>
       <c r="B16" s="34" t="n">
-        <v>0.9725831195497197</v>
+        <v>0.8851697827229618</v>
       </c>
       <c r="C16" s="34" t="n">
-        <v>0.9725831195497197</v>
+        <v>0.8851697827229618</v>
       </c>
       <c r="D16" s="34" t="n">
-        <v>0.9664929419719822</v>
+        <v>0.8842647510852526</v>
       </c>
       <c r="E16" s="34" t="n">
-        <v>0.9394047934848033</v>
+        <v>0.858956275894314</v>
       </c>
       <c r="F16" s="34" t="n">
-        <v>0.9622783270457512</v>
+        <v>0.8462526739496418</v>
       </c>
       <c r="G16" s="34" t="n">
-        <v>0.9622783270457512</v>
+        <v>0.8462526739496418</v>
       </c>
       <c r="H16" s="34" t="n">
-        <v>0.95570143478057</v>
+        <v>0.8416795186774989</v>
       </c>
       <c r="I16" s="34" t="n">
-        <v>0.9266439099774063</v>
+        <v>0.8219910864548751</v>
       </c>
       <c r="J16" s="34" t="n">
-        <v>0.9527563684733664</v>
+        <v>0.8714267964204682</v>
       </c>
       <c r="M16">
         <f>+M15+1</f>
         <v/>
       </c>
       <c r="N16" s="22" t="n">
-        <v>1.008049964270543</v>
+        <v>1</v>
       </c>
       <c r="O16" s="22" t="n">
-        <v>1.008049964270543</v>
+        <v>1</v>
       </c>
       <c r="P16" s="22" t="n">
-        <v>1.011973978150683</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="22" t="n">
         <v>1</v>
       </c>
       <c r="R16" s="22" t="n">
-        <v>1.005100257482985</v>
+        <v>1</v>
       </c>
       <c r="S16" s="22" t="n">
-        <v>1.005100257482985</v>
+        <v>1</v>
       </c>
       <c r="T16" s="22" t="n">
-        <v>1.006512515426521</v>
+        <v>1</v>
       </c>
       <c r="U16" s="22" t="n">
         <v>1</v>
       </c>
       <c r="V16" s="22" t="n">
-        <v>1.005986989075341</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -7663,62 +7663,62 @@
         <v/>
       </c>
       <c r="B17" s="34" t="n">
-        <v>0.9804123789122283</v>
+        <v>0.8851697827229618</v>
       </c>
       <c r="C17" s="34" t="n">
-        <v>0.9804123789122283</v>
+        <v>0.8851697827229618</v>
       </c>
       <c r="D17" s="34" t="n">
-        <v>0.9780657073419439</v>
+        <v>0.8842647510852526</v>
       </c>
       <c r="E17" s="34" t="n">
-        <v>0.9394047934848033</v>
+        <v>0.858956275894314</v>
       </c>
       <c r="F17" s="34" t="n">
-        <v>0.9671861942839809</v>
+        <v>0.8462526739496418</v>
       </c>
       <c r="G17" s="34" t="n">
-        <v>0.9671861942839809</v>
+        <v>0.8462526739496418</v>
       </c>
       <c r="H17" s="34" t="n">
-        <v>0.9619254551177265</v>
+        <v>0.8416795186774989</v>
       </c>
       <c r="I17" s="34" t="n">
-        <v>0.9266439099774063</v>
+        <v>0.8219910864548751</v>
       </c>
       <c r="J17" s="34" t="n">
-        <v>0.9583455009336229</v>
+        <v>0.8714267964204682</v>
       </c>
       <c r="M17">
         <f>+M16+1</f>
         <v/>
       </c>
       <c r="N17" s="22" t="n">
-        <v>1</v>
+        <v>1.005539064765557</v>
       </c>
       <c r="O17" s="22" t="n">
-        <v>1</v>
+        <v>1.005539064765557</v>
       </c>
       <c r="P17" s="22" t="n">
-        <v>1</v>
+        <v>1.006568218834458</v>
       </c>
       <c r="Q17" s="22" t="n">
         <v>1</v>
       </c>
       <c r="R17" s="22" t="n">
-        <v>1</v>
+        <v>1.016570202594945</v>
       </c>
       <c r="S17" s="22" t="n">
-        <v>1</v>
+        <v>1.016570202594945</v>
       </c>
       <c r="T17" s="22" t="n">
-        <v>1</v>
+        <v>1.022093603459926</v>
       </c>
       <c r="U17" s="22" t="n">
         <v>1</v>
       </c>
       <c r="V17" s="22" t="n">
-        <v>1</v>
+        <v>1.003284109417229</v>
       </c>
     </row>
     <row r="18">
@@ -7727,62 +7727,62 @@
         <v/>
       </c>
       <c r="B18" s="34" t="n">
-        <v>0.9804123789122283</v>
+        <v>0.8900727954779786</v>
       </c>
       <c r="C18" s="34" t="n">
-        <v>0.9804123789122283</v>
+        <v>0.8900727954779786</v>
       </c>
       <c r="D18" s="34" t="n">
-        <v>0.9780657073419439</v>
+        <v>0.8900727954779786</v>
       </c>
       <c r="E18" s="34" t="n">
-        <v>0.9394047934848033</v>
+        <v>0.858956275894314</v>
       </c>
       <c r="F18" s="34" t="n">
-        <v>0.9671861942839809</v>
+        <v>0.860275252203501</v>
       </c>
       <c r="G18" s="34" t="n">
-        <v>0.9671861942839809</v>
+        <v>0.860275252203501</v>
       </c>
       <c r="H18" s="34" t="n">
-        <v>0.9619254551177265</v>
+        <v>0.860275252203501</v>
       </c>
       <c r="I18" s="34" t="n">
-        <v>0.9266439099774063</v>
+        <v>0.8219910864548751</v>
       </c>
       <c r="J18" s="34" t="n">
-        <v>0.9583455009336229</v>
+        <v>0.874237742748039</v>
       </c>
       <c r="M18">
         <f>+M17+1</f>
         <v/>
       </c>
       <c r="N18" s="22" t="n">
-        <v>1.01997896141367</v>
+        <v>1</v>
       </c>
       <c r="O18" s="22" t="n">
-        <v>1.01997896141367</v>
+        <v>1</v>
       </c>
       <c r="P18" s="22" t="n">
-        <v>1.022426195390968</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="22" t="n">
-        <v>1.064503829377337</v>
+        <v>1</v>
       </c>
       <c r="R18" s="22" t="n">
-        <v>1.033927082406621</v>
+        <v>1</v>
       </c>
       <c r="S18" s="22" t="n">
-        <v>1.033927082406621</v>
+        <v>1</v>
       </c>
       <c r="T18" s="22" t="n">
-        <v>1.039581596141058</v>
+        <v>1</v>
       </c>
       <c r="U18" s="22" t="n">
-        <v>1.079163192282117</v>
+        <v>1</v>
       </c>
       <c r="V18" s="22" t="n">
-        <v>1.043465012384153</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -7791,31 +7791,31 @@
         <v/>
       </c>
       <c r="B19" s="34" t="n">
-        <v>1</v>
+        <v>0.8900727954779786</v>
       </c>
       <c r="C19" s="34" t="n">
-        <v>1</v>
+        <v>0.8900727954779786</v>
       </c>
       <c r="D19" s="34" t="n">
-        <v>1</v>
+        <v>0.8900727954779786</v>
       </c>
       <c r="E19" s="34" t="n">
-        <v>1</v>
+        <v>0.858956275894314</v>
       </c>
       <c r="F19" s="34" t="n">
-        <v>1</v>
+        <v>0.860275252203501</v>
       </c>
       <c r="G19" s="34" t="n">
-        <v>1</v>
+        <v>0.860275252203501</v>
       </c>
       <c r="H19" s="34" t="n">
-        <v>1</v>
+        <v>0.860275252203501</v>
       </c>
       <c r="I19" s="34" t="n">
-        <v>1</v>
+        <v>0.8219910864548751</v>
       </c>
       <c r="J19" s="34" t="n">
-        <v>1</v>
+        <v>0.874237742748039</v>
       </c>
       <c r="M19">
         <f>+M18+1</f>
@@ -7855,31 +7855,31 @@
         <v/>
       </c>
       <c r="B20" s="34" t="n">
-        <v>1</v>
+        <v>0.8900727954779786</v>
       </c>
       <c r="C20" s="34" t="n">
-        <v>1</v>
+        <v>0.8900727954779786</v>
       </c>
       <c r="D20" s="34" t="n">
-        <v>1</v>
+        <v>0.8900727954779786</v>
       </c>
       <c r="E20" s="34" t="n">
-        <v>1</v>
+        <v>0.858956275894314</v>
       </c>
       <c r="F20" s="34" t="n">
-        <v>1</v>
+        <v>0.860275252203501</v>
       </c>
       <c r="G20" s="34" t="n">
-        <v>1</v>
+        <v>0.860275252203501</v>
       </c>
       <c r="H20" s="34" t="n">
-        <v>1</v>
+        <v>0.860275252203501</v>
       </c>
       <c r="I20" s="34" t="n">
-        <v>1</v>
+        <v>0.8219910864548751</v>
       </c>
       <c r="J20" s="34" t="n">
-        <v>1</v>
+        <v>0.874237742748039</v>
       </c>
       <c r="M20">
         <f>+M19+1</f>
@@ -7919,62 +7919,62 @@
         <v/>
       </c>
       <c r="B21" s="34" t="n">
-        <v>1</v>
+        <v>0.8900727954779786</v>
       </c>
       <c r="C21" s="34" t="n">
-        <v>1</v>
+        <v>0.8900727954779786</v>
       </c>
       <c r="D21" s="34" t="n">
-        <v>1</v>
+        <v>0.8900727954779786</v>
       </c>
       <c r="E21" s="34" t="n">
-        <v>1</v>
+        <v>0.858956275894314</v>
       </c>
       <c r="F21" s="34" t="n">
-        <v>1</v>
+        <v>0.860275252203501</v>
       </c>
       <c r="G21" s="34" t="n">
-        <v>1</v>
+        <v>0.860275252203501</v>
       </c>
       <c r="H21" s="34" t="n">
-        <v>1</v>
+        <v>0.860275252203501</v>
       </c>
       <c r="I21" s="34" t="n">
-        <v>1</v>
+        <v>0.8219910864548751</v>
       </c>
       <c r="J21" s="34" t="n">
-        <v>1</v>
+        <v>0.874237742748039</v>
       </c>
       <c r="M21">
         <f>+M20+1</f>
         <v/>
       </c>
       <c r="N21" s="22" t="n">
-        <v>1</v>
+        <v>1.123503611255739</v>
       </c>
       <c r="O21" s="22" t="n">
-        <v>1</v>
+        <v>1.123503611255739</v>
       </c>
       <c r="P21" s="22" t="n">
-        <v>1</v>
+        <v>1.123503611255739</v>
       </c>
       <c r="Q21" s="22" t="n">
-        <v>1</v>
+        <v>1.164203613226804</v>
       </c>
       <c r="R21" s="22" t="n">
-        <v>1</v>
+        <v>1.162418653144571</v>
       </c>
       <c r="S21" s="22" t="n">
-        <v>1</v>
+        <v>1.162418653144571</v>
       </c>
       <c r="T21" s="22" t="n">
-        <v>1</v>
+        <v>1.162418653144571</v>
       </c>
       <c r="U21" s="22" t="n">
-        <v>1</v>
+        <v>1.216558204192762</v>
       </c>
       <c r="V21" s="22" t="n">
-        <v>1</v>
+        <v>1.143853612241272</v>
       </c>
     </row>
     <row r="22">
@@ -8234,7 +8234,7 @@
         </is>
       </c>
       <c r="H4" s="8" t="n">
-        <v>45322</v>
+        <v>45657</v>
       </c>
       <c r="J4" s="40" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v/>
       </c>
       <c r="B8" s="14" t="n">
-        <v>7373.620000000001</v>
+        <v>7240.780000000001</v>
       </c>
       <c r="C8" s="14">
         <f>+'Completion Factors'!J30</f>
@@ -8582,7 +8582,7 @@
         <v/>
       </c>
       <c r="I8" s="14" t="n">
-        <v>45321.86666666667</v>
+        <v>99979.77250000001</v>
       </c>
       <c r="J8" s="14">
         <f>100*$G8/$I8</f>
@@ -8608,73 +8608,73 @@
         <v/>
       </c>
       <c r="T8" s="22" t="n">
-        <v>2000</v>
+        <v/>
       </c>
       <c r="U8" s="22" t="n">
-        <v>3269</v>
+        <v>2500.71</v>
       </c>
       <c r="V8" s="22" t="n">
-        <v>5703.440000000001</v>
+        <v>3997.93</v>
       </c>
       <c r="W8" s="22" t="n">
-        <v>6323.440000000001</v>
+        <v>4190.14</v>
       </c>
       <c r="X8" s="22" t="n">
-        <v>6973.620000000001</v>
+        <v>5490.780000000001</v>
       </c>
       <c r="Y8" s="22" t="n">
-        <v>6973.620000000001</v>
+        <v>7090.780000000001</v>
       </c>
       <c r="Z8" s="22" t="n">
-        <v>7123.620000000001</v>
+        <v>7090.780000000001</v>
       </c>
       <c r="AA8" s="22" t="n">
-        <v>7123.620000000001</v>
+        <v>7090.780000000001</v>
       </c>
       <c r="AB8" s="22" t="n">
-        <v>7123.620000000001</v>
+        <v>7090.780000000001</v>
       </c>
       <c r="AC8" s="22" t="n">
-        <v>7323.620000000001</v>
+        <v>7240.780000000001</v>
       </c>
       <c r="AD8" s="22" t="n">
-        <v>7323.620000000001</v>
+        <v>7240.780000000001</v>
       </c>
       <c r="AE8" s="22" t="n">
-        <v>7323.620000000001</v>
+        <v>7240.780000000001</v>
       </c>
       <c r="AF8" s="22" t="n">
-        <v>7323.620000000001</v>
+        <v>7240.780000000001</v>
       </c>
       <c r="AG8" s="22" t="n">
-        <v>7323.620000000001</v>
+        <v>7240.780000000001</v>
       </c>
       <c r="AH8" s="22" t="n">
-        <v>7373.620000000001</v>
+        <v>7240.780000000001</v>
       </c>
       <c r="AI8" s="22" t="n">
-        <v>7373.620000000001</v>
+        <v>7240.780000000001</v>
       </c>
       <c r="AJ8" s="22" t="n">
-        <v>7373.620000000001</v>
+        <v>7240.780000000001</v>
       </c>
       <c r="AK8" s="22" t="n">
-        <v>7373.620000000001</v>
+        <v>7240.780000000001</v>
       </c>
       <c r="AL8" s="22" t="n">
-        <v>7373.620000000001</v>
+        <v>7240.780000000001</v>
       </c>
       <c r="AM8" s="22" t="n">
-        <v>7373.620000000001</v>
+        <v>7240.780000000001</v>
       </c>
       <c r="AN8" s="22" t="n">
-        <v>7373.620000000001</v>
+        <v>7240.780000000001</v>
       </c>
       <c r="AO8" s="22" t="n">
-        <v>7373.620000000001</v>
+        <v>7240.780000000001</v>
       </c>
       <c r="AP8" s="22" t="n">
-        <v>7373.620000000001</v>
+        <v>7240.780000000001</v>
       </c>
       <c r="AQ8" s="14" t="n"/>
       <c r="AR8" s="14" t="n"/>
@@ -8685,7 +8685,7 @@
         <v/>
       </c>
       <c r="B9" s="14" t="n">
-        <v>11004.56</v>
+        <v>11146.17</v>
       </c>
       <c r="C9" s="14">
         <f>+'Completion Factors'!J29</f>
@@ -8709,7 +8709,7 @@
         <v/>
       </c>
       <c r="I9" s="14" t="n">
-        <v>44795.41666666666</v>
+        <v>99441.395</v>
       </c>
       <c r="J9" s="14">
         <f>100*$G9/$I9</f>
@@ -8735,70 +8735,70 @@
         <v/>
       </c>
       <c r="T9" s="22" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="U9" s="22" t="n">
         <v>2200</v>
       </c>
       <c r="V9" s="22" t="n">
-        <v>4650</v>
+        <v>5805.1</v>
       </c>
       <c r="W9" s="22" t="n">
-        <v>6053.96</v>
+        <v>5805.1</v>
       </c>
       <c r="X9" s="22" t="n">
-        <v>6653.96</v>
+        <v>10396.17</v>
       </c>
       <c r="Y9" s="22" t="n">
-        <v>6653.96</v>
+        <v>10396.17</v>
       </c>
       <c r="Z9" s="22" t="n">
-        <v>6653.96</v>
+        <v>10396.17</v>
       </c>
       <c r="AA9" s="22" t="n">
-        <v>9003.959999999999</v>
+        <v>10796.17</v>
       </c>
       <c r="AB9" s="22" t="n">
-        <v>9003.959999999999</v>
+        <v>10796.17</v>
       </c>
       <c r="AC9" s="22" t="n">
-        <v>9003.959999999999</v>
+        <v>10796.17</v>
       </c>
       <c r="AD9" s="22" t="n">
-        <v>9003.959999999999</v>
+        <v>11146.17</v>
       </c>
       <c r="AE9" s="22" t="n">
-        <v>9204.559999999999</v>
+        <v>11146.17</v>
       </c>
       <c r="AF9" s="22" t="n">
-        <v>11004.56</v>
+        <v>11146.17</v>
       </c>
       <c r="AG9" s="22" t="n">
-        <v>11004.56</v>
+        <v>11146.17</v>
       </c>
       <c r="AH9" s="22" t="n">
-        <v>11004.56</v>
+        <v>11146.17</v>
       </c>
       <c r="AI9" s="22" t="n">
-        <v>11004.56</v>
+        <v>11146.17</v>
       </c>
       <c r="AJ9" s="22" t="n">
-        <v>11004.56</v>
+        <v>11146.17</v>
       </c>
       <c r="AK9" s="22" t="n">
-        <v>11004.56</v>
+        <v>11146.17</v>
       </c>
       <c r="AL9" s="22" t="n">
-        <v>11004.56</v>
+        <v>11146.17</v>
       </c>
       <c r="AM9" s="22" t="n">
-        <v>11004.56</v>
+        <v>11146.17</v>
       </c>
       <c r="AN9" s="22" t="n">
-        <v>11004.56</v>
+        <v>11146.17</v>
       </c>
       <c r="AO9" s="22" t="n">
-        <v>11004.56</v>
+        <v>11146.17</v>
       </c>
       <c r="AP9" s="22" t="n">
         <v/>
@@ -8812,7 +8812,7 @@
         <v/>
       </c>
       <c r="B10" s="14" t="n">
-        <v>12308.86</v>
+        <v>9161.27</v>
       </c>
       <c r="C10" s="14">
         <f>+'Completion Factors'!J28</f>
@@ -8836,7 +8836,7 @@
         <v/>
       </c>
       <c r="I10" s="14" t="n">
-        <v>44478.22666666666</v>
+        <v>98610.00166666666</v>
       </c>
       <c r="J10" s="14">
         <f>100*$G10/$I10</f>
@@ -8862,67 +8862,67 @@
         <v/>
       </c>
       <c r="T10" s="22" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="U10" s="22" t="n">
-        <v>4542.37</v>
+        <v>3753.38</v>
       </c>
       <c r="V10" s="22" t="n">
-        <v>5117.91</v>
+        <v>3753.38</v>
       </c>
       <c r="W10" s="22" t="n">
-        <v>5417.91</v>
+        <v>3903.38</v>
       </c>
       <c r="X10" s="22" t="n">
-        <v>6267.91</v>
+        <v>4203.38</v>
       </c>
       <c r="Y10" s="22" t="n">
-        <v>6267.91</v>
+        <v>4203.38</v>
       </c>
       <c r="Z10" s="22" t="n">
-        <v>7867.91</v>
+        <v>4353.38</v>
       </c>
       <c r="AA10" s="22" t="n">
-        <v>7867.91</v>
+        <v>4353.38</v>
       </c>
       <c r="AB10" s="22" t="n">
-        <v>7867.91</v>
+        <v>4353.38</v>
       </c>
       <c r="AC10" s="22" t="n">
-        <v>10908.86</v>
+        <v>4903.38</v>
       </c>
       <c r="AD10" s="22" t="n">
-        <v>10908.86</v>
+        <v>4903.38</v>
       </c>
       <c r="AE10" s="22" t="n">
-        <v>12208.86</v>
+        <v>4903.38</v>
       </c>
       <c r="AF10" s="22" t="n">
-        <v>12308.86</v>
+        <v>4903.38</v>
       </c>
       <c r="AG10" s="22" t="n">
-        <v>12308.86</v>
+        <v>4903.38</v>
       </c>
       <c r="AH10" s="22" t="n">
-        <v>12308.86</v>
+        <v>4903.38</v>
       </c>
       <c r="AI10" s="22" t="n">
-        <v>12308.86</v>
+        <v>5553.38</v>
       </c>
       <c r="AJ10" s="22" t="n">
-        <v>12308.86</v>
+        <v>5553.38</v>
       </c>
       <c r="AK10" s="22" t="n">
-        <v>12308.86</v>
+        <v>5553.38</v>
       </c>
       <c r="AL10" s="22" t="n">
-        <v>12308.86</v>
+        <v>5553.38</v>
       </c>
       <c r="AM10" s="22" t="n">
-        <v>12308.86</v>
+        <v>9161.27</v>
       </c>
       <c r="AN10" s="22" t="n">
-        <v>12308.86</v>
+        <v>9161.27</v>
       </c>
       <c r="AO10" s="22" t="n">
         <v/>
@@ -8939,7 +8939,7 @@
         <v/>
       </c>
       <c r="B11" s="14" t="n">
-        <v>15955.05</v>
+        <v>5272.5</v>
       </c>
       <c r="C11" s="14">
         <f>+'Completion Factors'!J27</f>
@@ -8963,7 +8963,7 @@
         <v/>
       </c>
       <c r="I11" s="14" t="n">
-        <v>44120.6525</v>
+        <v>97952.16416666667</v>
       </c>
       <c r="J11" s="14">
         <f>100*$G11/$I11</f>
@@ -8989,64 +8989,64 @@
         <v/>
       </c>
       <c r="T11" s="22" t="n">
-        <v>2500</v>
+        <v>1550</v>
       </c>
       <c r="U11" s="22" t="n">
-        <v>3803.13</v>
+        <v>2530.5</v>
       </c>
       <c r="V11" s="22" t="n">
-        <v>3803.13</v>
+        <v>2580.5</v>
       </c>
       <c r="W11" s="22" t="n">
-        <v>4263.13</v>
+        <v>2580.5</v>
       </c>
       <c r="X11" s="22" t="n">
-        <v>4263.13</v>
+        <v>3722.03</v>
       </c>
       <c r="Y11" s="22" t="n">
-        <v>4263.13</v>
+        <v>4172.03</v>
       </c>
       <c r="Z11" s="22" t="n">
-        <v>4263.13</v>
+        <v>4322.03</v>
       </c>
       <c r="AA11" s="22" t="n">
-        <v>7313.13</v>
+        <v>5272.5</v>
       </c>
       <c r="AB11" s="22" t="n">
-        <v>10513.13</v>
+        <v>5272.5</v>
       </c>
       <c r="AC11" s="22" t="n">
-        <v>13105.05</v>
+        <v>5272.5</v>
       </c>
       <c r="AD11" s="22" t="n">
-        <v>13605.05</v>
+        <v>5272.5</v>
       </c>
       <c r="AE11" s="22" t="n">
-        <v>15355.05</v>
+        <v>5272.5</v>
       </c>
       <c r="AF11" s="22" t="n">
-        <v>15355.05</v>
+        <v>5272.5</v>
       </c>
       <c r="AG11" s="22" t="n">
-        <v>15355.05</v>
+        <v>5272.5</v>
       </c>
       <c r="AH11" s="22" t="n">
-        <v>15955.05</v>
+        <v>5272.5</v>
       </c>
       <c r="AI11" s="22" t="n">
-        <v>15955.05</v>
+        <v>5272.5</v>
       </c>
       <c r="AJ11" s="22" t="n">
-        <v>15955.05</v>
+        <v>5272.5</v>
       </c>
       <c r="AK11" s="22" t="n">
-        <v>15955.05</v>
+        <v>5272.5</v>
       </c>
       <c r="AL11" s="22" t="n">
-        <v>15955.05</v>
+        <v>5272.5</v>
       </c>
       <c r="AM11" s="22" t="n">
-        <v>15955.05</v>
+        <v>5272.5</v>
       </c>
       <c r="AN11" s="22" t="n">
         <v/>
@@ -9066,7 +9066,7 @@
         <v/>
       </c>
       <c r="B12" s="14" t="n">
-        <v>7034.460000000001</v>
+        <v>7722</v>
       </c>
       <c r="C12" s="14">
         <f>++'Completion Factors'!J26</f>
@@ -9090,7 +9090,7 @@
         <v/>
       </c>
       <c r="I12" s="14" t="n">
-        <v>43683.7025</v>
+        <v>97269.735</v>
       </c>
       <c r="J12" s="14">
         <f>100*$G12/$I12</f>
@@ -9113,64 +9113,64 @@
         <v/>
       </c>
       <c r="S12" s="22" t="n">
-        <v/>
+        <v>1000</v>
       </c>
       <c r="T12" s="22" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="U12" s="22" t="n">
-        <v>3479.38</v>
+        <v>2772</v>
       </c>
       <c r="V12" s="22" t="n">
-        <v>3529.38</v>
+        <v>2922</v>
       </c>
       <c r="W12" s="22" t="n">
-        <v>3529.38</v>
+        <v>4122</v>
       </c>
       <c r="X12" s="22" t="n">
-        <v>5134.110000000001</v>
+        <v>5722</v>
       </c>
       <c r="Y12" s="22" t="n">
-        <v>5184.320000000001</v>
+        <v>7422</v>
       </c>
       <c r="Z12" s="22" t="n">
-        <v>5284.460000000001</v>
+        <v>7722</v>
       </c>
       <c r="AA12" s="22" t="n">
-        <v>5284.460000000001</v>
+        <v>7722</v>
       </c>
       <c r="AB12" s="22" t="n">
-        <v>5284.460000000001</v>
+        <v>7722</v>
       </c>
       <c r="AC12" s="22" t="n">
-        <v>5684.460000000001</v>
+        <v>7722</v>
       </c>
       <c r="AD12" s="22" t="n">
-        <v>5684.460000000001</v>
+        <v>7722</v>
       </c>
       <c r="AE12" s="22" t="n">
-        <v>5684.460000000001</v>
+        <v>7722</v>
       </c>
       <c r="AF12" s="22" t="n">
-        <v>5684.460000000001</v>
+        <v>7722</v>
       </c>
       <c r="AG12" s="22" t="n">
-        <v>5684.460000000001</v>
+        <v>7722</v>
       </c>
       <c r="AH12" s="22" t="n">
-        <v>5684.460000000001</v>
+        <v>7722</v>
       </c>
       <c r="AI12" s="22" t="n">
-        <v>5684.460000000001</v>
+        <v>7722</v>
       </c>
       <c r="AJ12" s="22" t="n">
-        <v>7034.460000000001</v>
+        <v>7722</v>
       </c>
       <c r="AK12" s="22" t="n">
-        <v>7034.460000000001</v>
+        <v>7722</v>
       </c>
       <c r="AL12" s="22" t="n">
-        <v>7034.460000000001</v>
+        <v>7722</v>
       </c>
       <c r="AM12" s="22" t="n">
         <v/>
@@ -9193,7 +9193,7 @@
         <v/>
       </c>
       <c r="B13" s="14" t="n">
-        <v>4096.79</v>
+        <v>18597</v>
       </c>
       <c r="C13" s="14">
         <f>++'Completion Factors'!J25</f>
@@ -9217,7 +9217,7 @@
         <v/>
       </c>
       <c r="I13" s="14" t="n">
-        <v>104751.8466666667</v>
+        <v>96762.10166666667</v>
       </c>
       <c r="J13" s="14">
         <f>100*$G13/$I13</f>
@@ -9243,58 +9243,58 @@
         <v/>
       </c>
       <c r="T13" s="22" t="n">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="U13" s="22" t="n">
-        <v>3295.83</v>
+        <v>13397</v>
       </c>
       <c r="V13" s="22" t="n">
-        <v>3295.83</v>
+        <v>13397</v>
       </c>
       <c r="W13" s="22" t="n">
-        <v>3295.83</v>
+        <v>17047</v>
       </c>
       <c r="X13" s="22" t="n">
-        <v>3295.83</v>
+        <v>17247</v>
       </c>
       <c r="Y13" s="22" t="n">
-        <v>3345.9</v>
+        <v>17247</v>
       </c>
       <c r="Z13" s="22" t="n">
-        <v>3645.9</v>
+        <v>17347</v>
       </c>
       <c r="AA13" s="22" t="n">
-        <v>3645.9</v>
+        <v>17347</v>
       </c>
       <c r="AB13" s="22" t="n">
-        <v>3645.9</v>
+        <v>18147</v>
       </c>
       <c r="AC13" s="22" t="n">
-        <v>3645.9</v>
+        <v>18597</v>
       </c>
       <c r="AD13" s="22" t="n">
-        <v>3645.9</v>
+        <v>18597</v>
       </c>
       <c r="AE13" s="22" t="n">
-        <v>4096.79</v>
+        <v>18597</v>
       </c>
       <c r="AF13" s="22" t="n">
-        <v>4096.79</v>
+        <v>18597</v>
       </c>
       <c r="AG13" s="22" t="n">
-        <v>4096.79</v>
+        <v>18597</v>
       </c>
       <c r="AH13" s="22" t="n">
-        <v>4096.79</v>
+        <v>18597</v>
       </c>
       <c r="AI13" s="22" t="n">
-        <v>4096.79</v>
+        <v>18597</v>
       </c>
       <c r="AJ13" s="22" t="n">
-        <v>4096.79</v>
+        <v>18597</v>
       </c>
       <c r="AK13" s="22" t="n">
-        <v>4096.79</v>
+        <v>18597</v>
       </c>
       <c r="AL13" s="22" t="n">
         <v/>
@@ -9320,7 +9320,7 @@
         <v/>
       </c>
       <c r="B14" s="14" t="n">
-        <v>11147.74</v>
+        <v>7164.75</v>
       </c>
       <c r="C14" s="14">
         <f>++'Completion Factors'!J24</f>
@@ -9344,7 +9344,7 @@
         <v/>
       </c>
       <c r="I14" s="14" t="n">
-        <v>103734.99</v>
+        <v>96190.69166666665</v>
       </c>
       <c r="J14" s="14">
         <f>100*$G14/$I14</f>
@@ -9367,58 +9367,58 @@
         <v/>
       </c>
       <c r="S14" s="22" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="T14" s="22" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="U14" s="22" t="n">
-        <v>4217.27</v>
+        <v>3064.75</v>
       </c>
       <c r="V14" s="22" t="n">
-        <v>5219.190000000001</v>
+        <v>3314.75</v>
       </c>
       <c r="W14" s="22" t="n">
-        <v>6291.950000000001</v>
+        <v>3964.75</v>
       </c>
       <c r="X14" s="22" t="n">
-        <v>6841.950000000001</v>
+        <v>3964.75</v>
       </c>
       <c r="Y14" s="22" t="n">
-        <v>8941.950000000001</v>
+        <v>4664.75</v>
       </c>
       <c r="Z14" s="22" t="n">
-        <v>8941.950000000001</v>
+        <v>4664.75</v>
       </c>
       <c r="AA14" s="22" t="n">
-        <v>10346.29</v>
+        <v>7164.75</v>
       </c>
       <c r="AB14" s="22" t="n">
-        <v>10346.29</v>
+        <v>7164.75</v>
       </c>
       <c r="AC14" s="22" t="n">
-        <v>10346.29</v>
+        <v>7164.75</v>
       </c>
       <c r="AD14" s="22" t="n">
-        <v>10346.29</v>
+        <v>7164.75</v>
       </c>
       <c r="AE14" s="22" t="n">
-        <v>10746.29</v>
+        <v>7164.75</v>
       </c>
       <c r="AF14" s="22" t="n">
-        <v>11147.74</v>
+        <v>7164.75</v>
       </c>
       <c r="AG14" s="22" t="n">
-        <v>11147.74</v>
+        <v>7164.75</v>
       </c>
       <c r="AH14" s="22" t="n">
-        <v>11147.74</v>
+        <v>7164.75</v>
       </c>
       <c r="AI14" s="22" t="n">
-        <v>11147.74</v>
+        <v>7164.75</v>
       </c>
       <c r="AJ14" s="22" t="n">
-        <v>11147.74</v>
+        <v>7164.75</v>
       </c>
       <c r="AK14" s="22" t="n">
         <v/>
@@ -9447,7 +9447,7 @@
         <v/>
       </c>
       <c r="B15" s="14" t="n">
-        <v>9363.530000000001</v>
+        <v>55301.75</v>
       </c>
       <c r="C15" s="14">
         <f>++'Completion Factors'!J23</f>
@@ -9471,7 +9471,7 @@
         <v/>
       </c>
       <c r="I15" s="14" t="n">
-        <v>103058.7</v>
+        <v>95491.685</v>
       </c>
       <c r="J15" s="14">
         <f>100*$G15/$I15</f>
@@ -9494,55 +9494,55 @@
         <v/>
       </c>
       <c r="S15" s="22" t="n">
-        <v>500</v>
+        <v/>
       </c>
       <c r="T15" s="22" t="n">
         <v>2000</v>
       </c>
       <c r="U15" s="22" t="n">
-        <v>3550</v>
+        <v>53126.75</v>
       </c>
       <c r="V15" s="22" t="n">
-        <v>3650.21</v>
+        <v>53976.75</v>
       </c>
       <c r="W15" s="22" t="n">
-        <v>4770.21</v>
+        <v>54201.75</v>
       </c>
       <c r="X15" s="22" t="n">
-        <v>6611.16</v>
+        <v>54301.75</v>
       </c>
       <c r="Y15" s="22" t="n">
-        <v>6812.08</v>
+        <v>55001.75</v>
       </c>
       <c r="Z15" s="22" t="n">
-        <v>6812.08</v>
+        <v>55301.75</v>
       </c>
       <c r="AA15" s="22" t="n">
-        <v>6812.08</v>
+        <v>55301.75</v>
       </c>
       <c r="AB15" s="22" t="n">
-        <v>6812.08</v>
+        <v>55301.75</v>
       </c>
       <c r="AC15" s="22" t="n">
-        <v>6812.08</v>
+        <v>55301.75</v>
       </c>
       <c r="AD15" s="22" t="n">
-        <v>8962.08</v>
+        <v>55301.75</v>
       </c>
       <c r="AE15" s="22" t="n">
-        <v>9363.530000000001</v>
+        <v>55301.75</v>
       </c>
       <c r="AF15" s="22" t="n">
-        <v>9363.530000000001</v>
+        <v>55301.75</v>
       </c>
       <c r="AG15" s="22" t="n">
-        <v>9363.530000000001</v>
+        <v>55301.75</v>
       </c>
       <c r="AH15" s="22" t="n">
-        <v>9363.530000000001</v>
+        <v>55301.75</v>
       </c>
       <c r="AI15" s="22" t="n">
-        <v>9363.530000000001</v>
+        <v>55301.75</v>
       </c>
       <c r="AJ15" s="22" t="n">
         <v/>
@@ -9574,7 +9574,7 @@
         <v/>
       </c>
       <c r="B16" s="14" t="n">
-        <v>4461.09</v>
+        <v>5101.47</v>
       </c>
       <c r="C16" s="14">
         <f>++'Completion Factors'!J22</f>
@@ -9598,7 +9598,7 @@
         <v/>
       </c>
       <c r="I16" s="14" t="n">
-        <v>102485.1225</v>
+        <v>94994.745</v>
       </c>
       <c r="J16" s="14">
         <f>100*$G16/$I16</f>
@@ -9621,52 +9621,52 @@
         <v/>
       </c>
       <c r="S16" s="22" t="n">
-        <v/>
+        <v>1000</v>
       </c>
       <c r="T16" s="22" t="n">
-        <v>1000</v>
+        <v>2200</v>
       </c>
       <c r="U16" s="22" t="n">
-        <v>2050</v>
+        <v>2250</v>
       </c>
       <c r="V16" s="22" t="n">
-        <v>3423.28</v>
+        <v>2625</v>
       </c>
       <c r="W16" s="22" t="n">
-        <v>3523.28</v>
+        <v>2725</v>
       </c>
       <c r="X16" s="22" t="n">
-        <v>3874.25</v>
+        <v>2925</v>
       </c>
       <c r="Y16" s="22" t="n">
-        <v>3874.25</v>
+        <v>4125</v>
       </c>
       <c r="Z16" s="22" t="n">
-        <v>4324.25</v>
+        <v>4775</v>
       </c>
       <c r="AA16" s="22" t="n">
-        <v>4324.25</v>
+        <v>4775</v>
       </c>
       <c r="AB16" s="22" t="n">
-        <v>4324.25</v>
+        <v>4775</v>
       </c>
       <c r="AC16" s="22" t="n">
-        <v>4324.25</v>
+        <v>4875.43</v>
       </c>
       <c r="AD16" s="22" t="n">
-        <v>4324.25</v>
+        <v>4875.43</v>
       </c>
       <c r="AE16" s="22" t="n">
-        <v>4424.25</v>
+        <v>5101.47</v>
       </c>
       <c r="AF16" s="22" t="n">
-        <v>4461.09</v>
+        <v>5101.47</v>
       </c>
       <c r="AG16" s="22" t="n">
-        <v>4461.09</v>
+        <v>5101.47</v>
       </c>
       <c r="AH16" s="22" t="n">
-        <v>4461.09</v>
+        <v>5101.47</v>
       </c>
       <c r="AI16" s="22" t="n">
         <v/>
@@ -9701,7 +9701,7 @@
         <v/>
       </c>
       <c r="B17" s="14" t="n">
-        <v>12110.36</v>
+        <v>5603.940000000001</v>
       </c>
       <c r="C17" s="14">
         <f>++'Completion Factors'!J21</f>
@@ -9725,7 +9725,7 @@
         <v/>
       </c>
       <c r="I17" s="14" t="n">
-        <v>101804.9425</v>
+        <v>94248.85166666667</v>
       </c>
       <c r="J17" s="14">
         <f>100*$G17/$I17</f>
@@ -9748,49 +9748,49 @@
         <v/>
       </c>
       <c r="S17" s="22" t="n">
-        <v/>
+        <v>1000</v>
       </c>
       <c r="T17" s="22" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="U17" s="22" t="n">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="V17" s="22" t="n">
-        <v>2900</v>
+        <v>4852.3</v>
       </c>
       <c r="W17" s="22" t="n">
-        <v>3924.82</v>
+        <v>4852.3</v>
       </c>
       <c r="X17" s="22" t="n">
-        <v>7541.219999999999</v>
+        <v>4852.3</v>
       </c>
       <c r="Y17" s="22" t="n">
-        <v>9960.359999999999</v>
+        <v>5052.900000000001</v>
       </c>
       <c r="Z17" s="22" t="n">
-        <v>10260.36</v>
+        <v>5252.900000000001</v>
       </c>
       <c r="AA17" s="22" t="n">
-        <v>10260.36</v>
+        <v>5252.900000000001</v>
       </c>
       <c r="AB17" s="22" t="n">
-        <v>10260.36</v>
+        <v>5603.940000000001</v>
       </c>
       <c r="AC17" s="22" t="n">
-        <v>11610.36</v>
+        <v>5603.940000000001</v>
       </c>
       <c r="AD17" s="22" t="n">
-        <v>11610.36</v>
+        <v>5603.940000000001</v>
       </c>
       <c r="AE17" s="22" t="n">
-        <v>11610.36</v>
+        <v>5603.940000000001</v>
       </c>
       <c r="AF17" s="22" t="n">
-        <v>11610.36</v>
+        <v>5603.940000000001</v>
       </c>
       <c r="AG17" s="22" t="n">
-        <v>12110.36</v>
+        <v>5603.940000000001</v>
       </c>
       <c r="AH17" s="22" t="n">
         <v/>
@@ -9828,7 +9828,7 @@
         <v/>
       </c>
       <c r="B18" s="14" t="n">
-        <v>7994.849999999999</v>
+        <v>8341.83</v>
       </c>
       <c r="C18" s="14">
         <f>++'Completion Factors'!J20</f>
@@ -9852,7 +9852,7 @@
         <v/>
       </c>
       <c r="I18" s="14" t="n">
-        <v>101156.4775</v>
+        <v>93522.47000000002</v>
       </c>
       <c r="J18" s="14">
         <f>100*$G18/$I18</f>
@@ -9875,46 +9875,46 @@
         <v/>
       </c>
       <c r="S18" s="22" t="n">
-        <v/>
+        <v>1000</v>
       </c>
       <c r="T18" s="22" t="n">
-        <v/>
+        <v>2400</v>
       </c>
       <c r="U18" s="22" t="n">
-        <v>1700</v>
+        <v>4450</v>
       </c>
       <c r="V18" s="22" t="n">
-        <v>3895.81</v>
+        <v>4450</v>
       </c>
       <c r="W18" s="22" t="n">
-        <v>6499.16</v>
+        <v>6530</v>
       </c>
       <c r="X18" s="22" t="n">
-        <v>6619.849999999999</v>
+        <v>6530</v>
       </c>
       <c r="Y18" s="22" t="n">
-        <v>6694.849999999999</v>
+        <v>6730</v>
       </c>
       <c r="Z18" s="22" t="n">
-        <v>6694.849999999999</v>
+        <v>6730</v>
       </c>
       <c r="AA18" s="22" t="n">
-        <v>6694.849999999999</v>
+        <v>7480.93</v>
       </c>
       <c r="AB18" s="22" t="n">
-        <v>7594.849999999999</v>
+        <v>7480.93</v>
       </c>
       <c r="AC18" s="22" t="n">
-        <v>7994.849999999999</v>
+        <v>7480.93</v>
       </c>
       <c r="AD18" s="22" t="n">
-        <v>7994.849999999999</v>
+        <v>7480.93</v>
       </c>
       <c r="AE18" s="22" t="n">
-        <v>7994.849999999999</v>
+        <v>8341.83</v>
       </c>
       <c r="AF18" s="22" t="n">
-        <v>7994.849999999999</v>
+        <v>8341.83</v>
       </c>
       <c r="AG18" s="22" t="n">
         <v/>
@@ -9955,7 +9955,7 @@
         <v/>
       </c>
       <c r="B19" s="14" t="n">
-        <v>7240.780000000001</v>
+        <v>4000</v>
       </c>
       <c r="C19" s="14">
         <f>++'Completion Factors'!J19</f>
@@ -9979,7 +9979,7 @@
         <v/>
       </c>
       <c r="I19" s="14" t="n">
-        <v>99979.77250000001</v>
+        <v>92888.80333333334</v>
       </c>
       <c r="J19" s="14">
         <f>100*$G19/$I19</f>
@@ -10008,40 +10008,40 @@
         <v/>
       </c>
       <c r="T19" s="22" t="n">
-        <v/>
+        <v>1800</v>
       </c>
       <c r="U19" s="22" t="n">
-        <v>2500.71</v>
+        <v>2300</v>
       </c>
       <c r="V19" s="22" t="n">
-        <v>3997.93</v>
+        <v>3050</v>
       </c>
       <c r="W19" s="22" t="n">
-        <v>4190.14</v>
+        <v>3500</v>
       </c>
       <c r="X19" s="22" t="n">
-        <v>5490.780000000001</v>
+        <v>3500</v>
       </c>
       <c r="Y19" s="22" t="n">
-        <v>7090.780000000001</v>
+        <v>3500</v>
       </c>
       <c r="Z19" s="22" t="n">
-        <v>7090.780000000001</v>
+        <v>3500</v>
       </c>
       <c r="AA19" s="22" t="n">
-        <v>7090.780000000001</v>
+        <v>3500</v>
       </c>
       <c r="AB19" s="22" t="n">
-        <v>7090.780000000001</v>
+        <v>4000</v>
       </c>
       <c r="AC19" s="22" t="n">
-        <v>7240.780000000001</v>
+        <v>4000</v>
       </c>
       <c r="AD19" s="22" t="n">
-        <v>7240.780000000001</v>
+        <v>4000</v>
       </c>
       <c r="AE19" s="22" t="n">
-        <v>7240.780000000001</v>
+        <v>4000</v>
       </c>
       <c r="AF19" s="22" t="n">
         <v/>
@@ -10085,7 +10085,7 @@
         <v/>
       </c>
       <c r="B20" s="14" t="n">
-        <v>11146.17</v>
+        <v>3152.9</v>
       </c>
       <c r="C20" s="14">
         <f>++'Completion Factors'!J18</f>
@@ -10109,7 +10109,7 @@
         <v/>
       </c>
       <c r="I20" s="14" t="n">
-        <v>99441.395</v>
+        <v>92054.53333333333</v>
       </c>
       <c r="J20" s="14">
         <f>100*$G20/$I20</f>
@@ -10144,37 +10144,37 @@
         <v/>
       </c>
       <c r="T20" s="22" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="U20" s="22" t="n">
-        <v>2200</v>
+        <v>1500</v>
       </c>
       <c r="V20" s="22" t="n">
-        <v>5805.1</v>
+        <v>1500</v>
       </c>
       <c r="W20" s="22" t="n">
-        <v>5805.1</v>
+        <v>1900</v>
       </c>
       <c r="X20" s="22" t="n">
-        <v>10396.17</v>
+        <v>2050.99</v>
       </c>
       <c r="Y20" s="22" t="n">
-        <v>10396.17</v>
+        <v>2351.42</v>
       </c>
       <c r="Z20" s="22" t="n">
-        <v>10396.17</v>
+        <v>2351.42</v>
       </c>
       <c r="AA20" s="22" t="n">
-        <v>10796.17</v>
+        <v>3051.42</v>
       </c>
       <c r="AB20" s="22" t="n">
-        <v>10796.17</v>
+        <v>3152.9</v>
       </c>
       <c r="AC20" s="22" t="n">
-        <v>10796.17</v>
+        <v>3152.9</v>
       </c>
       <c r="AD20" s="22" t="n">
-        <v>11146.17</v>
+        <v>3152.9</v>
       </c>
       <c r="AE20" s="22" t="n">
         <v/>
@@ -10221,7 +10221,7 @@
         <v/>
       </c>
       <c r="B21" s="14" t="n">
-        <v>4903.38</v>
+        <v>2329.1</v>
       </c>
       <c r="C21" s="14">
         <f>++'Completion Factors'!J17</f>
@@ -10245,7 +10245,7 @@
         <v/>
       </c>
       <c r="I21" s="14" t="n">
-        <v>98610.00166666666</v>
+        <v>91387.24333333333</v>
       </c>
       <c r="J21" s="14">
         <f>100*$G21/$I21</f>
@@ -10283,31 +10283,31 @@
         <v>1500</v>
       </c>
       <c r="U21" s="22" t="n">
-        <v>3753.38</v>
+        <v>1750</v>
       </c>
       <c r="V21" s="22" t="n">
-        <v>3753.38</v>
+        <v>1750</v>
       </c>
       <c r="W21" s="22" t="n">
-        <v>3903.38</v>
+        <v>1825.3</v>
       </c>
       <c r="X21" s="22" t="n">
-        <v>4203.38</v>
+        <v>2175.99</v>
       </c>
       <c r="Y21" s="22" t="n">
-        <v>4203.38</v>
+        <v>2175.99</v>
       </c>
       <c r="Z21" s="22" t="n">
-        <v>4353.38</v>
+        <v>2175.99</v>
       </c>
       <c r="AA21" s="22" t="n">
-        <v>4353.38</v>
+        <v>2175.99</v>
       </c>
       <c r="AB21" s="22" t="n">
-        <v>4353.38</v>
+        <v>2329.1</v>
       </c>
       <c r="AC21" s="22" t="n">
-        <v>4903.38</v>
+        <v>2329.1</v>
       </c>
       <c r="AD21" s="22" t="n">
         <v/>
@@ -10357,7 +10357,7 @@
         <v/>
       </c>
       <c r="B22" s="14" t="n">
-        <v>5272.5</v>
+        <v>4809.21</v>
       </c>
       <c r="C22" s="14">
         <f>++'Completion Factors'!J16</f>
@@ -10381,7 +10381,7 @@
         <v/>
       </c>
       <c r="I22" s="14" t="n">
-        <v>97952.16416666667</v>
+        <v>90637.03000000001</v>
       </c>
       <c r="J22" s="14">
         <f>100*$G22/$I22</f>
@@ -10416,31 +10416,31 @@
         <v/>
       </c>
       <c r="T22" s="22" t="n">
-        <v>1550</v>
+        <v>1500</v>
       </c>
       <c r="U22" s="22" t="n">
-        <v>2530.5</v>
+        <v>2500</v>
       </c>
       <c r="V22" s="22" t="n">
-        <v>2580.5</v>
+        <v>3403.95</v>
       </c>
       <c r="W22" s="22" t="n">
-        <v>2580.5</v>
+        <v>4303.95</v>
       </c>
       <c r="X22" s="22" t="n">
-        <v>3722.03</v>
+        <v>4303.95</v>
       </c>
       <c r="Y22" s="22" t="n">
-        <v>4172.03</v>
+        <v>4555.51</v>
       </c>
       <c r="Z22" s="22" t="n">
-        <v>4322.03</v>
+        <v>4555.51</v>
       </c>
       <c r="AA22" s="22" t="n">
-        <v>5272.5</v>
+        <v>4809.21</v>
       </c>
       <c r="AB22" s="22" t="n">
-        <v>5272.5</v>
+        <v>4809.21</v>
       </c>
       <c r="AC22" s="22" t="n">
         <v/>
@@ -10493,7 +10493,7 @@
         <v/>
       </c>
       <c r="B23" s="14" t="n">
-        <v>7722</v>
+        <v>2455.04</v>
       </c>
       <c r="C23" s="14">
         <f>++'Completion Factors'!J15</f>
@@ -10517,7 +10517,7 @@
         <v/>
       </c>
       <c r="I23" s="14" t="n">
-        <v>97269.735</v>
+        <v>90077.69499999999</v>
       </c>
       <c r="J23" s="14">
         <f>100*$G23/$I23</f>
@@ -10549,31 +10549,31 @@
         <v/>
       </c>
       <c r="S23" s="22" t="n">
-        <v>1000</v>
+        <v/>
       </c>
       <c r="T23" s="22" t="n">
-        <v>2000</v>
+        <v/>
       </c>
       <c r="U23" s="22" t="n">
-        <v>2772</v>
+        <v>1004.38</v>
       </c>
       <c r="V23" s="22" t="n">
-        <v>2922</v>
+        <v>2055.04</v>
       </c>
       <c r="W23" s="22" t="n">
-        <v>4122</v>
+        <v>2455.04</v>
       </c>
       <c r="X23" s="22" t="n">
-        <v>5722</v>
+        <v>2455.04</v>
       </c>
       <c r="Y23" s="22" t="n">
-        <v>7422</v>
+        <v>2455.04</v>
       </c>
       <c r="Z23" s="22" t="n">
-        <v>7722</v>
+        <v>2455.04</v>
       </c>
       <c r="AA23" s="22" t="n">
-        <v>7722</v>
+        <v>2455.04</v>
       </c>
       <c r="AB23" s="22" t="n">
         <v/>
@@ -10629,7 +10629,7 @@
         <v/>
       </c>
       <c r="B24" s="14" t="n">
-        <v>17347</v>
+        <v>1602.69</v>
       </c>
       <c r="C24" s="14">
         <f>++'Completion Factors'!J14</f>
@@ -10655,7 +10655,7 @@
         <v/>
       </c>
       <c r="I24" s="14" t="n">
-        <v>96762.10166666667</v>
+        <v>89632.09499999999</v>
       </c>
       <c r="J24" s="14">
         <f>100*$G24/$I24</f>
@@ -10690,25 +10690,25 @@
         <v/>
       </c>
       <c r="T24" s="22" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="U24" s="22" t="n">
-        <v>13397</v>
+        <v>1000</v>
       </c>
       <c r="V24" s="22" t="n">
-        <v>13397</v>
+        <v>1200</v>
       </c>
       <c r="W24" s="22" t="n">
-        <v>17047</v>
+        <v>1200</v>
       </c>
       <c r="X24" s="22" t="n">
-        <v>17247</v>
+        <v>1400.39</v>
       </c>
       <c r="Y24" s="22" t="n">
-        <v>17247</v>
+        <v>1400.39</v>
       </c>
       <c r="Z24" s="22" t="n">
-        <v>17347</v>
+        <v>1602.69</v>
       </c>
       <c r="AA24" s="22" t="n">
         <v/>
@@ -10767,7 +10767,7 @@
         <v/>
       </c>
       <c r="B25" s="14" t="n">
-        <v>4664.75</v>
+        <v>2151.57</v>
       </c>
       <c r="C25" s="14">
         <f>++'Completion Factors'!J13</f>
@@ -10793,7 +10793,7 @@
         <v/>
       </c>
       <c r="I25" s="14" t="n">
-        <v>96190.69166666667</v>
+        <v>89284.03499999999</v>
       </c>
       <c r="J25" s="14">
         <f>100*$G25/$I25</f>
@@ -10825,25 +10825,25 @@
         <v/>
       </c>
       <c r="S25" s="22" t="n">
-        <v>500</v>
+        <v/>
       </c>
       <c r="T25" s="22" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="U25" s="22" t="n">
-        <v>3064.75</v>
+        <v>1700</v>
       </c>
       <c r="V25" s="22" t="n">
-        <v>3314.75</v>
+        <v>1750.79</v>
       </c>
       <c r="W25" s="22" t="n">
-        <v>3964.75</v>
+        <v>2151.57</v>
       </c>
       <c r="X25" s="22" t="n">
-        <v>3964.75</v>
+        <v>2151.57</v>
       </c>
       <c r="Y25" s="22" t="n">
-        <v>4664.75</v>
+        <v>2151.57</v>
       </c>
       <c r="Z25" s="22" t="n">
         <v/>
@@ -10905,7 +10905,7 @@
         <v/>
       </c>
       <c r="B26" s="14" t="n">
-        <v>54301.75</v>
+        <v>1751.72</v>
       </c>
       <c r="C26" s="14">
         <f>++'Completion Factors'!J12</f>
@@ -10931,7 +10931,7 @@
         <v/>
       </c>
       <c r="I26" s="14" t="n">
-        <v>95491.685</v>
+        <v>88586.81666666665</v>
       </c>
       <c r="J26" s="14">
         <f>100*$G26/$I26</f>
@@ -10966,19 +10966,19 @@
         <v/>
       </c>
       <c r="T26" s="22" t="n">
-        <v>2000</v>
+        <v>1501.1</v>
       </c>
       <c r="U26" s="22" t="n">
-        <v>53126.75</v>
+        <v>1701.1</v>
       </c>
       <c r="V26" s="22" t="n">
-        <v>53976.75</v>
+        <v>1701.1</v>
       </c>
       <c r="W26" s="22" t="n">
-        <v>54201.75</v>
+        <v>1701.1</v>
       </c>
       <c r="X26" s="22" t="n">
-        <v>54301.75</v>
+        <v>1751.72</v>
       </c>
       <c r="Y26" s="22" t="n">
         <v/>
@@ -11043,7 +11043,7 @@
         <v/>
       </c>
       <c r="B27" s="14" t="n">
-        <v>2725</v>
+        <v>2010.68</v>
       </c>
       <c r="C27" s="14">
         <f>++'Completion Factors'!J11</f>
@@ -11069,7 +11069,7 @@
         <v/>
       </c>
       <c r="I27" s="14" t="n">
-        <v>94994.745</v>
+        <v>88010.36666666668</v>
       </c>
       <c r="J27" s="14">
         <f>100*$G27/$I27</f>
@@ -11101,19 +11101,19 @@
         <v/>
       </c>
       <c r="S27" s="22" t="n">
-        <v>1000</v>
+        <v/>
       </c>
       <c r="T27" s="22" t="n">
-        <v>2200</v>
+        <v/>
       </c>
       <c r="U27" s="22" t="n">
-        <v>2250</v>
+        <v>1205.75</v>
       </c>
       <c r="V27" s="22" t="n">
-        <v>2625</v>
+        <v>1205.75</v>
       </c>
       <c r="W27" s="22" t="n">
-        <v>2725</v>
+        <v>2010.68</v>
       </c>
       <c r="X27" s="22" t="n">
         <v/>
@@ -11181,7 +11181,7 @@
         <v/>
       </c>
       <c r="B28" s="14" t="n">
-        <v>4852.3</v>
+        <v>1707.26</v>
       </c>
       <c r="C28" s="14">
         <f>++'Completion Factors'!J10</f>
@@ -11207,7 +11207,7 @@
         <v/>
       </c>
       <c r="I28" s="14" t="n">
-        <v>94248.85166666668</v>
+        <v>87641.90666666666</v>
       </c>
       <c r="J28" s="14">
         <f>100*$G28/$I28</f>
@@ -11239,16 +11239,16 @@
         <v/>
       </c>
       <c r="S28" s="22" t="n">
-        <v>1000</v>
+        <v/>
       </c>
       <c r="T28" s="22" t="n">
-        <v>2000</v>
+        <v/>
       </c>
       <c r="U28" s="22" t="n">
-        <v>3000</v>
+        <v>1005.75</v>
       </c>
       <c r="V28" s="22" t="n">
-        <v>4852.3</v>
+        <v>1707.26</v>
       </c>
       <c r="W28" s="22" t="n">
         <v/>
@@ -11319,7 +11319,7 @@
         <v/>
       </c>
       <c r="B29" s="14" t="n">
-        <v>4450</v>
+        <v>500</v>
       </c>
       <c r="C29" s="14">
         <f>++'Completion Factors'!J9</f>
@@ -11346,7 +11346,7 @@
         <v/>
       </c>
       <c r="I29" s="14" t="n">
-        <v>93522.47000000002</v>
+        <v>86708.92666666667</v>
       </c>
       <c r="J29" s="20" t="n">
         <v>15</v>
@@ -11377,13 +11377,13 @@
         <v/>
       </c>
       <c r="S29" s="22" t="n">
-        <v>1000</v>
+        <v/>
       </c>
       <c r="T29" s="22" t="n">
-        <v>2400</v>
+        <v/>
       </c>
       <c r="U29" s="22" t="n">
-        <v>4450</v>
+        <v>500</v>
       </c>
       <c r="V29" s="22" t="n">
         <v/>
@@ -11457,7 +11457,7 @@
         <v/>
       </c>
       <c r="B30" s="14" t="n">
-        <v>1800</v>
+        <v/>
       </c>
       <c r="C30" s="14">
         <f>++'Completion Factors'!J8</f>
@@ -11484,7 +11484,7 @@
         <v/>
       </c>
       <c r="I30" s="14" t="n">
-        <v>92888.80333333334</v>
+        <v>86091.15333333334</v>
       </c>
       <c r="J30" s="20" t="n">
         <v>15</v>
@@ -11518,7 +11518,7 @@
         <v/>
       </c>
       <c r="T30" s="22" t="n">
-        <v>1800</v>
+        <v/>
       </c>
       <c r="U30" s="22" t="n">
         <v/>
@@ -11622,7 +11622,7 @@
         <v/>
       </c>
       <c r="I31" s="14" t="n">
-        <v>92054.53333333333</v>
+        <v>85710.18333333333</v>
       </c>
       <c r="J31" s="20" t="n">
         <v>15</v>

--- a/Process Results/Unified_IBNP_PRT.xlsx
+++ b/Process Results/Unified_IBNP_PRT.xlsx
@@ -3727,20 +3727,20 @@
         <v/>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.4863286194510115</v>
+        <v>0.07573431090944804</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.41581830348755</v>
+        <v>0.05131405831382037</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.3950738420093642</v>
+        <v>0.1302500334100365</v>
       </c>
       <c r="H7" s="4">
         <f>+I7/I8</f>
         <v/>
       </c>
       <c r="I7" s="5" t="n">
-        <v>0.4483179764530081</v>
+        <v>0.06117724879309462</v>
       </c>
       <c r="J7" s="5">
         <f>I7</f>
@@ -3765,20 +3765,20 @@
         <v/>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.4863286194510115</v>
+        <v>0.07573431090944804</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.41581830348755</v>
+        <v>0.05131405831382037</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.3950738420093642</v>
+        <v>0.1302500334100365</v>
       </c>
       <c r="H8" s="4">
         <f>+I8/I9</f>
         <v/>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.4483179764530081</v>
+        <v>0.06117724879309462</v>
       </c>
       <c r="J8" s="5">
         <f>I8</f>
@@ -3803,20 +3803,20 @@
         <v/>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4863286194510115</v>
+        <v>0.09255246515668999</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.4573887019767205</v>
+        <v>0.07743774033578198</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.5257168679236023</v>
+        <v>0.1675642309163112</v>
       </c>
       <c r="H9" s="4">
         <f>+I9/I10</f>
         <v/>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.4714149267670568</v>
+        <v>0.08432313783581681</v>
       </c>
       <c r="J9" s="5">
         <f>I9</f>
@@ -3841,20 +3841,20 @@
         <v/>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.5735249568816405</v>
+        <v>0.7002546006375842</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.5776635713490035</v>
+        <v>0.411935941005922</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>0.6510050598039165</v>
+        <v>0.5043256240186279</v>
       </c>
       <c r="H10" s="4">
         <f>+I10/I11</f>
         <v/>
       </c>
       <c r="I10" s="5" t="n">
-        <v>0.5755868247909675</v>
+        <v>0.5187241341418103</v>
       </c>
       <c r="J10" s="5">
         <f>I10</f>
@@ -3879,20 +3879,20 @@
         <v/>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.721991728843785</v>
+        <v>0.7002546006375842</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.705568909542875</v>
+        <v>0.7128219879795629</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.7746445316213212</v>
+        <v>0.8013839273507932</v>
       </c>
       <c r="H11" s="4">
         <f>+I11/I12</f>
         <v/>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.7136858542065063</v>
+        <v>0.7064824094308975</v>
       </c>
       <c r="J11" s="5">
         <f>I11</f>
@@ -3917,20 +3917,20 @@
         <v/>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.757859328322294</v>
+        <v>0.7002546006375842</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.736700540996802</v>
+        <v>0.7624175261592349</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.7839805110437635</v>
+        <v>0.8544605138424999</v>
       </c>
       <c r="H12" s="4">
         <f>+I12/I13</f>
         <v/>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.7471301600368393</v>
+        <v>0.7300151148281128</v>
       </c>
       <c r="J12" s="5">
         <f>I12</f>
@@ -3955,20 +3955,20 @@
         <v/>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.757859328322294</v>
+        <v>0.7045648344943954</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.7646722901815088</v>
+        <v>0.7659791322653954</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.8147178264413277</v>
+        <v>0.8654068740545635</v>
       </c>
       <c r="H13" s="4">
         <f>+I13/I14</f>
         <v/>
       </c>
       <c r="I13" s="5" t="n">
-        <v>0.7612505660711586</v>
+        <v>0.7339895613456139</v>
       </c>
       <c r="J13" s="5">
         <f>I13</f>
@@ -3993,20 +3993,20 @@
         <v/>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.7760873672952981</v>
+        <v>0.7121413849916451</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.7740827969722583</v>
+        <v>0.7804387403956058</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.8255472004728511</v>
+        <v>0.8762101916698526</v>
       </c>
       <c r="H14" s="4">
         <f>+I14/I15</f>
         <v/>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.7750837860495571</v>
+        <v>0.7447274903814808</v>
       </c>
       <c r="J14" s="5">
         <f>I14</f>
@@ -4031,20 +4031,20 @@
         <v/>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.7975201771543763</v>
+        <v>0.7160450728605294</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.8347005470141925</v>
+        <v>0.7858970066665766</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.855257721051608</v>
+        <v>0.9022472398608382</v>
       </c>
       <c r="H15" s="4">
         <f>+I15/I16</f>
         <v/>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.8156868961024955</v>
+        <v>0.7493467119272956</v>
       </c>
       <c r="J15" s="5">
         <f>I15</f>
@@ -4069,20 +4069,20 @@
         <v/>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.8177501611431824</v>
+        <v>0.7209627486828871</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.8698301304737566</v>
+        <v>0.8126755052147814</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.8684168601064149</v>
+        <v>0.9371306475398178</v>
       </c>
       <c r="H16" s="4">
         <f>+I16/I17</f>
         <v/>
       </c>
       <c r="I16" s="5" t="n">
-        <v>0.8429865327244145</v>
+        <v>0.7640768799785002</v>
       </c>
       <c r="J16" s="5">
         <f>I16</f>
@@ -4107,20 +4107,20 @@
         <v/>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.8177501611431824</v>
+        <v>0.7293025659687886</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.8730251218918081</v>
+        <v>0.8415153784883216</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.876043413810065</v>
+        <v>0.9437091857409662</v>
       </c>
       <c r="H17" s="4">
         <f>+I17/I18</f>
         <v/>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.8444841147991848</v>
+        <v>0.7814009599258005</v>
       </c>
       <c r="J17" s="5">
         <f>I17</f>
@@ -4145,20 +4145,20 @@
         <v/>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8177501611431824</v>
+        <v>0.8268338208360557</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.8730251218918081</v>
+        <v>0.8986082506128267</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.8783168140457243</v>
+        <v>0.9549895784919361</v>
       </c>
       <c r="H18" s="4">
         <f>+I18/I19</f>
         <v/>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.8444841147991848</v>
+        <v>0.8612282099567657</v>
       </c>
       <c r="J18" s="5">
         <f>I18</f>
@@ -4183,20 +4183,20 @@
         <v/>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.858956275894314</v>
+        <v>0.8323844268990194</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.8842647510852526</v>
+        <v>0.9061490034803409</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>0.8851697827229618</v>
+        <v>0.96504262782669</v>
       </c>
       <c r="H19" s="4">
         <f>+I19/I20</f>
         <v/>
       </c>
       <c r="I19" s="5" t="n">
-        <v>0.8714267964204682</v>
+        <v>0.8677018293315365</v>
       </c>
       <c r="J19" s="5">
         <f>I19</f>
@@ -4221,20 +4221,20 @@
         <v/>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.858956275894314</v>
+        <v>0.8441125781856884</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.8842647510852526</v>
+        <v>0.9182352675798305</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.8851697827229618</v>
+        <v>0.9679048090602144</v>
       </c>
       <c r="H20" s="4">
         <f>+I20/I21</f>
         <v/>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.8714267964204682</v>
+        <v>0.8796151576548218</v>
       </c>
       <c r="J20" s="5">
         <f>I20</f>
@@ -4259,20 +4259,20 @@
         <v/>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.858956275894314</v>
+        <v>0.8711768617021277</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.8842647510852526</v>
+        <v>0.9324533583778741</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.8851697827229618</v>
+        <v>0.971684802925166</v>
       </c>
       <c r="H21" s="4">
         <f>+I21/I22</f>
         <v/>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.8714267964204682</v>
+        <v>0.9007742068096574</v>
       </c>
       <c r="J21" s="5">
         <f>I21</f>
@@ -4297,20 +4297,20 @@
         <v/>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.858956275894314</v>
+        <v>1</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.8842647510852526</v>
+        <v>0.984380037608374</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.8851697827229618</v>
+        <v>0.9861688596467406</v>
       </c>
       <c r="H22" s="4">
         <f>+I22/I23</f>
         <v/>
       </c>
       <c r="I22" s="5" t="n">
-        <v>0.8714267964204682</v>
+        <v>0.9921285428720339</v>
       </c>
       <c r="J22" s="5">
         <f>I22</f>
@@ -4335,20 +4335,20 @@
         <v/>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.858956275894314</v>
+        <v>1</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.8900727954779786</v>
+        <v>0.9885350759667324</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.8900727954779786</v>
+        <v>0.9893504586835269</v>
       </c>
       <c r="H23" s="4">
         <f>+I23/I24</f>
         <v/>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.874237742748039</v>
+        <v>0.9942344874013883</v>
       </c>
       <c r="J23" s="5">
         <f>I23</f>
@@ -4373,20 +4373,20 @@
         <v/>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.858956275894314</v>
+        <v>1</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.8900727954779786</v>
+        <v>0.9931504560729305</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.8900727954779786</v>
+        <v>0.9931504560729305</v>
       </c>
       <c r="H24" s="4">
         <f>+I24/I25</f>
         <v/>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.874237742748039</v>
+        <v>0.9965634586660533</v>
       </c>
       <c r="J24" s="5">
         <f>I24</f>
@@ -4411,20 +4411,20 @@
         <v/>
       </c>
       <c r="E25" s="5" t="n">
-        <v>0.858956275894314</v>
+        <v>1</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.8900727954779786</v>
+        <v>0.9978449816538885</v>
       </c>
       <c r="G25" s="5" t="n">
-        <v>0.8900727954779786</v>
+        <v>0.9978449816538885</v>
       </c>
       <c r="H25" s="4">
         <f>+I25/I26</f>
         <v/>
       </c>
       <c r="I25" s="5" t="n">
-        <v>0.874237742748039</v>
+        <v>0.9989213285485605</v>
       </c>
       <c r="J25" s="5">
         <f>I25</f>
@@ -4449,20 +4449,20 @@
         <v/>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.858956275894314</v>
+        <v>1</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.8900727954779786</v>
+        <v>1</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.8900727954779786</v>
+        <v>1</v>
       </c>
       <c r="H26" s="4">
         <f>+I26/I27</f>
         <v/>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.874237742748039</v>
+        <v>1</v>
       </c>
       <c r="J26" s="5">
         <f>I26</f>
@@ -4836,31 +4836,31 @@
         <v/>
       </c>
       <c r="C38" s="4" t="n">
-        <v/>
+        <v>6.6985</v>
       </c>
       <c r="D38" s="4" t="n">
-        <v>1.598717964098196</v>
+        <v>1</v>
       </c>
       <c r="E38" s="4" t="n">
-        <v>1.048077380044173</v>
+        <v>1.272449055758752</v>
       </c>
       <c r="F38" s="4" t="n">
-        <v>1.310404902938804</v>
+        <v>1.011732269607555</v>
       </c>
       <c r="G38" s="4" t="n">
-        <v>1.291397579214611</v>
+        <v>1</v>
       </c>
       <c r="H38" s="4" t="n">
-        <v>1</v>
+        <v>1.0057981098162</v>
       </c>
       <c r="I38" s="4" t="n">
         <v>1</v>
       </c>
       <c r="J38" s="4" t="n">
-        <v>1</v>
+        <v>1.046117484291232</v>
       </c>
       <c r="K38" s="4" t="n">
-        <v>1.021154231269338</v>
+        <v>1.024797487187965</v>
       </c>
       <c r="L38" s="4" t="n">
         <v>1</v>
@@ -4887,7 +4887,7 @@
         <v>1</v>
       </c>
       <c r="T38" s="4" t="n">
-        <v>1</v>
+        <v>1.010811958918105</v>
       </c>
       <c r="U38" s="4" t="n">
         <v>1</v>
@@ -4908,58 +4908,58 @@
         <v/>
       </c>
       <c r="B39" s="4" t="n">
-        <v/>
+        <v>4</v>
       </c>
       <c r="C39" s="4" t="n">
-        <v>2.2</v>
+        <v>1.532375</v>
       </c>
       <c r="D39" s="4" t="n">
-        <v>2.638681818181818</v>
+        <v>1.081572722081736</v>
       </c>
       <c r="E39" s="4" t="n">
-        <v>1</v>
+        <v>1.196093219699827</v>
       </c>
       <c r="F39" s="4" t="n">
-        <v>1.790868374360476</v>
+        <v>1</v>
       </c>
       <c r="G39" s="4" t="n">
-        <v>1</v>
+        <v>1.176555898858692</v>
       </c>
       <c r="H39" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I39" s="4" t="n">
-        <v>1.038475707880883</v>
+        <v>1.535934401629241</v>
       </c>
       <c r="J39" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K39" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="L39" s="4" t="n">
-        <v>1.032418904111365</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="M39" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="N39" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O39" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="P39" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Q39" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="R39" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="S39" s="4" t="n">
-        <v>1</v>
+        <v>1.056127569001012</v>
       </c>
       <c r="T39" s="4" t="n">
         <v>1</v>
@@ -4986,22 +4986,22 @@
         <v/>
       </c>
       <c r="C40" s="4" t="n">
-        <v>2.502253333333333</v>
+        <v>26.563375</v>
       </c>
       <c r="D40" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.015999472958538</v>
       </c>
       <c r="E40" s="4" t="n">
-        <v>1.039963979133474</v>
+        <v>1.004168461420889</v>
       </c>
       <c r="F40" s="4" t="n">
-        <v>1.076856467984157</v>
+        <v>1.001844958880479</v>
       </c>
       <c r="G40" s="4" t="n">
-        <v>1</v>
+        <v>1.012890928929546</v>
       </c>
       <c r="H40" s="4" t="n">
-        <v>1.035685567329149</v>
+        <v>1.005454371906348</v>
       </c>
       <c r="I40" s="4" t="n">
         <v>1</v>
@@ -5010,7 +5010,7 @@
         <v>1</v>
       </c>
       <c r="K40" s="4" t="n">
-        <v>1.126338615053131</v>
+        <v>1</v>
       </c>
       <c r="L40" s="4" t="n">
         <v>1</v>
@@ -5028,22 +5028,22 @@
         <v>1</v>
       </c>
       <c r="Q40" s="4" t="n">
-        <v>1.132561620759558</v>
+        <v>1</v>
       </c>
       <c r="R40" s="4" t="n">
-        <v>1</v>
+        <v>1.007283132993079</v>
       </c>
       <c r="S40" s="4" t="n">
-        <v>1</v>
+        <v>1.001356981444234</v>
       </c>
       <c r="T40" s="4" t="n">
         <v>1</v>
       </c>
       <c r="U40" s="4" t="n">
-        <v>1.649674612578286</v>
+        <v>1</v>
       </c>
       <c r="V40" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="W40" t="n">
         <v/>
@@ -5058,52 +5058,52 @@
         <v/>
       </c>
       <c r="B41" s="4" t="n">
-        <v/>
+        <v>2.2</v>
       </c>
       <c r="C41" s="4" t="n">
-        <v>1.63258064516129</v>
+        <v>1.022727272727273</v>
       </c>
       <c r="D41" s="4" t="n">
-        <v>1.019758940920767</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="E41" s="4" t="n">
+        <v>1.038095238095238</v>
+      </c>
+      <c r="F41" s="4" t="n">
+        <v>1.073394495412844</v>
+      </c>
+      <c r="G41" s="4" t="n">
+        <v>1.41025641025641</v>
+      </c>
+      <c r="H41" s="4" t="n">
+        <v>1.157575757575757</v>
+      </c>
+      <c r="I41" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J41" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K41" s="4" t="n">
+        <v>1.021032460732984</v>
+      </c>
+      <c r="L41" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" s="4" t="n">
+        <v>1.04636309002488</v>
+      </c>
+      <c r="N41" s="4" t="n">
         <v>0.9999999999999999</v>
       </c>
-      <c r="F41" s="4" t="n">
-        <v>1.442367758186398</v>
-      </c>
-      <c r="G41" s="4" t="n">
-        <v>1.120901765971795</v>
-      </c>
-      <c r="H41" s="4" t="n">
-        <v>1.035953720371138</v>
-      </c>
-      <c r="I41" s="4" t="n">
-        <v>1.219912865019447</v>
-      </c>
-      <c r="J41" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K41" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L41" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="O41" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="P41" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Q41" s="4" t="n">
-        <v>1</v>
+        <v>1.069131054382364</v>
       </c>
       <c r="R41" s="4" t="n">
         <v>1</v>
@@ -5136,28 +5136,28 @@
         <v>2</v>
       </c>
       <c r="C42" s="4" t="n">
-        <v>1.386</v>
+        <v>1.5</v>
       </c>
       <c r="D42" s="4" t="n">
-        <v>1.054112554112554</v>
+        <v>1.617433333333333</v>
       </c>
       <c r="E42" s="4" t="n">
-        <v>1.410677618069815</v>
+        <v>1</v>
       </c>
       <c r="F42" s="4" t="n">
-        <v>1.388161086851043</v>
+        <v>1</v>
       </c>
       <c r="G42" s="4" t="n">
-        <v>1.297098916462775</v>
+        <v>1.041341219627806</v>
       </c>
       <c r="H42" s="4" t="n">
-        <v>1.040420371867421</v>
+        <v>1.039581230580459</v>
       </c>
       <c r="I42" s="4" t="n">
         <v>1</v>
       </c>
       <c r="J42" s="4" t="n">
-        <v>1</v>
+        <v>1.066827847474728</v>
       </c>
       <c r="K42" s="4" t="n">
         <v>1</v>
@@ -5175,7 +5175,7 @@
         <v>1</v>
       </c>
       <c r="P42" s="4" t="n">
-        <v>1</v>
+        <v>1.017844587914931</v>
       </c>
       <c r="Q42" s="4" t="n">
         <v>1</v>
@@ -5208,46 +5208,46 @@
         <v/>
       </c>
       <c r="B43" s="4" t="n">
-        <v/>
+        <v>2.4</v>
       </c>
       <c r="C43" s="4" t="n">
-        <v>6.6985</v>
+        <v>1.854166666666667</v>
       </c>
       <c r="D43" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E43" s="4" t="n">
-        <v>1.272449055758752</v>
+        <v>1.467415730337079</v>
       </c>
       <c r="F43" s="4" t="n">
-        <v>1.011732269607555</v>
+        <v>1</v>
       </c>
       <c r="G43" s="4" t="n">
-        <v>1</v>
+        <v>1.03062787136294</v>
       </c>
       <c r="H43" s="4" t="n">
-        <v>1.0057981098162</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="I43" s="4" t="n">
-        <v>1</v>
+        <v>1.111579494799406</v>
       </c>
       <c r="J43" s="4" t="n">
-        <v>1.046117484291232</v>
+        <v>1</v>
       </c>
       <c r="K43" s="4" t="n">
-        <v>1.024797487187965</v>
+        <v>1</v>
       </c>
       <c r="L43" s="4" t="n">
         <v>1</v>
       </c>
       <c r="M43" s="4" t="n">
-        <v>1</v>
+        <v>1.115079274902987</v>
       </c>
       <c r="N43" s="4" t="n">
         <v>1</v>
       </c>
       <c r="O43" s="4" t="n">
-        <v>1</v>
+        <v>1.011987777262303</v>
       </c>
       <c r="P43" s="4" t="n">
         <v>1</v>
@@ -5283,55 +5283,55 @@
         <v/>
       </c>
       <c r="B44" s="4" t="n">
-        <v>4</v>
+        <v/>
       </c>
       <c r="C44" s="4" t="n">
-        <v>1.532375</v>
+        <v>1.277777777777778</v>
       </c>
       <c r="D44" s="4" t="n">
-        <v>1.081572722081736</v>
+        <v>1.326086956521739</v>
       </c>
       <c r="E44" s="4" t="n">
-        <v>1.196093219699827</v>
+        <v>1.147540983606557</v>
       </c>
       <c r="F44" s="4" t="n">
         <v>1</v>
       </c>
       <c r="G44" s="4" t="n">
-        <v>1.176555898858692</v>
+        <v>1</v>
       </c>
       <c r="H44" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I44" s="4" t="n">
-        <v>1.535934401629241</v>
+        <v>1</v>
       </c>
       <c r="J44" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.142857142857143</v>
       </c>
       <c r="K44" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="L44" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="M44" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="N44" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="O44" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="P44" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="Q44" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="R44" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="S44" t="n">
         <v/>
@@ -5361,28 +5361,28 @@
         <v/>
       </c>
       <c r="C45" s="4" t="n">
-        <v>26.563375</v>
+        <v>1</v>
       </c>
       <c r="D45" s="4" t="n">
-        <v>1.015999472958538</v>
+        <v>1</v>
       </c>
       <c r="E45" s="4" t="n">
-        <v>1.004168461420889</v>
+        <v>1.266666666666667</v>
       </c>
       <c r="F45" s="4" t="n">
-        <v>1.001844958880479</v>
+        <v>1.079468421052632</v>
       </c>
       <c r="G45" s="4" t="n">
-        <v>1.012890928929546</v>
+        <v>1.146480480158362</v>
       </c>
       <c r="H45" s="4" t="n">
-        <v>1.005454371906348</v>
+        <v>1</v>
       </c>
       <c r="I45" s="4" t="n">
-        <v>1</v>
+        <v>1.29769245817421</v>
       </c>
       <c r="J45" s="4" t="n">
-        <v>1</v>
+        <v>1.033256647724666</v>
       </c>
       <c r="K45" s="4" t="n">
         <v>1</v>
@@ -5391,7 +5391,7 @@
         <v>1</v>
       </c>
       <c r="M45" s="4" t="n">
-        <v>1</v>
+        <v>1.031716832122808</v>
       </c>
       <c r="N45" s="4" t="n">
         <v>1</v>
@@ -5400,10 +5400,10 @@
         <v>1</v>
       </c>
       <c r="P45" s="4" t="n">
-        <v>1</v>
+        <v>1.476497894186726</v>
       </c>
       <c r="Q45" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="R45" s="4" t="n">
         <v/>
@@ -5433,49 +5433,49 @@
         <v/>
       </c>
       <c r="B46" s="4" t="n">
-        <v>2.2</v>
+        <v/>
       </c>
       <c r="C46" s="4" t="n">
-        <v>1.022727272727273</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="D46" s="4" t="n">
-        <v>1.166666666666667</v>
+        <v>1</v>
       </c>
       <c r="E46" s="4" t="n">
-        <v>1.038095238095238</v>
+        <v>1.043028571428571</v>
       </c>
       <c r="F46" s="4" t="n">
-        <v>1.073394495412844</v>
+        <v>1.192127321536186</v>
       </c>
       <c r="G46" s="4" t="n">
-        <v>1.41025641025641</v>
+        <v>1</v>
       </c>
       <c r="H46" s="4" t="n">
-        <v>1.157575757575757</v>
+        <v>1</v>
       </c>
       <c r="I46" s="4" t="n">
         <v>1</v>
       </c>
       <c r="J46" s="4" t="n">
-        <v>1</v>
+        <v>1.070363374831686</v>
       </c>
       <c r="K46" s="4" t="n">
-        <v>1.021032460732984</v>
+        <v>1</v>
       </c>
       <c r="L46" s="4" t="n">
-        <v>1</v>
+        <v>1.085870078571122</v>
       </c>
       <c r="M46" s="4" t="n">
-        <v>1.04636309002488</v>
+        <v>1</v>
       </c>
       <c r="N46" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.059309635838836</v>
       </c>
       <c r="O46" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.130640886864992</v>
       </c>
       <c r="P46" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="Q46" s="4" t="n">
         <v/>
@@ -5508,40 +5508,40 @@
         <v/>
       </c>
       <c r="B47" s="4" t="n">
-        <v>2</v>
+        <v/>
       </c>
       <c r="C47" s="4" t="n">
-        <v>1.5</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="D47" s="4" t="n">
-        <v>1.617433333333333</v>
+        <v>1.36158</v>
       </c>
       <c r="E47" s="4" t="n">
-        <v>1</v>
+        <v>1.264398713259596</v>
       </c>
       <c r="F47" s="4" t="n">
         <v>1</v>
       </c>
       <c r="G47" s="4" t="n">
-        <v>1.041341219627806</v>
+        <v>1.058448634393987</v>
       </c>
       <c r="H47" s="4" t="n">
-        <v>1.039581230580459</v>
+        <v>1</v>
       </c>
       <c r="I47" s="4" t="n">
-        <v>1</v>
+        <v>1.055690800810447</v>
       </c>
       <c r="J47" s="4" t="n">
-        <v>1.066827847474728</v>
+        <v>1</v>
       </c>
       <c r="K47" s="4" t="n">
-        <v>1</v>
+        <v>1.020793435928146</v>
       </c>
       <c r="L47" s="4" t="n">
         <v>1</v>
       </c>
       <c r="M47" s="4" t="n">
-        <v>1</v>
+        <v>1.015277407159197</v>
       </c>
       <c r="N47" s="4" t="n">
         <v>1</v>
@@ -5583,40 +5583,40 @@
         <v/>
       </c>
       <c r="B48" s="4" t="n">
-        <v>2.4</v>
+        <v/>
       </c>
       <c r="C48" s="4" t="n">
-        <v>1.854166666666667</v>
+        <v/>
       </c>
       <c r="D48" s="4" t="n">
-        <v>1</v>
+        <v>2.04607817758219</v>
       </c>
       <c r="E48" s="4" t="n">
-        <v>1.467415730337079</v>
+        <v>1.194643413266895</v>
       </c>
       <c r="F48" s="4" t="n">
         <v>1</v>
       </c>
       <c r="G48" s="4" t="n">
-        <v>1.03062787136294</v>
+        <v>1</v>
       </c>
       <c r="H48" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="I48" s="4" t="n">
-        <v>1.111579494799406</v>
+        <v>1</v>
       </c>
       <c r="J48" s="4" t="n">
-        <v>1</v>
+        <v>1.081465067778936</v>
       </c>
       <c r="K48" s="4" t="n">
-        <v>1</v>
+        <v>1.151647432807039</v>
       </c>
       <c r="L48" s="4" t="n">
-        <v>1</v>
+        <v>1.024528480836715</v>
       </c>
       <c r="M48" s="4" t="n">
-        <v>1.115079274902987</v>
+        <v>1</v>
       </c>
       <c r="N48" s="4" t="n">
         <v>1</v>
@@ -5661,34 +5661,34 @@
         <v/>
       </c>
       <c r="C49" s="4" t="n">
-        <v>1.277777777777778</v>
+        <v>1</v>
       </c>
       <c r="D49" s="4" t="n">
-        <v>1.326086956521739</v>
+        <v>1.2</v>
       </c>
       <c r="E49" s="4" t="n">
-        <v>1.147540983606557</v>
+        <v>1</v>
       </c>
       <c r="F49" s="4" t="n">
-        <v>1</v>
+        <v>1.166991666666667</v>
       </c>
       <c r="G49" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H49" s="4" t="n">
-        <v>1</v>
+        <v>1.144459757638943</v>
       </c>
       <c r="I49" s="4" t="n">
-        <v>1</v>
+        <v>1.062395098241082</v>
       </c>
       <c r="J49" s="4" t="n">
-        <v>1.142857142857143</v>
+        <v>1.236472875273831</v>
       </c>
       <c r="K49" s="4" t="n">
-        <v>1</v>
+        <v>1.035623868942161</v>
       </c>
       <c r="L49" s="4" t="n">
-        <v>1</v>
+        <v>1.435713859828558</v>
       </c>
       <c r="M49" s="4" t="n">
         <v>1</v>
@@ -5736,28 +5736,28 @@
         <v/>
       </c>
       <c r="C50" s="4" t="n">
-        <v>1</v>
+        <v>1.133333333333333</v>
       </c>
       <c r="D50" s="4" t="n">
-        <v>1</v>
+        <v>1.029876470588235</v>
       </c>
       <c r="E50" s="4" t="n">
-        <v>1.266666666666667</v>
+        <v>1.22891380462534</v>
       </c>
       <c r="F50" s="4" t="n">
-        <v>1.079468421052632</v>
+        <v>1</v>
       </c>
       <c r="G50" s="4" t="n">
-        <v>1.146480480158362</v>
+        <v>1</v>
       </c>
       <c r="H50" s="4" t="n">
-        <v>1</v>
+        <v>1.092955376771381</v>
       </c>
       <c r="I50" s="4" t="n">
-        <v>1.29769245817421</v>
+        <v>1</v>
       </c>
       <c r="J50" s="4" t="n">
-        <v>1.033256647724666</v>
+        <v>1.031893585987234</v>
       </c>
       <c r="K50" s="4" t="n">
         <v>1</v>
@@ -5811,16 +5811,16 @@
         <v/>
       </c>
       <c r="C51" s="4" t="n">
-        <v>1.166666666666667</v>
+        <v>1.133235627206715</v>
       </c>
       <c r="D51" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E51" s="4" t="n">
-        <v>1.043028571428571</v>
+        <v>1</v>
       </c>
       <c r="F51" s="4" t="n">
-        <v>1.192127321536186</v>
+        <v>1.029757215919111</v>
       </c>
       <c r="G51" s="4" t="n">
         <v>1</v>
@@ -5829,10 +5829,10 @@
         <v>1</v>
       </c>
       <c r="I51" s="4" t="n">
-        <v>1</v>
+        <v>1.114173498047633</v>
       </c>
       <c r="J51" s="4" t="n">
-        <v>1.070363374831686</v>
+        <v>1</v>
       </c>
       <c r="K51" s="4" t="n">
         <v>1</v>
@@ -5886,25 +5886,25 @@
         <v/>
       </c>
       <c r="C52" s="4" t="n">
-        <v>1.666666666666667</v>
+        <v/>
       </c>
       <c r="D52" s="4" t="n">
-        <v>1.36158</v>
+        <v>1</v>
       </c>
       <c r="E52" s="4" t="n">
-        <v>1.264398713259596</v>
+        <v>1.667576197387518</v>
       </c>
       <c r="F52" s="4" t="n">
-        <v>1</v>
+        <v>3.191552111723397</v>
       </c>
       <c r="G52" s="4" t="n">
-        <v>1.058448634393987</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="H52" s="4" t="n">
-        <v>1</v>
+        <v>1.031166289294847</v>
       </c>
       <c r="I52" s="4" t="n">
-        <v>1.055690800810447</v>
+        <v>1</v>
       </c>
       <c r="J52" s="4" t="n">
         <v>1</v>
@@ -5964,19 +5964,19 @@
         <v/>
       </c>
       <c r="D53" s="4" t="n">
-        <v>2.04607817758219</v>
+        <v>1.697499378573204</v>
       </c>
       <c r="E53" s="4" t="n">
-        <v>1.194643413266895</v>
+        <v>16.29315979991331</v>
       </c>
       <c r="F53" s="4" t="n">
         <v>1</v>
       </c>
       <c r="G53" s="4" t="n">
-        <v>1</v>
+        <v>1.003594967907721</v>
       </c>
       <c r="H53" s="4" t="n">
-        <v>1</v>
+        <v>1.007164180815327</v>
       </c>
       <c r="I53" s="4" t="n">
         <v>1</v>
@@ -6036,22 +6036,22 @@
         <v/>
       </c>
       <c r="C54" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="D54" s="4" t="n">
-        <v>1.2</v>
+        <v>5.726559999999999</v>
       </c>
       <c r="E54" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F54" s="4" t="n">
-        <v>1.166991666666667</v>
+        <v>1</v>
       </c>
       <c r="G54" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H54" s="4" t="n">
-        <v>1.144459757638943</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v/>
@@ -6111,19 +6111,19 @@
         <v/>
       </c>
       <c r="C55" s="4" t="n">
-        <v>1.133333333333333</v>
+        <v/>
       </c>
       <c r="D55" s="4" t="n">
-        <v>1.029876470588235</v>
+        <v>1.28723494908466</v>
       </c>
       <c r="E55" s="4" t="n">
-        <v>1.22891380462534</v>
+        <v>1</v>
       </c>
       <c r="F55" s="4" t="n">
         <v>1</v>
       </c>
       <c r="G55" s="4" t="n">
-        <v>1</v>
+        <v>1.055166022143641</v>
       </c>
       <c r="H55" t="n">
         <v/>
@@ -6186,16 +6186,16 @@
         <v/>
       </c>
       <c r="C56" s="4" t="n">
-        <v>1.133235627206715</v>
+        <v>6.0329</v>
       </c>
       <c r="D56" s="4" t="n">
-        <v>1</v>
+        <v>23.0872217341577</v>
       </c>
       <c r="E56" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F56" s="4" t="n">
-        <v>1.029757215919111</v>
+        <v>1</v>
       </c>
       <c r="G56" t="n">
         <v/>
@@ -6261,13 +6261,13 @@
         <v/>
       </c>
       <c r="C57" s="4" t="n">
-        <v/>
+        <v>1.399125914247797</v>
       </c>
       <c r="D57" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E57" s="4" t="n">
-        <v>1.667576197387518</v>
+        <v>1</v>
       </c>
       <c r="F57" t="n">
         <v/>
@@ -6336,10 +6336,10 @@
         <v/>
       </c>
       <c r="C58" s="4" t="n">
-        <v/>
+        <v>1.260869565217391</v>
       </c>
       <c r="D58" s="4" t="n">
-        <v>1.697499378573204</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E58" t="n">
         <v/>
@@ -6408,10 +6408,10 @@
         <v/>
       </c>
       <c r="B59" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="C59" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="D59" t="n">
         <v/>
@@ -6483,7 +6483,7 @@
         <v/>
       </c>
       <c r="B60" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="C60" t="n">
         <v/>
@@ -6704,61 +6704,61 @@
         <v>1</v>
       </c>
       <c r="B2" s="34" t="n">
-        <v>0.06991996184774192</v>
+        <v>0.06775658085840525</v>
       </c>
       <c r="C2" s="34" t="n">
-        <v>0.3950738420093642</v>
+        <v>0.1302500334100365</v>
       </c>
       <c r="D2" s="34" t="n">
-        <v>0.41581830348755</v>
+        <v>0.05131405831382037</v>
       </c>
       <c r="E2" s="34" t="n">
-        <v>0.4863286194510115</v>
+        <v>0.07573431090944804</v>
       </c>
       <c r="F2" s="34" t="n">
-        <v>0.04805543081932229</v>
+        <v>0.01820412519645586</v>
       </c>
       <c r="G2" s="34" t="n">
-        <v>0.3279496344776153</v>
+        <v>0.03850783221037829</v>
       </c>
       <c r="H2" s="34" t="n">
-        <v>0.3601270019364592</v>
+        <v>0.009651314349198371</v>
       </c>
       <c r="I2" s="34" t="n">
-        <v>0.4201773106650469</v>
+        <v>0.06254667420981581</v>
       </c>
       <c r="J2" s="34" t="n">
-        <v>0.4483179764530081</v>
+        <v>0.06117724879309462</v>
       </c>
       <c r="M2" s="33" t="n">
         <v>1</v>
       </c>
       <c r="N2" s="22" t="n">
-        <v>2.355555555555556</v>
+        <v>1.927272727272727</v>
       </c>
       <c r="O2" s="22" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="P2" s="22" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="Q2" s="22" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="R2" s="22" t="n">
-        <v>2.52</v>
+        <v>2.1</v>
       </c>
       <c r="S2" s="22" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="T2" s="22" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="U2" s="22" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="V2" s="22" t="n">
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -6767,62 +6767,62 @@
         <v/>
       </c>
       <c r="B3" s="34" t="n">
-        <v>0.164700354574681</v>
+        <v>0.1305854103816537</v>
       </c>
       <c r="C3" s="34" t="n">
-        <v>0.3950738420093642</v>
+        <v>0.1302500334100365</v>
       </c>
       <c r="D3" s="34" t="n">
-        <v>0.41581830348755</v>
+        <v>0.05131405831382037</v>
       </c>
       <c r="E3" s="34" t="n">
-        <v>0.4863286194510115</v>
+        <v>0.07573431090944804</v>
       </c>
       <c r="F3" s="34" t="n">
-        <v>0.1210996856646922</v>
+        <v>0.03822866291255731</v>
       </c>
       <c r="G3" s="34" t="n">
-        <v>0.3279496344776153</v>
+        <v>0.03850783221037829</v>
       </c>
       <c r="H3" s="34" t="n">
-        <v>0.3601270019364592</v>
+        <v>0.009651314349198371</v>
       </c>
       <c r="I3" s="34" t="n">
-        <v>0.4201773106650469</v>
+        <v>0.06254667420981581</v>
       </c>
       <c r="J3" s="34" t="n">
-        <v>0.4483179764530081</v>
+        <v>0.06117724879309462</v>
       </c>
       <c r="M3">
         <f>+M2+1</f>
         <v/>
       </c>
       <c r="N3" s="22" t="n">
-        <v>3.557567069990433</v>
+        <v>3.687094836494779</v>
       </c>
       <c r="O3" s="22" t="n">
-        <v>1.330680019840801</v>
+        <v>1.286481289327634</v>
       </c>
       <c r="P3" s="22" t="n">
-        <v>1.099972507560421</v>
+        <v>1.509094054931254</v>
       </c>
       <c r="Q3" s="22" t="n">
-        <v/>
+        <v>1.222067832205546</v>
       </c>
       <c r="R3" s="22" t="n">
-        <v>3.251156352325866</v>
+        <v>3.367159970030017</v>
       </c>
       <c r="S3" s="22" t="n">
-        <v>1.278980842289728</v>
+        <v>1.851352062857891</v>
       </c>
       <c r="T3" s="22" t="n">
-        <v>1.088856320180016</v>
+        <v>2.423223869866297</v>
       </c>
       <c r="U3" s="22" t="n">
-        <v/>
+        <v>1.219998493155063</v>
       </c>
       <c r="V3" s="22" t="n">
-        <v>0.5499862537802105</v>
+        <v>1.3655809435684</v>
       </c>
     </row>
     <row r="4">
@@ -6831,62 +6831,62 @@
         <v/>
       </c>
       <c r="B4" s="34" t="n">
-        <v>0.5859325578506331</v>
+        <v>0.4814807923397473</v>
       </c>
       <c r="C4" s="34" t="n">
-        <v>0.5257168679236023</v>
+        <v>0.1675642309163112</v>
       </c>
       <c r="D4" s="34" t="n">
-        <v>0.4573887019767205</v>
+        <v>0.07743774033578198</v>
       </c>
       <c r="E4" s="34" t="n">
-        <v>0.4863286194510115</v>
+        <v>0.09255246515668999</v>
       </c>
       <c r="F4" s="34" t="n">
-        <v>0.3937140123134296</v>
+        <v>0.1287220234669341</v>
       </c>
       <c r="G4" s="34" t="n">
-        <v>0.4194412997327889</v>
+        <v>0.07129155459886939</v>
       </c>
       <c r="H4" s="34" t="n">
-        <v>0.3921265621259946</v>
+        <v>0.0233872953065606</v>
       </c>
       <c r="I4" s="34" t="n">
-        <v>0.4201773106650469</v>
+        <v>0.07630684828783593</v>
       </c>
       <c r="J4" s="34" t="n">
-        <v>0.4714149267670568</v>
+        <v>0.08432313783581681</v>
       </c>
       <c r="M4">
         <f>+M3+1</f>
         <v/>
       </c>
       <c r="N4" s="22" t="n">
-        <v>1.113019005157385</v>
+        <v>1.3606925197134</v>
       </c>
       <c r="O4" s="22" t="n">
-        <v>1.238318759630367</v>
+        <v>3.009745106463143</v>
       </c>
       <c r="P4" s="22" t="n">
-        <v>1.262959860732206</v>
+        <v>5.319575948622781</v>
       </c>
       <c r="Q4" s="22" t="n">
-        <v>1.179295097888872</v>
+        <v>7.566028624435483</v>
       </c>
       <c r="R4" s="22" t="n">
-        <v>1.278764974077094</v>
+        <v>2.459229041026096</v>
       </c>
       <c r="S4" s="22" t="n">
-        <v>1.273212859716558</v>
+        <v>3.453004225832166</v>
       </c>
       <c r="T4" s="22" t="n">
-        <v>1.328909004457272</v>
+        <v>5.633086010302594</v>
       </c>
       <c r="U4" s="22" t="n">
-        <v>1.232499792857735</v>
+        <v>8.362407244719234</v>
       </c>
       <c r="V4" s="22" t="n">
-        <v>1.221127479310539</v>
+        <v>6.442802286529131</v>
       </c>
     </row>
     <row r="5">
@@ -6895,62 +6895,62 @@
         <v/>
       </c>
       <c r="B5" s="34" t="n">
-        <v>0.6521540726282337</v>
+        <v>0.6551473125223748</v>
       </c>
       <c r="C5" s="34" t="n">
-        <v>0.6510050598039165</v>
+        <v>0.5043256240186279</v>
       </c>
       <c r="D5" s="34" t="n">
-        <v>0.5776635713490035</v>
+        <v>0.411935941005922</v>
       </c>
       <c r="E5" s="34" t="n">
-        <v>0.5735249568816405</v>
+        <v>0.7002546006375842</v>
       </c>
       <c r="F5" s="34" t="n">
-        <v>0.5034676887497715</v>
+        <v>0.3165569383295269</v>
       </c>
       <c r="G5" s="34" t="n">
-        <v>0.5340380567160142</v>
+        <v>0.2461700392960406</v>
       </c>
       <c r="H5" s="34" t="n">
-        <v>0.5211005192961079</v>
+        <v>0.131742646010202</v>
       </c>
       <c r="I5" s="34" t="n">
-        <v>0.5178684483581905</v>
+        <v>0.6381089409438907</v>
       </c>
       <c r="J5" s="34" t="n">
-        <v>0.5755868247909675</v>
+        <v>0.5187241341418103</v>
       </c>
       <c r="M5">
         <f>+M4+1</f>
         <v/>
       </c>
       <c r="N5" s="22" t="n">
-        <v>1.097896628539842</v>
+        <v>1.26675662716574</v>
       </c>
       <c r="O5" s="22" t="n">
-        <v>1.189920907611141</v>
+        <v>1.589020841267413</v>
       </c>
       <c r="P5" s="22" t="n">
-        <v>1.22141839045723</v>
+        <v>1.73041950706922</v>
       </c>
       <c r="Q5" s="22" t="n">
-        <v>1.258867151604675</v>
+        <v>1</v>
       </c>
       <c r="R5" s="22" t="n">
-        <v>1.16448545164002</v>
+        <v>1.904207492773312</v>
       </c>
       <c r="S5" s="22" t="n">
-        <v>1.193189943222789</v>
+        <v>2.390976708323436</v>
       </c>
       <c r="T5" s="22" t="n">
-        <v>1.225922021423225</v>
+        <v>3.660122666216805</v>
       </c>
       <c r="U5" s="22" t="n">
-        <v>1.298830000670953</v>
+        <v>1</v>
       </c>
       <c r="V5" s="22" t="n">
-        <v>1.240142771030952</v>
+        <v>1.36520975353461</v>
       </c>
     </row>
     <row r="6">
@@ -6959,62 +6959,62 @@
         <v/>
       </c>
       <c r="B6" s="34" t="n">
-        <v>0.7159977576270651</v>
+        <v>0.8299121999075425</v>
       </c>
       <c r="C6" s="34" t="n">
-        <v>0.7746445316213212</v>
+        <v>0.8013839273507932</v>
       </c>
       <c r="D6" s="34" t="n">
-        <v>0.705568909542875</v>
+        <v>0.7128219879795629</v>
       </c>
       <c r="E6" s="34" t="n">
-        <v>0.721991728843785</v>
+        <v>0.7002546006375842</v>
       </c>
       <c r="F6" s="34" t="n">
-        <v>0.5862807989199346</v>
+        <v>0.6027900938564644</v>
       </c>
       <c r="G6" s="34" t="n">
-        <v>0.6372088385717893</v>
+        <v>0.588586830243898</v>
       </c>
       <c r="H6" s="34" t="n">
-        <v>0.6388286019801769</v>
+        <v>0.4821942447693173</v>
       </c>
       <c r="I6" s="34" t="n">
-        <v>0.6726230771285338</v>
+        <v>0.6381089409438907</v>
       </c>
       <c r="J6" s="34" t="n">
-        <v>0.7136858542065063</v>
+        <v>0.7064824094308975</v>
       </c>
       <c r="M6">
         <f>+M5+1</f>
         <v/>
       </c>
       <c r="N6" s="22" t="n">
-        <v>1.078985875187502</v>
+        <v>1.033149468359075</v>
       </c>
       <c r="O6" s="22" t="n">
-        <v>1.012051952916911</v>
+        <v>1.066231159223728</v>
       </c>
       <c r="P6" s="22" t="n">
-        <v>1.0441227370323</v>
+        <v>1.069576330438749</v>
       </c>
       <c r="Q6" s="22" t="n">
-        <v>1.049678684735001</v>
+        <v>1</v>
       </c>
       <c r="R6" s="22" t="n">
-        <v>1.134946049441913</v>
+        <v>1.144572024252572</v>
       </c>
       <c r="S6" s="22" t="n">
-        <v>1.045298673288993</v>
+        <v>1.221658061408166</v>
       </c>
       <c r="T6" s="22" t="n">
-        <v>1.064812700686994</v>
+        <v>1.370218221273751</v>
       </c>
       <c r="U6" s="22" t="n">
-        <v>1.065582960861926</v>
+        <v>1</v>
       </c>
       <c r="V6" s="22" t="n">
-        <v>1.046900710883651</v>
+        <v>1.034788165219374</v>
       </c>
     </row>
     <row r="7">
@@ -7023,62 +7023,62 @@
         <v/>
       </c>
       <c r="B7" s="34" t="n">
-        <v>0.7725514671455279</v>
+        <v>0.8574233481191879</v>
       </c>
       <c r="C7" s="34" t="n">
-        <v>0.7839805110437635</v>
+        <v>0.8544605138424999</v>
       </c>
       <c r="D7" s="34" t="n">
-        <v>0.736700540996802</v>
+        <v>0.7624175261592349</v>
       </c>
       <c r="E7" s="34" t="n">
-        <v>0.757859328322294</v>
+        <v>0.7002546006375842</v>
       </c>
       <c r="F7" s="34" t="n">
-        <v>0.6653970765978284</v>
+        <v>0.6899366779246915</v>
       </c>
       <c r="G7" s="34" t="n">
-        <v>0.6660735535671115</v>
+        <v>0.7190518460061378</v>
       </c>
       <c r="H7" s="34" t="n">
-        <v>0.6802328089506088</v>
+        <v>0.660711340376254</v>
       </c>
       <c r="I7" s="34" t="n">
-        <v>0.7167356900706827</v>
+        <v>0.6381089409438907</v>
       </c>
       <c r="J7" s="34" t="n">
-        <v>0.7471301600368393</v>
+        <v>0.7300151148281128</v>
       </c>
       <c r="M7">
         <f>+M6+1</f>
         <v/>
       </c>
       <c r="N7" s="22" t="n">
-        <v>1.053151071862493</v>
+        <v>1.025266514090432</v>
       </c>
       <c r="O7" s="22" t="n">
-        <v>1.039206734050878</v>
+        <v>1.012810843842084</v>
       </c>
       <c r="P7" s="22" t="n">
-        <v>1.037968954314679</v>
+        <v>1.004671464104587</v>
       </c>
       <c r="Q7" s="22" t="n">
-        <v>1</v>
+        <v>1.006155238184636</v>
       </c>
       <c r="R7" s="22" t="n">
-        <v>1.088111094735384</v>
+        <v>1.051964579646617</v>
       </c>
       <c r="S7" s="22" t="n">
-        <v>1.073050120298978</v>
+        <v>1.021974175383643</v>
       </c>
       <c r="T7" s="22" t="n">
-        <v>1.034154852425392</v>
+        <v>1.009793498341894</v>
       </c>
       <c r="U7" s="22" t="n">
-        <v>1</v>
+        <v>1.019586996683788</v>
       </c>
       <c r="V7" s="22" t="n">
-        <v>1.01898447715734</v>
+        <v>1.005413351144611</v>
       </c>
     </row>
     <row r="8">
@@ -7087,62 +7087,62 @@
         <v/>
       </c>
       <c r="B8" s="34" t="n">
-        <v>0.8136134056932542</v>
+        <v>0.8790874472259064</v>
       </c>
       <c r="C8" s="34" t="n">
-        <v>0.8147178264413277</v>
+        <v>0.8654068740545635</v>
       </c>
       <c r="D8" s="34" t="n">
-        <v>0.7646722901815088</v>
+        <v>0.7659791322653954</v>
       </c>
       <c r="E8" s="34" t="n">
-        <v>0.757859328322294</v>
+        <v>0.7045648344943954</v>
       </c>
       <c r="F8" s="34" t="n">
-        <v>0.7240259414505875</v>
+        <v>0.7257889473758313</v>
       </c>
       <c r="G8" s="34" t="n">
-        <v>0.7147303067831571</v>
+        <v>0.7348524173802087</v>
       </c>
       <c r="H8" s="34" t="n">
-        <v>0.7034660601552265</v>
+        <v>0.6671820157926994</v>
       </c>
       <c r="I8" s="34" t="n">
-        <v>0.7167356900706827</v>
+        <v>0.6506075786540539</v>
       </c>
       <c r="J8" s="34" t="n">
-        <v>0.7612505660711586</v>
+        <v>0.7339895613456139</v>
       </c>
       <c r="M8">
         <f>+M7+1</f>
         <v/>
       </c>
       <c r="N8" s="22" t="n">
-        <v>1.014397648559453</v>
+        <v>1.013649226387547</v>
       </c>
       <c r="O8" s="22" t="n">
-        <v>1.013292177585982</v>
+        <v>1.012483512598732</v>
       </c>
       <c r="P8" s="22" t="n">
-        <v>1.012306587948304</v>
+        <v>1.018877287279937</v>
       </c>
       <c r="Q8" s="22" t="n">
-        <v>1.024052008455654</v>
+        <v>1.010753517811724</v>
       </c>
       <c r="R8" s="22" t="n">
-        <v>1.027348758063848</v>
+        <v>1.02847971025878</v>
       </c>
       <c r="S8" s="22" t="n">
-        <v>1.029405768959809</v>
+        <v>1.022978800376708</v>
       </c>
       <c r="T8" s="22" t="n">
-        <v>1.024076626273157</v>
+        <v>1.045957600753416</v>
       </c>
       <c r="U8" s="22" t="n">
-        <v>1.048153252546314</v>
+        <v>1.012776823370058</v>
       </c>
       <c r="V8" s="22" t="n">
-        <v>1.018179298201979</v>
+        <v>1.01481540254583</v>
       </c>
     </row>
     <row r="9">
@@ -7151,62 +7151,62 @@
         <v/>
       </c>
       <c r="B9" s="34" t="n">
-        <v>0.8253275255716854</v>
+        <v>0.8910863108075433</v>
       </c>
       <c r="C9" s="34" t="n">
-        <v>0.8255472004728511</v>
+        <v>0.8762101916698526</v>
       </c>
       <c r="D9" s="34" t="n">
-        <v>0.7740827969722583</v>
+        <v>0.7804387403956058</v>
       </c>
       <c r="E9" s="34" t="n">
-        <v>0.7760873672952981</v>
+        <v>0.7121413849916451</v>
       </c>
       <c r="F9" s="34" t="n">
-        <v>0.7438271517552697</v>
+        <v>0.7464592063061201</v>
       </c>
       <c r="G9" s="34" t="n">
-        <v>0.7357475010529958</v>
+        <v>0.7517384443855298</v>
       </c>
       <c r="H9" s="34" t="n">
-        <v>0.7204031495814341</v>
+        <v>0.6978441005043599</v>
       </c>
       <c r="I9" s="34" t="n">
-        <v>0.7512488447636133</v>
+        <v>0.6589202767697377</v>
       </c>
       <c r="J9" s="34" t="n">
-        <v>0.7750837860495571</v>
+        <v>0.7447274903814808</v>
       </c>
       <c r="M9">
         <f>+M8+1</f>
         <v/>
       </c>
       <c r="N9" s="22" t="n">
-        <v>1.03884855922344</v>
+        <v>1.0301213935027</v>
       </c>
       <c r="O9" s="22" t="n">
-        <v>1.035988881752297</v>
+        <v>1.029715527665074</v>
       </c>
       <c r="P9" s="22" t="n">
-        <v>1.078309129564736</v>
+        <v>1.006993843319726</v>
       </c>
       <c r="Q9" s="22" t="n">
-        <v>1.027616491083694</v>
+        <v>1.005481619171634</v>
       </c>
       <c r="R9" s="22" t="n">
-        <v>1.078705358019602</v>
+        <v>1.073591609481376</v>
       </c>
       <c r="S9" s="22" t="n">
-        <v>1.083408096284442</v>
+        <v>1.053460945839398</v>
       </c>
       <c r="T9" s="22" t="n">
-        <v>1.077493792297344</v>
+        <v>1.029428099381453</v>
       </c>
       <c r="U9" s="22" t="n">
-        <v>1.018563600270149</v>
+        <v>1.038057832682544</v>
       </c>
       <c r="V9" s="22" t="n">
-        <v>1.052962810324215</v>
+        <v>1.00623773124568</v>
       </c>
     </row>
     <row r="10">
@@ -7215,62 +7215,62 @@
         <v/>
       </c>
       <c r="B10" s="34" t="n">
-        <v>0.857390310827592</v>
+        <v>0.9179270722202463</v>
       </c>
       <c r="C10" s="34" t="n">
-        <v>0.855257721051608</v>
+        <v>0.9022472398608382</v>
       </c>
       <c r="D10" s="34" t="n">
-        <v>0.8347005470141925</v>
+        <v>0.7858970066665766</v>
       </c>
       <c r="E10" s="34" t="n">
-        <v>0.7975201771543763</v>
+        <v>0.7160450728605294</v>
       </c>
       <c r="F10" s="34" t="n">
-        <v>0.802370334038869</v>
+        <v>0.8013923407103779</v>
       </c>
       <c r="G10" s="34" t="n">
-        <v>0.7971147994618617</v>
+        <v>0.791927092646218</v>
       </c>
       <c r="H10" s="34" t="n">
-        <v>0.77622992162545</v>
+        <v>0.7183803260467625</v>
       </c>
       <c r="I10" s="34" t="n">
-        <v>0.7651947280212161</v>
+        <v>0.6839973544141762</v>
       </c>
       <c r="J10" s="34" t="n">
-        <v>0.8156868961024955</v>
+        <v>0.7493467119272956</v>
       </c>
       <c r="M10">
         <f>+M9+1</f>
         <v/>
       </c>
       <c r="N10" s="22" t="n">
-        <v>1.013043881813449</v>
+        <v>1.020512372996183</v>
       </c>
       <c r="O10" s="22" t="n">
-        <v>1.015386168088172</v>
+        <v>1.038662803428869</v>
       </c>
       <c r="P10" s="22" t="n">
-        <v>1.04208645074599</v>
+        <v>1.03407380142824</v>
       </c>
       <c r="Q10" s="22" t="n">
-        <v>1.025366109307715</v>
+        <v>1.006867829985495</v>
       </c>
       <c r="R10" s="22" t="n">
-        <v>1.023961499811964</v>
+        <v>1.047283601747964</v>
       </c>
       <c r="S10" s="22" t="n">
-        <v>1.029951874764955</v>
+        <v>1.055261378494019</v>
       </c>
       <c r="T10" s="22" t="n">
-        <v>1.052217502148037</v>
+        <v>1.05830525484</v>
       </c>
       <c r="U10" s="22" t="n">
-        <v>1.034540007518784</v>
+        <v>1.010631195329078</v>
       </c>
       <c r="V10" s="22" t="n">
-        <v>1.033726280026853</v>
+        <v>1.020470815706867</v>
       </c>
     </row>
     <row r="11">
@@ -7279,62 +7279,62 @@
         <v/>
       </c>
       <c r="B11" s="34" t="n">
-        <v>0.8685740087100233</v>
+        <v>0.9367559347089223</v>
       </c>
       <c r="C11" s="34" t="n">
-        <v>0.8684168601064149</v>
+        <v>0.9371306475398178</v>
       </c>
       <c r="D11" s="34" t="n">
-        <v>0.8698301304737566</v>
+        <v>0.8126755052147814</v>
       </c>
       <c r="E11" s="34" t="n">
-        <v>0.8177501611431824</v>
+        <v>0.7209627486828871</v>
       </c>
       <c r="F11" s="34" t="n">
-        <v>0.8215963306470667</v>
+        <v>0.8392850569923961</v>
       </c>
       <c r="G11" s="34" t="n">
-        <v>0.8209898821086352</v>
+        <v>0.8356900754526084</v>
       </c>
       <c r="H11" s="34" t="n">
-        <v>0.8167627092252978</v>
+        <v>0.7602656740289615</v>
       </c>
       <c r="I11" s="34" t="n">
-        <v>0.7916245596804028</v>
+        <v>0.6912690638935259</v>
       </c>
       <c r="J11" s="34" t="n">
-        <v>0.8429865327244145</v>
+        <v>0.7640768799785002</v>
       </c>
       <c r="M11">
         <f>+M10+1</f>
         <v/>
       </c>
       <c r="N11" s="22" t="n">
-        <v>1.008732650698162</v>
+        <v>1.009253732714569</v>
       </c>
       <c r="O11" s="22" t="n">
-        <v>1.008782134541602</v>
+        <v>1.007019873075775</v>
       </c>
       <c r="P11" s="22" t="n">
-        <v>1.003673121114247</v>
+        <v>1.035487563102961</v>
       </c>
       <c r="Q11" s="22" t="n">
-        <v>1</v>
+        <v>1.011567611920501</v>
       </c>
       <c r="R11" s="22" t="n">
-        <v>1.013808771017387</v>
+        <v>1.018135334685593</v>
       </c>
       <c r="S11" s="22" t="n">
-        <v>1.01434738024784</v>
+        <v>1.019091433200861</v>
       </c>
       <c r="T11" s="22" t="n">
-        <v>1.003505410122164</v>
+        <v>1.034677456279558</v>
       </c>
       <c r="U11" s="22" t="n">
-        <v>1</v>
+        <v>1.01187462298072</v>
       </c>
       <c r="V11" s="22" t="n">
-        <v>1.001836560557124</v>
+        <v>1.023527587511731</v>
       </c>
     </row>
     <row r="12">
@@ -7343,62 +7343,62 @@
         <v/>
       </c>
       <c r="B12" s="34" t="n">
-        <v>0.8761589621335905</v>
+        <v>0.9454244237475052</v>
       </c>
       <c r="C12" s="34" t="n">
-        <v>0.876043413810065</v>
+        <v>0.9437091857409662</v>
       </c>
       <c r="D12" s="34" t="n">
-        <v>0.8730251218918081</v>
+        <v>0.8415153784883216</v>
       </c>
       <c r="E12" s="34" t="n">
-        <v>0.8177501611431824</v>
+        <v>0.7293025659687886</v>
       </c>
       <c r="F12" s="34" t="n">
-        <v>0.8329415662456974</v>
+        <v>0.8545057723975698</v>
       </c>
       <c r="G12" s="34" t="n">
-        <v>0.8327689361268771</v>
+        <v>0.8516445967047341</v>
       </c>
       <c r="H12" s="34" t="n">
-        <v>0.8196257974936223</v>
+        <v>0.7866297537009493</v>
       </c>
       <c r="I12" s="34" t="n">
-        <v>0.7916245596804028</v>
+        <v>0.699477623405497</v>
       </c>
       <c r="J12" s="34" t="n">
-        <v>0.8444841147991848</v>
+        <v>0.7814009599258005</v>
       </c>
       <c r="M12">
         <f>+M11+1</f>
         <v/>
       </c>
       <c r="N12" s="22" t="n">
-        <v>1.002462854351086</v>
+        <v>1.01011731292758</v>
       </c>
       <c r="O12" s="22" t="n">
-        <v>1.002595077138668</v>
+        <v>1.011953250981777</v>
       </c>
       <c r="P12" s="22" t="n">
-        <v>1</v>
+        <v>1.067845310476756</v>
       </c>
       <c r="Q12" s="22" t="n">
-        <v>1</v>
+        <v>1.133732225030237</v>
       </c>
       <c r="R12" s="22" t="n">
-        <v>1.00249376185472</v>
+        <v>1.042008647633569</v>
       </c>
       <c r="S12" s="22" t="n">
-        <v>1.002701575342614</v>
+        <v>1.0455093682697</v>
       </c>
       <c r="T12" s="22" t="n">
-        <v>1</v>
+        <v>1.091018736539399</v>
       </c>
       <c r="U12" s="22" t="n">
-        <v>1</v>
+        <v>1.153414113555091</v>
       </c>
       <c r="V12" s="22" t="n">
-        <v>1</v>
+        <v>1.100788767753496</v>
       </c>
     </row>
     <row r="13">
@@ -7407,62 +7407,62 @@
         <v/>
       </c>
       <c r="B13" s="34" t="n">
-        <v>0.8783168140457243</v>
+        <v>0.9549895784919361</v>
       </c>
       <c r="C13" s="34" t="n">
-        <v>0.8783168140457243</v>
+        <v>0.9549895784919361</v>
       </c>
       <c r="D13" s="34" t="n">
-        <v>0.8730251218918081</v>
+        <v>0.8986082506128267</v>
       </c>
       <c r="E13" s="34" t="n">
-        <v>0.8177501611431824</v>
+        <v>0.8268338208360557</v>
       </c>
       <c r="F13" s="34" t="n">
-        <v>0.8350187241508121</v>
+        <v>0.8904024042910698</v>
       </c>
       <c r="G13" s="34" t="n">
-        <v>0.8350187241508121</v>
+        <v>0.8904024042910698</v>
       </c>
       <c r="H13" s="34" t="n">
-        <v>0.8196257974936223</v>
+        <v>0.8582278000071086</v>
       </c>
       <c r="I13" s="34" t="n">
-        <v>0.7916245596804028</v>
+        <v>0.8067873629518733</v>
       </c>
       <c r="J13" s="34" t="n">
-        <v>0.8444841147991848</v>
+        <v>0.8612282099567657</v>
       </c>
       <c r="M13">
         <f>+M12+1</f>
         <v/>
       </c>
       <c r="N13" s="22" t="n">
-        <v>1.007802388121971</v>
+        <v>1.010526868105335</v>
       </c>
       <c r="O13" s="22" t="n">
-        <v>1.007802388121971</v>
+        <v>1.010526868105335</v>
       </c>
       <c r="P13" s="22" t="n">
-        <v>1.012874347955863</v>
+        <v>1.008391590954536</v>
       </c>
       <c r="Q13" s="22" t="n">
-        <v>1.050389613734257</v>
+        <v>1.006713085414614</v>
       </c>
       <c r="R13" s="22" t="n">
-        <v>1.013453530410656</v>
+        <v>1.017369717017489</v>
       </c>
       <c r="S13" s="22" t="n">
-        <v>1.013453530410656</v>
+        <v>1.017369717017489</v>
       </c>
       <c r="T13" s="22" t="n">
-        <v>1.026907060821311</v>
+        <v>1.007832373213667</v>
       </c>
       <c r="U13" s="22" t="n">
-        <v>1.038359758300996</v>
+        <v>1.005092469053066</v>
       </c>
       <c r="V13" s="22" t="n">
-        <v>1.03163198084506</v>
+        <v>1.007552338184575</v>
       </c>
     </row>
     <row r="14">
@@ -7471,62 +7471,62 @@
         <v/>
       </c>
       <c r="B14" s="34" t="n">
-        <v>0.8851697827229618</v>
+        <v>0.96504262782669</v>
       </c>
       <c r="C14" s="34" t="n">
-        <v>0.8851697827229618</v>
+        <v>0.96504262782669</v>
       </c>
       <c r="D14" s="34" t="n">
-        <v>0.8842647510852526</v>
+        <v>0.9061490034803409</v>
       </c>
       <c r="E14" s="34" t="n">
-        <v>0.858956275894314</v>
+        <v>0.8323844268990194</v>
       </c>
       <c r="F14" s="34" t="n">
-        <v>0.8462526739496418</v>
+        <v>0.9058684420852976</v>
       </c>
       <c r="G14" s="34" t="n">
-        <v>0.8462526739496418</v>
+        <v>0.9058684420852976</v>
       </c>
       <c r="H14" s="34" t="n">
-        <v>0.8416795186774989</v>
+        <v>0.864949760439109</v>
       </c>
       <c r="I14" s="34" t="n">
-        <v>0.8219910864548751</v>
+        <v>0.81089590263011</v>
       </c>
       <c r="J14" s="34" t="n">
-        <v>0.8714267964204682</v>
+        <v>0.8677018293315365</v>
       </c>
       <c r="M14">
         <f>+M13+1</f>
         <v/>
       </c>
       <c r="N14" s="22" t="n">
-        <v>1</v>
+        <v>1.00296585990193</v>
       </c>
       <c r="O14" s="22" t="n">
-        <v>1</v>
+        <v>1.00296585990193</v>
       </c>
       <c r="P14" s="22" t="n">
-        <v>1</v>
+        <v>1.013338053734064</v>
       </c>
       <c r="Q14" s="22" t="n">
-        <v>1</v>
+        <v>1.014089825455242</v>
       </c>
       <c r="R14" s="22" t="n">
-        <v>1</v>
+        <v>1.009937239621713</v>
       </c>
       <c r="S14" s="22" t="n">
-        <v>1</v>
+        <v>1.009937239621713</v>
       </c>
       <c r="T14" s="22" t="n">
-        <v>1</v>
+        <v>1.018218272639806</v>
       </c>
       <c r="U14" s="22" t="n">
-        <v>1</v>
+        <v>1.019769878612945</v>
       </c>
       <c r="V14" s="22" t="n">
-        <v>1</v>
+        <v>1.013713939594653</v>
       </c>
     </row>
     <row r="15">
@@ -7535,62 +7535,62 @@
         <v/>
       </c>
       <c r="B15" s="34" t="n">
-        <v>0.8851697827229618</v>
+        <v>0.9679048090602144</v>
       </c>
       <c r="C15" s="34" t="n">
-        <v>0.8851697827229618</v>
+        <v>0.9679048090602144</v>
       </c>
       <c r="D15" s="34" t="n">
-        <v>0.8842647510852526</v>
+        <v>0.9182352675798305</v>
       </c>
       <c r="E15" s="34" t="n">
-        <v>0.858956275894314</v>
+        <v>0.8441125781856884</v>
       </c>
       <c r="F15" s="34" t="n">
-        <v>0.8462526739496418</v>
+        <v>0.9148702738600467</v>
       </c>
       <c r="G15" s="34" t="n">
-        <v>0.8462526739496418</v>
+        <v>0.9148702738600467</v>
       </c>
       <c r="H15" s="34" t="n">
-        <v>0.8416795186774989</v>
+        <v>0.8807076509945235</v>
       </c>
       <c r="I15" s="34" t="n">
-        <v>0.8219910864548751</v>
+        <v>0.8269272161928423</v>
       </c>
       <c r="J15" s="34" t="n">
-        <v>0.8714267964204682</v>
+        <v>0.8796151576548218</v>
       </c>
       <c r="M15">
         <f>+M14+1</f>
         <v/>
       </c>
       <c r="N15" s="22" t="n">
-        <v>1</v>
+        <v>1.00390533638181</v>
       </c>
       <c r="O15" s="22" t="n">
-        <v>1</v>
+        <v>1.00390533638181</v>
       </c>
       <c r="P15" s="22" t="n">
-        <v>1</v>
+        <v>1.015484148017444</v>
       </c>
       <c r="Q15" s="22" t="n">
-        <v>1</v>
+        <v>1.032062409938981</v>
       </c>
       <c r="R15" s="22" t="n">
-        <v>1</v>
+        <v>1.01426286641273</v>
       </c>
       <c r="S15" s="22" t="n">
-        <v>1</v>
+        <v>1.01426286641273</v>
       </c>
       <c r="T15" s="22" t="n">
-        <v>1</v>
+        <v>1.023771444021216</v>
       </c>
       <c r="U15" s="22" t="n">
-        <v>1</v>
+        <v>1.043546962288331</v>
       </c>
       <c r="V15" s="22" t="n">
-        <v>1</v>
+        <v>1.023773278978212</v>
       </c>
     </row>
     <row r="16">
@@ -7599,62 +7599,62 @@
         <v/>
       </c>
       <c r="B16" s="34" t="n">
-        <v>0.8851697827229618</v>
+        <v>0.971684802925166</v>
       </c>
       <c r="C16" s="34" t="n">
-        <v>0.8851697827229618</v>
+        <v>0.971684802925166</v>
       </c>
       <c r="D16" s="34" t="n">
-        <v>0.8842647510852526</v>
+        <v>0.9324533583778741</v>
       </c>
       <c r="E16" s="34" t="n">
-        <v>0.858956275894314</v>
+        <v>0.8711768617021277</v>
       </c>
       <c r="F16" s="34" t="n">
-        <v>0.8462526739496418</v>
+        <v>0.92791894636109</v>
       </c>
       <c r="G16" s="34" t="n">
-        <v>0.8462526739496418</v>
+        <v>0.92791894636109</v>
       </c>
       <c r="H16" s="34" t="n">
-        <v>0.8416795186774989</v>
+        <v>0.9016433436191964</v>
       </c>
       <c r="I16" s="34" t="n">
-        <v>0.8219910864548751</v>
+        <v>0.8629373844915861</v>
       </c>
       <c r="J16" s="34" t="n">
-        <v>0.8714267964204682</v>
+        <v>0.9007742068096574</v>
       </c>
       <c r="M16">
         <f>+M15+1</f>
         <v/>
       </c>
       <c r="N16" s="22" t="n">
-        <v>1</v>
+        <v>1.014906126634863</v>
       </c>
       <c r="O16" s="22" t="n">
-        <v>1</v>
+        <v>1.014906126634863</v>
       </c>
       <c r="P16" s="22" t="n">
-        <v>1</v>
+        <v>1.055688232300255</v>
       </c>
       <c r="Q16" s="22" t="n">
-        <v>1</v>
+        <v>1.147872543407747</v>
       </c>
       <c r="R16" s="22" t="n">
-        <v>1</v>
+        <v>1.05492694245574</v>
       </c>
       <c r="S16" s="22" t="n">
-        <v>1</v>
+        <v>1.05492694245574</v>
       </c>
       <c r="T16" s="22" t="n">
-        <v>1</v>
+        <v>1.08239041368361</v>
       </c>
       <c r="U16" s="22" t="n">
-        <v>1</v>
+        <v>1.158832631395575</v>
       </c>
       <c r="V16" s="22" t="n">
-        <v>1</v>
+        <v>1.101780387854001</v>
       </c>
     </row>
     <row r="17">
@@ -7663,62 +7663,62 @@
         <v/>
       </c>
       <c r="B17" s="34" t="n">
-        <v>0.8851697827229618</v>
+        <v>0.9861688596467406</v>
       </c>
       <c r="C17" s="34" t="n">
-        <v>0.8851697827229618</v>
+        <v>0.9861688596467406</v>
       </c>
       <c r="D17" s="34" t="n">
-        <v>0.8842647510852526</v>
+        <v>0.984380037608374</v>
       </c>
       <c r="E17" s="34" t="n">
-        <v>0.858956275894314</v>
+        <v>1</v>
       </c>
       <c r="F17" s="34" t="n">
-        <v>0.8462526739496418</v>
+        <v>0.9788866969314561</v>
       </c>
       <c r="G17" s="34" t="n">
-        <v>0.8462526739496418</v>
+        <v>0.9788866969314561</v>
       </c>
       <c r="H17" s="34" t="n">
-        <v>0.8416795186774989</v>
+        <v>0.9759301116950548</v>
       </c>
       <c r="I17" s="34" t="n">
-        <v>0.8219910864548751</v>
+        <v>1</v>
       </c>
       <c r="J17" s="34" t="n">
-        <v>0.8714267964204682</v>
+        <v>0.9921285428720339</v>
       </c>
       <c r="M17">
         <f>+M16+1</f>
         <v/>
       </c>
       <c r="N17" s="22" t="n">
-        <v>1.005539064765557</v>
+        <v>1.003226221357188</v>
       </c>
       <c r="O17" s="22" t="n">
-        <v>1.005539064765557</v>
+        <v>1.003226221357188</v>
       </c>
       <c r="P17" s="22" t="n">
-        <v>1.006568218834458</v>
+        <v>1.004220969747064</v>
       </c>
       <c r="Q17" s="22" t="n">
         <v>1</v>
       </c>
       <c r="R17" s="22" t="n">
-        <v>1.016570202594945</v>
+        <v>1.008641381797795</v>
       </c>
       <c r="S17" s="22" t="n">
-        <v>1.016570202594945</v>
+        <v>1.008641381797795</v>
       </c>
       <c r="T17" s="22" t="n">
-        <v>1.022093603459926</v>
+        <v>1.011521842397061</v>
       </c>
       <c r="U17" s="22" t="n">
         <v>1</v>
       </c>
       <c r="V17" s="22" t="n">
-        <v>1.003284109417229</v>
+        <v>1.002110484873532</v>
       </c>
     </row>
     <row r="18">
@@ -7727,62 +7727,62 @@
         <v/>
       </c>
       <c r="B18" s="34" t="n">
-        <v>0.8900727954779786</v>
+        <v>0.9893504586835269</v>
       </c>
       <c r="C18" s="34" t="n">
-        <v>0.8900727954779786</v>
+        <v>0.9893504586835269</v>
       </c>
       <c r="D18" s="34" t="n">
-        <v>0.8900727954779786</v>
+        <v>0.9885350759667324</v>
       </c>
       <c r="E18" s="34" t="n">
-        <v>0.858956275894314</v>
+        <v>1</v>
       </c>
       <c r="F18" s="34" t="n">
-        <v>0.860275252203501</v>
+        <v>0.9873456306164238</v>
       </c>
       <c r="G18" s="34" t="n">
-        <v>0.860275252203501</v>
+        <v>0.9873456306164238</v>
       </c>
       <c r="H18" s="34" t="n">
-        <v>0.860275252203501</v>
+        <v>0.987174624632551</v>
       </c>
       <c r="I18" s="34" t="n">
-        <v>0.8219910864548751</v>
+        <v>1</v>
       </c>
       <c r="J18" s="34" t="n">
-        <v>0.874237742748039</v>
+        <v>0.9942344874013883</v>
       </c>
       <c r="M18">
         <f>+M17+1</f>
         <v/>
       </c>
       <c r="N18" s="22" t="n">
-        <v>1</v>
+        <v>1.003840901225699</v>
       </c>
       <c r="O18" s="22" t="n">
-        <v>1</v>
+        <v>1.003840901225699</v>
       </c>
       <c r="P18" s="22" t="n">
-        <v>1</v>
+        <v>1.004668908790803</v>
       </c>
       <c r="Q18" s="22" t="n">
         <v>1</v>
       </c>
       <c r="R18" s="22" t="n">
-        <v>1</v>
+        <v>1.00104044757044</v>
       </c>
       <c r="S18" s="22" t="n">
-        <v>1</v>
+        <v>1.00104044757044</v>
       </c>
       <c r="T18" s="22" t="n">
-        <v>1</v>
+        <v>1.001213855498847</v>
       </c>
       <c r="U18" s="22" t="n">
         <v>1</v>
       </c>
       <c r="V18" s="22" t="n">
-        <v>1</v>
+        <v>1.002334454395402</v>
       </c>
     </row>
     <row r="19">
@@ -7791,62 +7791,62 @@
         <v/>
       </c>
       <c r="B19" s="34" t="n">
-        <v>0.8900727954779786</v>
+        <v>0.9931504560729305</v>
       </c>
       <c r="C19" s="34" t="n">
-        <v>0.8900727954779786</v>
+        <v>0.9931504560729305</v>
       </c>
       <c r="D19" s="34" t="n">
-        <v>0.8900727954779786</v>
+        <v>0.9931504560729305</v>
       </c>
       <c r="E19" s="34" t="n">
-        <v>0.858956275894314</v>
+        <v>1</v>
       </c>
       <c r="F19" s="34" t="n">
-        <v>0.860275252203501</v>
+        <v>0.988372911978983</v>
       </c>
       <c r="G19" s="34" t="n">
-        <v>0.860275252203501</v>
+        <v>0.988372911978983</v>
       </c>
       <c r="H19" s="34" t="n">
-        <v>0.860275252203501</v>
+        <v>0.988372911978983</v>
       </c>
       <c r="I19" s="34" t="n">
-        <v>0.8219910864548751</v>
+        <v>1</v>
       </c>
       <c r="J19" s="34" t="n">
-        <v>0.874237742748039</v>
+        <v>0.9965634586660533</v>
       </c>
       <c r="M19">
         <f>+M18+1</f>
         <v/>
       </c>
       <c r="N19" s="22" t="n">
-        <v>1</v>
+        <v>1.0047269027087</v>
       </c>
       <c r="O19" s="22" t="n">
-        <v>1</v>
+        <v>1.0047269027087</v>
       </c>
       <c r="P19" s="22" t="n">
-        <v>1</v>
+        <v>1.0047269027087</v>
       </c>
       <c r="Q19" s="22" t="n">
         <v>1</v>
       </c>
       <c r="R19" s="22" t="n">
-        <v>1</v>
+        <v>1.009580758407541</v>
       </c>
       <c r="S19" s="22" t="n">
-        <v>1</v>
+        <v>1.009580758407541</v>
       </c>
       <c r="T19" s="22" t="n">
-        <v>1</v>
+        <v>1.009580758407541</v>
       </c>
       <c r="U19" s="22" t="n">
         <v>1</v>
       </c>
       <c r="V19" s="22" t="n">
-        <v>1</v>
+        <v>1.00236345135435</v>
       </c>
     </row>
     <row r="20">
@@ -7855,62 +7855,62 @@
         <v/>
       </c>
       <c r="B20" s="34" t="n">
-        <v>0.8900727954779786</v>
+        <v>0.9978449816538885</v>
       </c>
       <c r="C20" s="34" t="n">
-        <v>0.8900727954779786</v>
+        <v>0.9978449816538885</v>
       </c>
       <c r="D20" s="34" t="n">
-        <v>0.8900727954779786</v>
+        <v>0.9978449816538885</v>
       </c>
       <c r="E20" s="34" t="n">
-        <v>0.858956275894314</v>
+        <v>1</v>
       </c>
       <c r="F20" s="34" t="n">
-        <v>0.860275252203501</v>
+        <v>0.9978422740652116</v>
       </c>
       <c r="G20" s="34" t="n">
-        <v>0.860275252203501</v>
+        <v>0.9978422740652116</v>
       </c>
       <c r="H20" s="34" t="n">
-        <v>0.860275252203501</v>
+        <v>0.9978422740652116</v>
       </c>
       <c r="I20" s="34" t="n">
-        <v>0.8219910864548751</v>
+        <v>1</v>
       </c>
       <c r="J20" s="34" t="n">
-        <v>0.874237742748039</v>
+        <v>0.9989213285485605</v>
       </c>
       <c r="M20">
         <f>+M19+1</f>
         <v/>
       </c>
       <c r="N20" s="22" t="n">
-        <v>1</v>
+        <v>1.002159672479927</v>
       </c>
       <c r="O20" s="22" t="n">
-        <v>1</v>
+        <v>1.002159672479927</v>
       </c>
       <c r="P20" s="22" t="n">
-        <v>1</v>
+        <v>1.002159672479927</v>
       </c>
       <c r="Q20" s="22" t="n">
         <v>1</v>
       </c>
       <c r="R20" s="22" t="n">
-        <v>1</v>
+        <v>1.002162391783621</v>
       </c>
       <c r="S20" s="22" t="n">
-        <v>1</v>
+        <v>1.002162391783621</v>
       </c>
       <c r="T20" s="22" t="n">
-        <v>1</v>
+        <v>1.002162391783621</v>
       </c>
       <c r="U20" s="22" t="n">
         <v>1</v>
       </c>
       <c r="V20" s="22" t="n">
-        <v>1</v>
+        <v>1.001079836239964</v>
       </c>
     </row>
     <row r="21">
@@ -7919,62 +7919,62 @@
         <v/>
       </c>
       <c r="B21" s="34" t="n">
-        <v>0.8900727954779786</v>
+        <v>1</v>
       </c>
       <c r="C21" s="34" t="n">
-        <v>0.8900727954779786</v>
+        <v>1</v>
       </c>
       <c r="D21" s="34" t="n">
-        <v>0.8900727954779786</v>
+        <v>1</v>
       </c>
       <c r="E21" s="34" t="n">
-        <v>0.858956275894314</v>
+        <v>1</v>
       </c>
       <c r="F21" s="34" t="n">
-        <v>0.860275252203501</v>
+        <v>1</v>
       </c>
       <c r="G21" s="34" t="n">
-        <v>0.860275252203501</v>
+        <v>1</v>
       </c>
       <c r="H21" s="34" t="n">
-        <v>0.860275252203501</v>
+        <v>1</v>
       </c>
       <c r="I21" s="34" t="n">
-        <v>0.8219910864548751</v>
+        <v>1</v>
       </c>
       <c r="J21" s="34" t="n">
-        <v>0.874237742748039</v>
+        <v>1</v>
       </c>
       <c r="M21">
         <f>+M20+1</f>
         <v/>
       </c>
       <c r="N21" s="22" t="n">
-        <v>1.123503611255739</v>
+        <v>1</v>
       </c>
       <c r="O21" s="22" t="n">
-        <v>1.123503611255739</v>
+        <v>1</v>
       </c>
       <c r="P21" s="22" t="n">
-        <v>1.123503611255739</v>
+        <v>1</v>
       </c>
       <c r="Q21" s="22" t="n">
-        <v>1.164203613226804</v>
+        <v>1</v>
       </c>
       <c r="R21" s="22" t="n">
-        <v>1.162418653144571</v>
+        <v>1</v>
       </c>
       <c r="S21" s="22" t="n">
-        <v>1.162418653144571</v>
+        <v>1</v>
       </c>
       <c r="T21" s="22" t="n">
-        <v>1.162418653144571</v>
+        <v>1</v>
       </c>
       <c r="U21" s="22" t="n">
-        <v>1.216558204192762</v>
+        <v>1</v>
       </c>
       <c r="V21" s="22" t="n">
-        <v>1.143853612241272</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -8234,7 +8234,7 @@
         </is>
       </c>
       <c r="H4" s="8" t="n">
-        <v>45657</v>
+        <v>45808</v>
       </c>
       <c r="J4" s="40" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v/>
       </c>
       <c r="B8" s="14" t="n">
-        <v>7240.780000000001</v>
+        <v>18798.07</v>
       </c>
       <c r="C8" s="14">
         <f>+'Completion Factors'!J30</f>
@@ -8582,7 +8582,7 @@
         <v/>
       </c>
       <c r="I8" s="14" t="n">
-        <v>99979.77250000001</v>
+        <v>96762.10166666667</v>
       </c>
       <c r="J8" s="14">
         <f>100*$G8/$I8</f>
@@ -8608,73 +8608,73 @@
         <v/>
       </c>
       <c r="T8" s="22" t="n">
-        <v/>
+        <v>2000</v>
       </c>
       <c r="U8" s="22" t="n">
-        <v>2500.71</v>
+        <v>13397</v>
       </c>
       <c r="V8" s="22" t="n">
-        <v>3997.93</v>
+        <v>13397</v>
       </c>
       <c r="W8" s="22" t="n">
-        <v>4190.14</v>
+        <v>17047</v>
       </c>
       <c r="X8" s="22" t="n">
-        <v>5490.780000000001</v>
+        <v>17247</v>
       </c>
       <c r="Y8" s="22" t="n">
-        <v>7090.780000000001</v>
+        <v>17247</v>
       </c>
       <c r="Z8" s="22" t="n">
-        <v>7090.780000000001</v>
+        <v>17347</v>
       </c>
       <c r="AA8" s="22" t="n">
-        <v>7090.780000000001</v>
+        <v>17347</v>
       </c>
       <c r="AB8" s="22" t="n">
-        <v>7090.780000000001</v>
+        <v>18147</v>
       </c>
       <c r="AC8" s="22" t="n">
-        <v>7240.780000000001</v>
+        <v>18597</v>
       </c>
       <c r="AD8" s="22" t="n">
-        <v>7240.780000000001</v>
+        <v>18597</v>
       </c>
       <c r="AE8" s="22" t="n">
-        <v>7240.780000000001</v>
+        <v>18597</v>
       </c>
       <c r="AF8" s="22" t="n">
-        <v>7240.780000000001</v>
+        <v>18597</v>
       </c>
       <c r="AG8" s="22" t="n">
-        <v>7240.780000000001</v>
+        <v>18597</v>
       </c>
       <c r="AH8" s="22" t="n">
-        <v>7240.780000000001</v>
+        <v>18597</v>
       </c>
       <c r="AI8" s="22" t="n">
-        <v>7240.780000000001</v>
+        <v>18597</v>
       </c>
       <c r="AJ8" s="22" t="n">
-        <v>7240.780000000001</v>
+        <v>18597</v>
       </c>
       <c r="AK8" s="22" t="n">
-        <v>7240.780000000001</v>
+        <v>18597</v>
       </c>
       <c r="AL8" s="22" t="n">
-        <v>7240.780000000001</v>
+        <v>18798.07</v>
       </c>
       <c r="AM8" s="22" t="n">
-        <v>7240.780000000001</v>
+        <v>18798.07</v>
       </c>
       <c r="AN8" s="22" t="n">
-        <v>7240.780000000001</v>
+        <v>18798.07</v>
       </c>
       <c r="AO8" s="22" t="n">
-        <v>7240.780000000001</v>
+        <v>18798.07</v>
       </c>
       <c r="AP8" s="22" t="n">
-        <v>7240.780000000001</v>
+        <v>18798.07</v>
       </c>
       <c r="AQ8" s="14" t="n"/>
       <c r="AR8" s="14" t="n"/>
@@ -8685,7 +8685,7 @@
         <v/>
       </c>
       <c r="B9" s="14" t="n">
-        <v>11146.17</v>
+        <v>7566.89</v>
       </c>
       <c r="C9" s="14">
         <f>+'Completion Factors'!J29</f>
@@ -8709,7 +8709,7 @@
         <v/>
       </c>
       <c r="I9" s="14" t="n">
-        <v>99441.395</v>
+        <v>96190.69166666667</v>
       </c>
       <c r="J9" s="14">
         <f>100*$G9/$I9</f>
@@ -8732,73 +8732,73 @@
         <v/>
       </c>
       <c r="S9" s="22" t="n">
-        <v/>
+        <v>500</v>
       </c>
       <c r="T9" s="22" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="U9" s="22" t="n">
-        <v>2200</v>
+        <v>3064.75</v>
       </c>
       <c r="V9" s="22" t="n">
-        <v>5805.1</v>
+        <v>3314.75</v>
       </c>
       <c r="W9" s="22" t="n">
-        <v>5805.1</v>
+        <v>3964.75</v>
       </c>
       <c r="X9" s="22" t="n">
-        <v>10396.17</v>
+        <v>3964.75</v>
       </c>
       <c r="Y9" s="22" t="n">
-        <v>10396.17</v>
+        <v>4664.75</v>
       </c>
       <c r="Z9" s="22" t="n">
-        <v>10396.17</v>
+        <v>4664.75</v>
       </c>
       <c r="AA9" s="22" t="n">
-        <v>10796.17</v>
+        <v>7164.75</v>
       </c>
       <c r="AB9" s="22" t="n">
-        <v>10796.17</v>
+        <v>7164.75</v>
       </c>
       <c r="AC9" s="22" t="n">
-        <v>10796.17</v>
+        <v>7164.75</v>
       </c>
       <c r="AD9" s="22" t="n">
-        <v>11146.17</v>
+        <v>7164.75</v>
       </c>
       <c r="AE9" s="22" t="n">
-        <v>11146.17</v>
+        <v>7164.75</v>
       </c>
       <c r="AF9" s="22" t="n">
-        <v>11146.17</v>
+        <v>7164.75</v>
       </c>
       <c r="AG9" s="22" t="n">
-        <v>11146.17</v>
+        <v>7164.75</v>
       </c>
       <c r="AH9" s="22" t="n">
-        <v>11146.17</v>
+        <v>7164.75</v>
       </c>
       <c r="AI9" s="22" t="n">
-        <v>11146.17</v>
+        <v>7164.75</v>
       </c>
       <c r="AJ9" s="22" t="n">
-        <v>11146.17</v>
+        <v>7164.75</v>
       </c>
       <c r="AK9" s="22" t="n">
-        <v>11146.17</v>
+        <v>7566.89</v>
       </c>
       <c r="AL9" s="22" t="n">
-        <v>11146.17</v>
+        <v>7566.89</v>
       </c>
       <c r="AM9" s="22" t="n">
-        <v>11146.17</v>
+        <v>7566.89</v>
       </c>
       <c r="AN9" s="22" t="n">
-        <v>11146.17</v>
+        <v>7566.89</v>
       </c>
       <c r="AO9" s="22" t="n">
-        <v>11146.17</v>
+        <v>7566.89</v>
       </c>
       <c r="AP9" s="22" t="n">
         <v/>
@@ -8812,7 +8812,7 @@
         <v/>
       </c>
       <c r="B10" s="14" t="n">
-        <v>9161.27</v>
+        <v>55780.10999999999</v>
       </c>
       <c r="C10" s="14">
         <f>+'Completion Factors'!J28</f>
@@ -8836,7 +8836,7 @@
         <v/>
       </c>
       <c r="I10" s="14" t="n">
-        <v>98610.00166666666</v>
+        <v>95491.685</v>
       </c>
       <c r="J10" s="14">
         <f>100*$G10/$I10</f>
@@ -8862,67 +8862,67 @@
         <v/>
       </c>
       <c r="T10" s="22" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="U10" s="22" t="n">
-        <v>3753.38</v>
+        <v>53126.75</v>
       </c>
       <c r="V10" s="22" t="n">
-        <v>3753.38</v>
+        <v>53976.75</v>
       </c>
       <c r="W10" s="22" t="n">
-        <v>3903.38</v>
+        <v>54201.75</v>
       </c>
       <c r="X10" s="22" t="n">
-        <v>4203.38</v>
+        <v>54301.75</v>
       </c>
       <c r="Y10" s="22" t="n">
-        <v>4203.38</v>
+        <v>55001.75</v>
       </c>
       <c r="Z10" s="22" t="n">
-        <v>4353.38</v>
+        <v>55301.75</v>
       </c>
       <c r="AA10" s="22" t="n">
-        <v>4353.38</v>
+        <v>55301.75</v>
       </c>
       <c r="AB10" s="22" t="n">
-        <v>4353.38</v>
+        <v>55301.75</v>
       </c>
       <c r="AC10" s="22" t="n">
-        <v>4903.38</v>
+        <v>55301.75</v>
       </c>
       <c r="AD10" s="22" t="n">
-        <v>4903.38</v>
+        <v>55301.75</v>
       </c>
       <c r="AE10" s="22" t="n">
-        <v>4903.38</v>
+        <v>55301.75</v>
       </c>
       <c r="AF10" s="22" t="n">
-        <v>4903.38</v>
+        <v>55301.75</v>
       </c>
       <c r="AG10" s="22" t="n">
-        <v>4903.38</v>
+        <v>55301.75</v>
       </c>
       <c r="AH10" s="22" t="n">
-        <v>4903.38</v>
+        <v>55301.75</v>
       </c>
       <c r="AI10" s="22" t="n">
-        <v>5553.38</v>
+        <v>55301.75</v>
       </c>
       <c r="AJ10" s="22" t="n">
-        <v>5553.38</v>
+        <v>55704.52</v>
       </c>
       <c r="AK10" s="22" t="n">
-        <v>5553.38</v>
+        <v>55780.10999999999</v>
       </c>
       <c r="AL10" s="22" t="n">
-        <v>5553.38</v>
+        <v>55780.10999999999</v>
       </c>
       <c r="AM10" s="22" t="n">
-        <v>9161.27</v>
+        <v>55780.10999999999</v>
       </c>
       <c r="AN10" s="22" t="n">
-        <v>9161.27</v>
+        <v>55780.10999999999</v>
       </c>
       <c r="AO10" s="22" t="n">
         <v/>
@@ -8939,7 +8939,7 @@
         <v/>
       </c>
       <c r="B11" s="14" t="n">
-        <v>5272.5</v>
+        <v>5454.14</v>
       </c>
       <c r="C11" s="14">
         <f>+'Completion Factors'!J27</f>
@@ -8963,7 +8963,7 @@
         <v/>
       </c>
       <c r="I11" s="14" t="n">
-        <v>97952.16416666667</v>
+        <v>94994.745</v>
       </c>
       <c r="J11" s="14">
         <f>100*$G11/$I11</f>
@@ -8986,67 +8986,67 @@
         <v/>
       </c>
       <c r="S11" s="22" t="n">
-        <v/>
+        <v>1000</v>
       </c>
       <c r="T11" s="22" t="n">
-        <v>1550</v>
+        <v>2200</v>
       </c>
       <c r="U11" s="22" t="n">
-        <v>2530.5</v>
+        <v>2250</v>
       </c>
       <c r="V11" s="22" t="n">
-        <v>2580.5</v>
+        <v>2625</v>
       </c>
       <c r="W11" s="22" t="n">
-        <v>2580.5</v>
+        <v>2725</v>
       </c>
       <c r="X11" s="22" t="n">
-        <v>3722.03</v>
+        <v>2925</v>
       </c>
       <c r="Y11" s="22" t="n">
-        <v>4172.03</v>
+        <v>4125</v>
       </c>
       <c r="Z11" s="22" t="n">
-        <v>4322.03</v>
+        <v>4775</v>
       </c>
       <c r="AA11" s="22" t="n">
-        <v>5272.5</v>
+        <v>4775</v>
       </c>
       <c r="AB11" s="22" t="n">
-        <v>5272.5</v>
+        <v>4775</v>
       </c>
       <c r="AC11" s="22" t="n">
-        <v>5272.5</v>
+        <v>4875.43</v>
       </c>
       <c r="AD11" s="22" t="n">
-        <v>5272.5</v>
+        <v>4875.43</v>
       </c>
       <c r="AE11" s="22" t="n">
-        <v>5272.5</v>
+        <v>5101.47</v>
       </c>
       <c r="AF11" s="22" t="n">
-        <v>5272.5</v>
+        <v>5101.47</v>
       </c>
       <c r="AG11" s="22" t="n">
-        <v>5272.5</v>
+        <v>5101.47</v>
       </c>
       <c r="AH11" s="22" t="n">
-        <v>5272.5</v>
+        <v>5101.47</v>
       </c>
       <c r="AI11" s="22" t="n">
-        <v>5272.5</v>
+        <v>5454.14</v>
       </c>
       <c r="AJ11" s="22" t="n">
-        <v>5272.5</v>
+        <v>5454.14</v>
       </c>
       <c r="AK11" s="22" t="n">
-        <v>5272.5</v>
+        <v>5454.14</v>
       </c>
       <c r="AL11" s="22" t="n">
-        <v>5272.5</v>
+        <v>5454.14</v>
       </c>
       <c r="AM11" s="22" t="n">
-        <v>5272.5</v>
+        <v>5454.14</v>
       </c>
       <c r="AN11" s="22" t="n">
         <v/>
@@ -9066,7 +9066,7 @@
         <v/>
       </c>
       <c r="B12" s="14" t="n">
-        <v>7722</v>
+        <v>5703.940000000001</v>
       </c>
       <c r="C12" s="14">
         <f>++'Completion Factors'!J26</f>
@@ -9090,7 +9090,7 @@
         <v/>
       </c>
       <c r="I12" s="14" t="n">
-        <v>97269.735</v>
+        <v>94248.85166666667</v>
       </c>
       <c r="J12" s="14">
         <f>100*$G12/$I12</f>
@@ -9119,58 +9119,58 @@
         <v>2000</v>
       </c>
       <c r="U12" s="22" t="n">
-        <v>2772</v>
+        <v>3000</v>
       </c>
       <c r="V12" s="22" t="n">
-        <v>2922</v>
+        <v>4852.3</v>
       </c>
       <c r="W12" s="22" t="n">
-        <v>4122</v>
+        <v>4852.3</v>
       </c>
       <c r="X12" s="22" t="n">
-        <v>5722</v>
+        <v>4852.3</v>
       </c>
       <c r="Y12" s="22" t="n">
-        <v>7422</v>
+        <v>5052.900000000001</v>
       </c>
       <c r="Z12" s="22" t="n">
-        <v>7722</v>
+        <v>5252.900000000001</v>
       </c>
       <c r="AA12" s="22" t="n">
-        <v>7722</v>
+        <v>5252.900000000001</v>
       </c>
       <c r="AB12" s="22" t="n">
-        <v>7722</v>
+        <v>5603.940000000001</v>
       </c>
       <c r="AC12" s="22" t="n">
-        <v>7722</v>
+        <v>5603.940000000001</v>
       </c>
       <c r="AD12" s="22" t="n">
-        <v>7722</v>
+        <v>5603.940000000001</v>
       </c>
       <c r="AE12" s="22" t="n">
-        <v>7722</v>
+        <v>5603.940000000001</v>
       </c>
       <c r="AF12" s="22" t="n">
-        <v>7722</v>
+        <v>5603.940000000001</v>
       </c>
       <c r="AG12" s="22" t="n">
-        <v>7722</v>
+        <v>5603.940000000001</v>
       </c>
       <c r="AH12" s="22" t="n">
-        <v>7722</v>
+        <v>5703.940000000001</v>
       </c>
       <c r="AI12" s="22" t="n">
-        <v>7722</v>
+        <v>5703.940000000001</v>
       </c>
       <c r="AJ12" s="22" t="n">
-        <v>7722</v>
+        <v>5703.940000000001</v>
       </c>
       <c r="AK12" s="22" t="n">
-        <v>7722</v>
+        <v>5703.940000000001</v>
       </c>
       <c r="AL12" s="22" t="n">
-        <v>7722</v>
+        <v>5703.940000000001</v>
       </c>
       <c r="AM12" s="22" t="n">
         <v/>
@@ -9193,7 +9193,7 @@
         <v/>
       </c>
       <c r="B13" s="14" t="n">
-        <v>18597</v>
+        <v>8441.83</v>
       </c>
       <c r="C13" s="14">
         <f>++'Completion Factors'!J25</f>
@@ -9217,7 +9217,7 @@
         <v/>
       </c>
       <c r="I13" s="14" t="n">
-        <v>96762.10166666667</v>
+        <v>93522.47000000002</v>
       </c>
       <c r="J13" s="14">
         <f>100*$G13/$I13</f>
@@ -9240,61 +9240,61 @@
         <v/>
       </c>
       <c r="S13" s="22" t="n">
-        <v/>
+        <v>1000</v>
       </c>
       <c r="T13" s="22" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="U13" s="22" t="n">
-        <v>13397</v>
+        <v>4450</v>
       </c>
       <c r="V13" s="22" t="n">
-        <v>13397</v>
+        <v>4450</v>
       </c>
       <c r="W13" s="22" t="n">
-        <v>17047</v>
+        <v>6530</v>
       </c>
       <c r="X13" s="22" t="n">
-        <v>17247</v>
+        <v>6530</v>
       </c>
       <c r="Y13" s="22" t="n">
-        <v>17247</v>
+        <v>6730</v>
       </c>
       <c r="Z13" s="22" t="n">
-        <v>17347</v>
+        <v>6730</v>
       </c>
       <c r="AA13" s="22" t="n">
-        <v>17347</v>
+        <v>7480.93</v>
       </c>
       <c r="AB13" s="22" t="n">
-        <v>18147</v>
+        <v>7480.93</v>
       </c>
       <c r="AC13" s="22" t="n">
-        <v>18597</v>
+        <v>7480.93</v>
       </c>
       <c r="AD13" s="22" t="n">
-        <v>18597</v>
+        <v>7480.93</v>
       </c>
       <c r="AE13" s="22" t="n">
-        <v>18597</v>
+        <v>8341.83</v>
       </c>
       <c r="AF13" s="22" t="n">
-        <v>18597</v>
+        <v>8341.83</v>
       </c>
       <c r="AG13" s="22" t="n">
-        <v>18597</v>
+        <v>8441.83</v>
       </c>
       <c r="AH13" s="22" t="n">
-        <v>18597</v>
+        <v>8441.83</v>
       </c>
       <c r="AI13" s="22" t="n">
-        <v>18597</v>
+        <v>8441.83</v>
       </c>
       <c r="AJ13" s="22" t="n">
-        <v>18597</v>
+        <v>8441.83</v>
       </c>
       <c r="AK13" s="22" t="n">
-        <v>18597</v>
+        <v>8441.83</v>
       </c>
       <c r="AL13" s="22" t="n">
         <v/>
@@ -9320,7 +9320,7 @@
         <v/>
       </c>
       <c r="B14" s="14" t="n">
-        <v>7164.75</v>
+        <v>4200</v>
       </c>
       <c r="C14" s="14">
         <f>++'Completion Factors'!J24</f>
@@ -9344,7 +9344,7 @@
         <v/>
       </c>
       <c r="I14" s="14" t="n">
-        <v>96190.69166666665</v>
+        <v>92888.80333333334</v>
       </c>
       <c r="J14" s="14">
         <f>100*$G14/$I14</f>
@@ -9367,58 +9367,58 @@
         <v/>
       </c>
       <c r="S14" s="22" t="n">
-        <v>500</v>
+        <v/>
       </c>
       <c r="T14" s="22" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="U14" s="22" t="n">
-        <v>3064.75</v>
+        <v>2300</v>
       </c>
       <c r="V14" s="22" t="n">
-        <v>3314.75</v>
+        <v>3050</v>
       </c>
       <c r="W14" s="22" t="n">
-        <v>3964.75</v>
+        <v>3500</v>
       </c>
       <c r="X14" s="22" t="n">
-        <v>3964.75</v>
+        <v>3500</v>
       </c>
       <c r="Y14" s="22" t="n">
-        <v>4664.75</v>
+        <v>3500</v>
       </c>
       <c r="Z14" s="22" t="n">
-        <v>4664.75</v>
+        <v>3500</v>
       </c>
       <c r="AA14" s="22" t="n">
-        <v>7164.75</v>
+        <v>3500</v>
       </c>
       <c r="AB14" s="22" t="n">
-        <v>7164.75</v>
+        <v>4000</v>
       </c>
       <c r="AC14" s="22" t="n">
-        <v>7164.75</v>
+        <v>4000</v>
       </c>
       <c r="AD14" s="22" t="n">
-        <v>7164.75</v>
+        <v>4000</v>
       </c>
       <c r="AE14" s="22" t="n">
-        <v>7164.75</v>
+        <v>4000</v>
       </c>
       <c r="AF14" s="22" t="n">
-        <v>7164.75</v>
+        <v>4200</v>
       </c>
       <c r="AG14" s="22" t="n">
-        <v>7164.75</v>
+        <v>4200</v>
       </c>
       <c r="AH14" s="22" t="n">
-        <v>7164.75</v>
+        <v>4200</v>
       </c>
       <c r="AI14" s="22" t="n">
-        <v>7164.75</v>
+        <v>4200</v>
       </c>
       <c r="AJ14" s="22" t="n">
-        <v>7164.75</v>
+        <v>4200</v>
       </c>
       <c r="AK14" s="22" t="n">
         <v/>
@@ -9447,7 +9447,7 @@
         <v/>
       </c>
       <c r="B15" s="14" t="n">
-        <v>55301.75</v>
+        <v>4802.9</v>
       </c>
       <c r="C15" s="14">
         <f>++'Completion Factors'!J23</f>
@@ -9471,7 +9471,7 @@
         <v/>
       </c>
       <c r="I15" s="14" t="n">
-        <v>95491.685</v>
+        <v>92054.53333333333</v>
       </c>
       <c r="J15" s="14">
         <f>100*$G15/$I15</f>
@@ -9497,52 +9497,52 @@
         <v/>
       </c>
       <c r="T15" s="22" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="U15" s="22" t="n">
-        <v>53126.75</v>
+        <v>1500</v>
       </c>
       <c r="V15" s="22" t="n">
-        <v>53976.75</v>
+        <v>1500</v>
       </c>
       <c r="W15" s="22" t="n">
-        <v>54201.75</v>
+        <v>1900</v>
       </c>
       <c r="X15" s="22" t="n">
-        <v>54301.75</v>
+        <v>2050.99</v>
       </c>
       <c r="Y15" s="22" t="n">
-        <v>55001.75</v>
+        <v>2351.42</v>
       </c>
       <c r="Z15" s="22" t="n">
-        <v>55301.75</v>
+        <v>2351.42</v>
       </c>
       <c r="AA15" s="22" t="n">
-        <v>55301.75</v>
+        <v>3051.42</v>
       </c>
       <c r="AB15" s="22" t="n">
-        <v>55301.75</v>
+        <v>3152.9</v>
       </c>
       <c r="AC15" s="22" t="n">
-        <v>55301.75</v>
+        <v>3152.9</v>
       </c>
       <c r="AD15" s="22" t="n">
-        <v>55301.75</v>
+        <v>3152.9</v>
       </c>
       <c r="AE15" s="22" t="n">
-        <v>55301.75</v>
+        <v>3252.9</v>
       </c>
       <c r="AF15" s="22" t="n">
-        <v>55301.75</v>
+        <v>3252.9</v>
       </c>
       <c r="AG15" s="22" t="n">
-        <v>55301.75</v>
+        <v>3252.9</v>
       </c>
       <c r="AH15" s="22" t="n">
-        <v>55301.75</v>
+        <v>4802.9</v>
       </c>
       <c r="AI15" s="22" t="n">
-        <v>55301.75</v>
+        <v>4802.9</v>
       </c>
       <c r="AJ15" s="22" t="n">
         <v/>
@@ -9574,7 +9574,7 @@
         <v/>
       </c>
       <c r="B16" s="14" t="n">
-        <v>5101.47</v>
+        <v>3029.1</v>
       </c>
       <c r="C16" s="14">
         <f>++'Completion Factors'!J22</f>
@@ -9598,7 +9598,7 @@
         <v/>
       </c>
       <c r="I16" s="14" t="n">
-        <v>94994.745</v>
+        <v>91387.24333333333</v>
       </c>
       <c r="J16" s="14">
         <f>100*$G16/$I16</f>
@@ -9621,52 +9621,52 @@
         <v/>
       </c>
       <c r="S16" s="22" t="n">
-        <v>1000</v>
+        <v/>
       </c>
       <c r="T16" s="22" t="n">
-        <v>2200</v>
+        <v>1500</v>
       </c>
       <c r="U16" s="22" t="n">
-        <v>2250</v>
+        <v>1750</v>
       </c>
       <c r="V16" s="22" t="n">
-        <v>2625</v>
+        <v>1750</v>
       </c>
       <c r="W16" s="22" t="n">
-        <v>2725</v>
+        <v>1825.3</v>
       </c>
       <c r="X16" s="22" t="n">
-        <v>2925</v>
+        <v>2175.99</v>
       </c>
       <c r="Y16" s="22" t="n">
-        <v>4125</v>
+        <v>2175.99</v>
       </c>
       <c r="Z16" s="22" t="n">
-        <v>4775</v>
+        <v>2175.99</v>
       </c>
       <c r="AA16" s="22" t="n">
-        <v>4775</v>
+        <v>2175.99</v>
       </c>
       <c r="AB16" s="22" t="n">
-        <v>4775</v>
+        <v>2329.1</v>
       </c>
       <c r="AC16" s="22" t="n">
-        <v>4875.43</v>
+        <v>2329.1</v>
       </c>
       <c r="AD16" s="22" t="n">
-        <v>4875.43</v>
+        <v>2529.1</v>
       </c>
       <c r="AE16" s="22" t="n">
-        <v>5101.47</v>
+        <v>2529.1</v>
       </c>
       <c r="AF16" s="22" t="n">
-        <v>5101.47</v>
+        <v>2679.1</v>
       </c>
       <c r="AG16" s="22" t="n">
-        <v>5101.47</v>
+        <v>3029.1</v>
       </c>
       <c r="AH16" s="22" t="n">
-        <v>5101.47</v>
+        <v>3029.1</v>
       </c>
       <c r="AI16" s="22" t="n">
         <v/>
@@ -9701,7 +9701,7 @@
         <v/>
       </c>
       <c r="B17" s="14" t="n">
-        <v>5603.940000000001</v>
+        <v>4984.21</v>
       </c>
       <c r="C17" s="14">
         <f>++'Completion Factors'!J21</f>
@@ -9725,7 +9725,7 @@
         <v/>
       </c>
       <c r="I17" s="14" t="n">
-        <v>94248.85166666667</v>
+        <v>90637.03000000001</v>
       </c>
       <c r="J17" s="14">
         <f>100*$G17/$I17</f>
@@ -9748,49 +9748,49 @@
         <v/>
       </c>
       <c r="S17" s="22" t="n">
-        <v>1000</v>
+        <v/>
       </c>
       <c r="T17" s="22" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="U17" s="22" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="V17" s="22" t="n">
-        <v>4852.3</v>
+        <v>3403.95</v>
       </c>
       <c r="W17" s="22" t="n">
-        <v>4852.3</v>
+        <v>4303.95</v>
       </c>
       <c r="X17" s="22" t="n">
-        <v>4852.3</v>
+        <v>4303.95</v>
       </c>
       <c r="Y17" s="22" t="n">
-        <v>5052.900000000001</v>
+        <v>4555.51</v>
       </c>
       <c r="Z17" s="22" t="n">
-        <v>5252.900000000001</v>
+        <v>4555.51</v>
       </c>
       <c r="AA17" s="22" t="n">
-        <v>5252.900000000001</v>
+        <v>4809.21</v>
       </c>
       <c r="AB17" s="22" t="n">
-        <v>5603.940000000001</v>
+        <v>4809.21</v>
       </c>
       <c r="AC17" s="22" t="n">
-        <v>5603.940000000001</v>
+        <v>4909.21</v>
       </c>
       <c r="AD17" s="22" t="n">
-        <v>5603.940000000001</v>
+        <v>4909.21</v>
       </c>
       <c r="AE17" s="22" t="n">
-        <v>5603.940000000001</v>
+        <v>4984.21</v>
       </c>
       <c r="AF17" s="22" t="n">
-        <v>5603.940000000001</v>
+        <v>4984.21</v>
       </c>
       <c r="AG17" s="22" t="n">
-        <v>5603.940000000001</v>
+        <v>4984.21</v>
       </c>
       <c r="AH17" s="22" t="n">
         <v/>
@@ -9828,7 +9828,7 @@
         <v/>
       </c>
       <c r="B18" s="14" t="n">
-        <v>8341.83</v>
+        <v>3132.67</v>
       </c>
       <c r="C18" s="14">
         <f>++'Completion Factors'!J20</f>
@@ -9852,7 +9852,7 @@
         <v/>
       </c>
       <c r="I18" s="14" t="n">
-        <v>93522.47000000002</v>
+        <v>90077.69499999999</v>
       </c>
       <c r="J18" s="14">
         <f>100*$G18/$I18</f>
@@ -9875,46 +9875,46 @@
         <v/>
       </c>
       <c r="S18" s="22" t="n">
-        <v>1000</v>
+        <v/>
       </c>
       <c r="T18" s="22" t="n">
-        <v>2400</v>
+        <v/>
       </c>
       <c r="U18" s="22" t="n">
-        <v>4450</v>
+        <v>1004.38</v>
       </c>
       <c r="V18" s="22" t="n">
-        <v>4450</v>
+        <v>2055.04</v>
       </c>
       <c r="W18" s="22" t="n">
-        <v>6530</v>
+        <v>2455.04</v>
       </c>
       <c r="X18" s="22" t="n">
-        <v>6530</v>
+        <v>2455.04</v>
       </c>
       <c r="Y18" s="22" t="n">
-        <v>6730</v>
+        <v>2455.04</v>
       </c>
       <c r="Z18" s="22" t="n">
-        <v>6730</v>
+        <v>2455.04</v>
       </c>
       <c r="AA18" s="22" t="n">
-        <v>7480.93</v>
+        <v>2455.04</v>
       </c>
       <c r="AB18" s="22" t="n">
-        <v>7480.93</v>
+        <v>2655.04</v>
       </c>
       <c r="AC18" s="22" t="n">
-        <v>7480.93</v>
+        <v>3057.67</v>
       </c>
       <c r="AD18" s="22" t="n">
-        <v>7480.93</v>
+        <v>3132.67</v>
       </c>
       <c r="AE18" s="22" t="n">
-        <v>8341.83</v>
+        <v>3132.67</v>
       </c>
       <c r="AF18" s="22" t="n">
-        <v>8341.83</v>
+        <v>3132.67</v>
       </c>
       <c r="AG18" s="22" t="n">
         <v/>
@@ -9955,7 +9955,7 @@
         <v/>
       </c>
       <c r="B19" s="14" t="n">
-        <v>4000</v>
+        <v>3130.33</v>
       </c>
       <c r="C19" s="14">
         <f>++'Completion Factors'!J19</f>
@@ -9979,7 +9979,7 @@
         <v/>
       </c>
       <c r="I19" s="14" t="n">
-        <v>92888.80333333334</v>
+        <v>89632.09500000002</v>
       </c>
       <c r="J19" s="14">
         <f>100*$G19/$I19</f>
@@ -10008,40 +10008,40 @@
         <v/>
       </c>
       <c r="T19" s="22" t="n">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="U19" s="22" t="n">
-        <v>2300</v>
+        <v>1000</v>
       </c>
       <c r="V19" s="22" t="n">
-        <v>3050</v>
+        <v>1200</v>
       </c>
       <c r="W19" s="22" t="n">
-        <v>3500</v>
+        <v>1200</v>
       </c>
       <c r="X19" s="22" t="n">
-        <v>3500</v>
+        <v>1400.39</v>
       </c>
       <c r="Y19" s="22" t="n">
-        <v>3500</v>
+        <v>1400.39</v>
       </c>
       <c r="Z19" s="22" t="n">
-        <v>3500</v>
+        <v>1602.69</v>
       </c>
       <c r="AA19" s="22" t="n">
-        <v>3500</v>
+        <v>1702.69</v>
       </c>
       <c r="AB19" s="22" t="n">
-        <v>4000</v>
+        <v>2105.33</v>
       </c>
       <c r="AC19" s="22" t="n">
-        <v>4000</v>
+        <v>2180.33</v>
       </c>
       <c r="AD19" s="22" t="n">
-        <v>4000</v>
+        <v>3130.33</v>
       </c>
       <c r="AE19" s="22" t="n">
-        <v>4000</v>
+        <v>3130.33</v>
       </c>
       <c r="AF19" s="22" t="n">
         <v/>
@@ -10085,7 +10085,7 @@
         <v/>
       </c>
       <c r="B20" s="14" t="n">
-        <v>3152.9</v>
+        <v>2426.57</v>
       </c>
       <c r="C20" s="14">
         <f>++'Completion Factors'!J18</f>
@@ -10109,7 +10109,7 @@
         <v/>
       </c>
       <c r="I20" s="14" t="n">
-        <v>92054.53333333333</v>
+        <v>89284.03500000002</v>
       </c>
       <c r="J20" s="14">
         <f>100*$G20/$I20</f>
@@ -10147,34 +10147,34 @@
         <v>1500</v>
       </c>
       <c r="U20" s="22" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="V20" s="22" t="n">
-        <v>1500</v>
+        <v>1750.79</v>
       </c>
       <c r="W20" s="22" t="n">
-        <v>1900</v>
+        <v>2151.57</v>
       </c>
       <c r="X20" s="22" t="n">
-        <v>2050.99</v>
+        <v>2151.57</v>
       </c>
       <c r="Y20" s="22" t="n">
-        <v>2351.42</v>
+        <v>2151.57</v>
       </c>
       <c r="Z20" s="22" t="n">
-        <v>2351.42</v>
+        <v>2351.57</v>
       </c>
       <c r="AA20" s="22" t="n">
-        <v>3051.42</v>
+        <v>2351.57</v>
       </c>
       <c r="AB20" s="22" t="n">
-        <v>3152.9</v>
+        <v>2426.57</v>
       </c>
       <c r="AC20" s="22" t="n">
-        <v>3152.9</v>
+        <v>2426.57</v>
       </c>
       <c r="AD20" s="22" t="n">
-        <v>3152.9</v>
+        <v>2426.57</v>
       </c>
       <c r="AE20" s="22" t="n">
         <v/>
@@ -10221,7 +10221,7 @@
         <v/>
       </c>
       <c r="B21" s="14" t="n">
-        <v>2329.1</v>
+        <v>1951.72</v>
       </c>
       <c r="C21" s="14">
         <f>++'Completion Factors'!J17</f>
@@ -10245,7 +10245,7 @@
         <v/>
       </c>
       <c r="I21" s="14" t="n">
-        <v>91387.24333333333</v>
+        <v>88586.81666666665</v>
       </c>
       <c r="J21" s="14">
         <f>100*$G21/$I21</f>
@@ -10280,34 +10280,34 @@
         <v/>
       </c>
       <c r="T21" s="22" t="n">
-        <v>1500</v>
+        <v>1501.1</v>
       </c>
       <c r="U21" s="22" t="n">
-        <v>1750</v>
+        <v>1701.1</v>
       </c>
       <c r="V21" s="22" t="n">
-        <v>1750</v>
+        <v>1701.1</v>
       </c>
       <c r="W21" s="22" t="n">
-        <v>1825.3</v>
+        <v>1701.1</v>
       </c>
       <c r="X21" s="22" t="n">
-        <v>2175.99</v>
+        <v>1751.72</v>
       </c>
       <c r="Y21" s="22" t="n">
-        <v>2175.99</v>
+        <v>1751.72</v>
       </c>
       <c r="Z21" s="22" t="n">
-        <v>2175.99</v>
+        <v>1751.72</v>
       </c>
       <c r="AA21" s="22" t="n">
-        <v>2175.99</v>
+        <v>1951.72</v>
       </c>
       <c r="AB21" s="22" t="n">
-        <v>2329.1</v>
+        <v>1951.72</v>
       </c>
       <c r="AC21" s="22" t="n">
-        <v>2329.1</v>
+        <v>1951.72</v>
       </c>
       <c r="AD21" s="22" t="n">
         <v/>
@@ -10357,7 +10357,7 @@
         <v/>
       </c>
       <c r="B22" s="14" t="n">
-        <v>4809.21</v>
+        <v>6617.190000000001</v>
       </c>
       <c r="C22" s="14">
         <f>++'Completion Factors'!J16</f>
@@ -10381,7 +10381,7 @@
         <v/>
       </c>
       <c r="I22" s="14" t="n">
-        <v>90637.03000000001</v>
+        <v>88010.36666666665</v>
       </c>
       <c r="J22" s="14">
         <f>100*$G22/$I22</f>
@@ -10416,31 +10416,31 @@
         <v/>
       </c>
       <c r="T22" s="22" t="n">
-        <v>1500</v>
+        <v/>
       </c>
       <c r="U22" s="22" t="n">
-        <v>2500</v>
+        <v>1205.75</v>
       </c>
       <c r="V22" s="22" t="n">
-        <v>3403.95</v>
+        <v>1205.75</v>
       </c>
       <c r="W22" s="22" t="n">
-        <v>4303.95</v>
+        <v>2010.68</v>
       </c>
       <c r="X22" s="22" t="n">
-        <v>4303.95</v>
+        <v>6417.190000000001</v>
       </c>
       <c r="Y22" s="22" t="n">
-        <v>4555.51</v>
+        <v>6417.190000000001</v>
       </c>
       <c r="Z22" s="22" t="n">
-        <v>4555.51</v>
+        <v>6617.190000000001</v>
       </c>
       <c r="AA22" s="22" t="n">
-        <v>4809.21</v>
+        <v>6617.190000000001</v>
       </c>
       <c r="AB22" s="22" t="n">
-        <v>4809.21</v>
+        <v>6617.190000000001</v>
       </c>
       <c r="AC22" s="22" t="n">
         <v/>
@@ -10493,7 +10493,7 @@
         <v/>
       </c>
       <c r="B23" s="14" t="n">
-        <v>2455.04</v>
+        <v>28116.66</v>
       </c>
       <c r="C23" s="14">
         <f>++'Completion Factors'!J15</f>
@@ -10517,7 +10517,7 @@
         <v/>
       </c>
       <c r="I23" s="14" t="n">
-        <v>90077.69499999999</v>
+        <v>87641.90666666666</v>
       </c>
       <c r="J23" s="14">
         <f>100*$G23/$I23</f>
@@ -10555,25 +10555,25 @@
         <v/>
       </c>
       <c r="U23" s="22" t="n">
-        <v>1004.38</v>
+        <v>1005.75</v>
       </c>
       <c r="V23" s="22" t="n">
-        <v>2055.04</v>
+        <v>1707.26</v>
       </c>
       <c r="W23" s="22" t="n">
-        <v>2455.04</v>
+        <v>27816.66</v>
       </c>
       <c r="X23" s="22" t="n">
-        <v>2455.04</v>
+        <v>27816.66</v>
       </c>
       <c r="Y23" s="22" t="n">
-        <v>2455.04</v>
+        <v>27916.66</v>
       </c>
       <c r="Z23" s="22" t="n">
-        <v>2455.04</v>
+        <v>28116.66</v>
       </c>
       <c r="AA23" s="22" t="n">
-        <v>2455.04</v>
+        <v>28116.66</v>
       </c>
       <c r="AB23" s="22" t="n">
         <v/>
@@ -10629,7 +10629,7 @@
         <v/>
       </c>
       <c r="B24" s="14" t="n">
-        <v>1602.69</v>
+        <v>2863.28</v>
       </c>
       <c r="C24" s="14">
         <f>++'Completion Factors'!J14</f>
@@ -10655,7 +10655,7 @@
         <v/>
       </c>
       <c r="I24" s="14" t="n">
-        <v>89632.09499999999</v>
+        <v>86708.92666666668</v>
       </c>
       <c r="J24" s="14">
         <f>100*$G24/$I24</f>
@@ -10690,25 +10690,25 @@
         <v/>
       </c>
       <c r="T24" s="22" t="n">
-        <v>1000</v>
+        <v/>
       </c>
       <c r="U24" s="22" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="V24" s="22" t="n">
-        <v>1200</v>
+        <v>2863.28</v>
       </c>
       <c r="W24" s="22" t="n">
-        <v>1200</v>
+        <v>2863.28</v>
       </c>
       <c r="X24" s="22" t="n">
-        <v>1400.39</v>
+        <v>2863.28</v>
       </c>
       <c r="Y24" s="22" t="n">
-        <v>1400.39</v>
+        <v>2863.28</v>
       </c>
       <c r="Z24" s="22" t="n">
-        <v>1602.69</v>
+        <v>2863.28</v>
       </c>
       <c r="AA24" s="22" t="n">
         <v/>
@@ -10767,7 +10767,7 @@
         <v/>
       </c>
       <c r="B25" s="14" t="n">
-        <v>2151.57</v>
+        <v>1912.71</v>
       </c>
       <c r="C25" s="14">
         <f>++'Completion Factors'!J13</f>
@@ -10793,7 +10793,7 @@
         <v/>
       </c>
       <c r="I25" s="14" t="n">
-        <v>89284.03499999999</v>
+        <v>86091.15333333334</v>
       </c>
       <c r="J25" s="14">
         <f>100*$G25/$I25</f>
@@ -10828,22 +10828,22 @@
         <v/>
       </c>
       <c r="T25" s="22" t="n">
-        <v>1500</v>
+        <v/>
       </c>
       <c r="U25" s="22" t="n">
-        <v>1700</v>
+        <v>1408.22</v>
       </c>
       <c r="V25" s="22" t="n">
-        <v>1750.79</v>
+        <v>1812.71</v>
       </c>
       <c r="W25" s="22" t="n">
-        <v>2151.57</v>
+        <v>1812.71</v>
       </c>
       <c r="X25" s="22" t="n">
-        <v>2151.57</v>
+        <v>1812.71</v>
       </c>
       <c r="Y25" s="22" t="n">
-        <v>2151.57</v>
+        <v>1912.71</v>
       </c>
       <c r="Z25" s="22" t="n">
         <v/>
@@ -10905,7 +10905,7 @@
         <v/>
       </c>
       <c r="B26" s="14" t="n">
-        <v>1751.72</v>
+        <v>27856.58</v>
       </c>
       <c r="C26" s="14">
         <f>++'Completion Factors'!J12</f>
@@ -10931,7 +10931,7 @@
         <v/>
       </c>
       <c r="I26" s="14" t="n">
-        <v>88586.81666666665</v>
+        <v>85710.18333333333</v>
       </c>
       <c r="J26" s="14">
         <f>100*$G26/$I26</f>
@@ -10966,19 +10966,19 @@
         <v/>
       </c>
       <c r="T26" s="22" t="n">
-        <v>1501.1</v>
+        <v>200</v>
       </c>
       <c r="U26" s="22" t="n">
-        <v>1701.1</v>
+        <v>1206.58</v>
       </c>
       <c r="V26" s="22" t="n">
-        <v>1701.1</v>
+        <v>27856.58</v>
       </c>
       <c r="W26" s="22" t="n">
-        <v>1701.1</v>
+        <v>27856.58</v>
       </c>
       <c r="X26" s="22" t="n">
-        <v>1751.72</v>
+        <v>27856.58</v>
       </c>
       <c r="Y26" s="22" t="n">
         <v/>
@@ -11043,7 +11043,7 @@
         <v/>
       </c>
       <c r="B27" s="14" t="n">
-        <v>2010.68</v>
+        <v>1402.19</v>
       </c>
       <c r="C27" s="14">
         <f>++'Completion Factors'!J11</f>
@@ -11069,7 +11069,7 @@
         <v/>
       </c>
       <c r="I27" s="14" t="n">
-        <v>88010.36666666668</v>
+        <v>84639.57333333332</v>
       </c>
       <c r="J27" s="14">
         <f>100*$G27/$I27</f>
@@ -11104,16 +11104,16 @@
         <v/>
       </c>
       <c r="T27" s="22" t="n">
-        <v/>
+        <v>1002.19</v>
       </c>
       <c r="U27" s="22" t="n">
-        <v>1205.75</v>
+        <v>1402.19</v>
       </c>
       <c r="V27" s="22" t="n">
-        <v>1205.75</v>
+        <v>1402.19</v>
       </c>
       <c r="W27" s="22" t="n">
-        <v>2010.68</v>
+        <v>1402.19</v>
       </c>
       <c r="X27" s="22" t="n">
         <v/>
@@ -11181,7 +11181,7 @@
         <v/>
       </c>
       <c r="B28" s="14" t="n">
-        <v>1707.26</v>
+        <v>1450</v>
       </c>
       <c r="C28" s="14">
         <f>++'Completion Factors'!J10</f>
@@ -11207,7 +11207,7 @@
         <v/>
       </c>
       <c r="I28" s="14" t="n">
-        <v>87641.90666666666</v>
+        <v>84198.78333333334</v>
       </c>
       <c r="J28" s="14">
         <f>100*$G28/$I28</f>
@@ -11242,13 +11242,13 @@
         <v/>
       </c>
       <c r="T28" s="22" t="n">
-        <v/>
+        <v>1150</v>
       </c>
       <c r="U28" s="22" t="n">
-        <v>1005.75</v>
+        <v>1450</v>
       </c>
       <c r="V28" s="22" t="n">
-        <v>1707.26</v>
+        <v>1450</v>
       </c>
       <c r="W28" s="22" t="n">
         <v/>
@@ -11319,7 +11319,7 @@
         <v/>
       </c>
       <c r="B29" s="14" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="C29" s="14">
         <f>++'Completion Factors'!J9</f>
@@ -11346,7 +11346,7 @@
         <v/>
       </c>
       <c r="I29" s="14" t="n">
-        <v>86708.92666666667</v>
+        <v>83734.29666666668</v>
       </c>
       <c r="J29" s="20" t="n">
         <v>15</v>
@@ -11377,13 +11377,13 @@
         <v/>
       </c>
       <c r="S29" s="22" t="n">
-        <v/>
+        <v>1000</v>
       </c>
       <c r="T29" s="22" t="n">
-        <v/>
+        <v>1000</v>
       </c>
       <c r="U29" s="22" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="V29" s="22" t="n">
         <v/>
@@ -11457,7 +11457,7 @@
         <v/>
       </c>
       <c r="B30" s="14" t="n">
-        <v/>
+        <v>1000</v>
       </c>
       <c r="C30" s="14">
         <f>++'Completion Factors'!J8</f>
@@ -11484,7 +11484,7 @@
         <v/>
       </c>
       <c r="I30" s="14" t="n">
-        <v>86091.15333333334</v>
+        <v>83042.50999999999</v>
       </c>
       <c r="J30" s="20" t="n">
         <v>15</v>
@@ -11515,10 +11515,10 @@
         <v/>
       </c>
       <c r="S30" s="22" t="n">
-        <v/>
+        <v>1000</v>
       </c>
       <c r="T30" s="22" t="n">
-        <v/>
+        <v>1000</v>
       </c>
       <c r="U30" s="22" t="n">
         <v/>
@@ -11595,7 +11595,7 @@
         <v/>
       </c>
       <c r="B31" s="14" t="n">
-        <v/>
+        <v>1000</v>
       </c>
       <c r="C31" s="14">
         <f>+'Completion Factors'!J7</f>
@@ -11622,7 +11622,7 @@
         <v/>
       </c>
       <c r="I31" s="14" t="n">
-        <v>85710.18333333333</v>
+        <v>82457.045</v>
       </c>
       <c r="J31" s="20" t="n">
         <v>15</v>
@@ -11653,7 +11653,7 @@
         <v/>
       </c>
       <c r="S31" s="22" t="n">
-        <v/>
+        <v>1000</v>
       </c>
       <c r="T31" s="22" t="n">
         <v/>

--- a/Process Results/Unified_IBNP_PRT.xlsx
+++ b/Process Results/Unified_IBNP_PRT.xlsx
@@ -3727,20 +3727,20 @@
         <v/>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.07573431090944804</v>
+        <v>0.3951861377219238</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.05131405831382037</v>
+        <v>0.03742444886867629</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.1302500334100365</v>
+        <v>0.08496458741845349</v>
       </c>
       <c r="H7" s="4">
         <f>+I7/I8</f>
         <v/>
       </c>
       <c r="I7" s="5" t="n">
-        <v>0.06117724879309462</v>
+        <v>0.0683738394908025</v>
       </c>
       <c r="J7" s="5">
         <f>I7</f>
@@ -3765,20 +3765,20 @@
         <v/>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.07573431090944804</v>
+        <v>0.5532605928106934</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.05131405831382037</v>
+        <v>0.0523942284161468</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1302500334100365</v>
+        <v>0.1189504223858349</v>
       </c>
       <c r="H8" s="4">
         <f>+I8/I9</f>
         <v/>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.06117724879309462</v>
+        <v>0.09572337528712349</v>
       </c>
       <c r="J8" s="5">
         <f>I8</f>
@@ -3803,20 +3803,20 @@
         <v/>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.09255246515668999</v>
+        <v>0.6059520778402834</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.07743774033578198</v>
+        <v>0.07293904432042204</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1675642309163112</v>
+        <v>0.1489480138485462</v>
       </c>
       <c r="H9" s="4">
         <f>+I9/I10</f>
         <v/>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.08432313783581681</v>
+        <v>0.1302051655086511</v>
       </c>
       <c r="J9" s="5">
         <f>I9</f>
@@ -3841,20 +3841,20 @@
         <v/>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.7002546006375842</v>
+        <v>0.6059520778402834</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.411935941005922</v>
+        <v>0.3809205441988462</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>0.5043256240186279</v>
+        <v>0.4698520836711962</v>
       </c>
       <c r="H10" s="4">
         <f>+I10/I11</f>
         <v/>
       </c>
       <c r="I10" s="5" t="n">
-        <v>0.5187241341418103</v>
+        <v>0.4677799142353559</v>
       </c>
       <c r="J10" s="5">
         <f>I10</f>
@@ -3879,20 +3879,20 @@
         <v/>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7002546006375842</v>
+        <v>0.6355504016012294</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.7128219879795629</v>
+        <v>0.6644582882473942</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.8013839273507932</v>
+        <v>0.7621479271513859</v>
       </c>
       <c r="H11" s="4">
         <f>+I11/I12</f>
         <v/>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.7064824094308975</v>
+        <v>0.6496829371072437</v>
       </c>
       <c r="J11" s="5">
         <f>I11</f>
@@ -3917,20 +3917,20 @@
         <v/>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7002546006375842</v>
+        <v>0.6621412019777032</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.7624175261592349</v>
+        <v>0.7239252422289387</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.8544605138424999</v>
+        <v>0.8242648207614071</v>
       </c>
       <c r="H12" s="4">
         <f>+I12/I13</f>
         <v/>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.7300151148281128</v>
+        <v>0.6916562074422558</v>
       </c>
       <c r="J12" s="5">
         <f>I12</f>
@@ -3955,20 +3955,20 @@
         <v/>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.7045648344943954</v>
+        <v>0.6641765198206456</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.7659791322653954</v>
+        <v>0.7260383329877624</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.8654068740545635</v>
+        <v>0.8317277178448393</v>
       </c>
       <c r="H13" s="4">
         <f>+I13/I14</f>
         <v/>
       </c>
       <c r="I13" s="5" t="n">
-        <v>0.7339895613456139</v>
+        <v>0.6937310621966888</v>
       </c>
       <c r="J13" s="5">
         <f>I13</f>
@@ -3993,20 +3993,20 @@
         <v/>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.7121413849916451</v>
+        <v>0.7088712247040191</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.7804387403956058</v>
+        <v>0.7699249244952435</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.8762101916698526</v>
+        <v>0.8709319661447404</v>
       </c>
       <c r="H14" s="4">
         <f>+I14/I15</f>
         <v/>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.7447274903814808</v>
+        <v>0.7381377405568983</v>
       </c>
       <c r="J14" s="5">
         <f>I14</f>
@@ -4031,20 +4031,20 @@
         <v/>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.7160450728605294</v>
+        <v>0.7088712247040191</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.7858970066665766</v>
+        <v>0.7752588942112426</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.9022472398608382</v>
+        <v>0.897762573775639</v>
       </c>
       <c r="H15" s="4">
         <f>+I15/I16</f>
         <v/>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.7493467119272956</v>
+        <v>0.7405802426594172</v>
       </c>
       <c r="J15" s="5">
         <f>I15</f>
@@ -4069,20 +4069,20 @@
         <v/>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.7209627486828871</v>
+        <v>0.7088712247040191</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.8126755052147814</v>
+        <v>0.7874211356318859</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.9371306475398178</v>
+        <v>0.9208093698594527</v>
       </c>
       <c r="H16" s="4">
         <f>+I16/I17</f>
         <v/>
       </c>
       <c r="I16" s="5" t="n">
-        <v>0.7640768799785002</v>
+        <v>0.7460843877434458</v>
       </c>
       <c r="J16" s="5">
         <f>I16</f>
@@ -4107,20 +4107,20 @@
         <v/>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.7293025659687886</v>
+        <v>0.7088712247040191</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.8415153784883216</v>
+        <v>0.809538166682369</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.9437091857409662</v>
+        <v>0.9338422233803712</v>
       </c>
       <c r="H17" s="4">
         <f>+I17/I18</f>
         <v/>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.7814009599258005</v>
+        <v>0.7558677059245719</v>
       </c>
       <c r="J17" s="5">
         <f>I17</f>
@@ -4145,20 +4145,20 @@
         <v/>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8268338208360557</v>
+        <v>0.8115494807195861</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.8986082506128267</v>
+        <v>0.8683757691283424</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.9549895784919361</v>
+        <v>0.9456029102925748</v>
       </c>
       <c r="H18" s="4">
         <f>+I18/I19</f>
         <v/>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.8612282099567657</v>
+        <v>0.8390015026792073</v>
       </c>
       <c r="J18" s="5">
         <f>I18</f>
@@ -4183,20 +4183,20 @@
         <v/>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.8323844268990194</v>
+        <v>0.8115494807195861</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.9061490034803409</v>
+        <v>0.8762574917348687</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>0.96504262782669</v>
+        <v>0.9571092450910016</v>
       </c>
       <c r="H19" s="4">
         <f>+I19/I20</f>
         <v/>
       </c>
       <c r="I19" s="5" t="n">
-        <v>0.8677018293315365</v>
+        <v>0.8426630817384769</v>
       </c>
       <c r="J19" s="5">
         <f>I19</f>
@@ -4221,20 +4221,20 @@
         <v/>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.8441125781856884</v>
+        <v>0.8331961685840322</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.9182352675798305</v>
+        <v>0.9033420740671421</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.9679048090602144</v>
+        <v>0.9631761761604624</v>
       </c>
       <c r="H20" s="4">
         <f>+I20/I21</f>
         <v/>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.8796151576548218</v>
+        <v>0.8668523808429435</v>
       </c>
       <c r="J20" s="5">
         <f>I20</f>
@@ -4259,20 +4259,20 @@
         <v/>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.8711768617021277</v>
+        <v>0.8756432546958273</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.9324533583778741</v>
+        <v>0.9254239345418582</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.971684802925166</v>
+        <v>0.9694517181871686</v>
       </c>
       <c r="H21" s="4">
         <f>+I21/I22</f>
         <v/>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.9007742068096574</v>
+        <v>0.8998456369177805</v>
       </c>
       <c r="J21" s="5">
         <f>I21</f>
@@ -4300,17 +4300,17 @@
         <v>1</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.984380037608374</v>
+        <v>0.9787318009988413</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.9861688596467406</v>
+        <v>0.9864281167217598</v>
       </c>
       <c r="H22" s="4">
         <f>+I22/I23</f>
         <v/>
       </c>
       <c r="I22" s="5" t="n">
-        <v>0.9921285428720339</v>
+        <v>0.9892516009544989</v>
       </c>
       <c r="J22" s="5">
         <f>I22</f>
@@ -4338,17 +4338,17 @@
         <v>1</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.9885350759667324</v>
+        <v>0.9897668946986325</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.9893504586835269</v>
+        <v>0.9901390437881444</v>
       </c>
       <c r="H23" s="4">
         <f>+I23/I24</f>
         <v/>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.9942344874013883</v>
+        <v>0.9948571336026187</v>
       </c>
       <c r="J23" s="5">
         <f>I23</f>
@@ -4376,17 +4376,17 @@
         <v>1</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.9931504560729305</v>
+        <v>0.9945181074119553</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.9931504560729305</v>
+        <v>0.9945181074119553</v>
       </c>
       <c r="H24" s="4">
         <f>+I24/I25</f>
         <v/>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.9965634586660533</v>
+        <v>0.9972515202706492</v>
       </c>
       <c r="J24" s="5">
         <f>I24</f>
@@ -4414,17 +4414,17 @@
         <v>1</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.9978449816538885</v>
+        <v>1</v>
       </c>
       <c r="G25" s="5" t="n">
-        <v>0.9978449816538885</v>
+        <v>1</v>
       </c>
       <c r="H25" s="4">
         <f>+I25/I26</f>
         <v/>
       </c>
       <c r="I25" s="5" t="n">
-        <v>0.9989213285485605</v>
+        <v>1</v>
       </c>
       <c r="J25" s="5">
         <f>I25</f>
@@ -4833,61 +4833,61 @@
         <v>0</v>
       </c>
       <c r="B38" s="4" t="n">
-        <v/>
+        <v>4</v>
       </c>
       <c r="C38" s="4" t="n">
-        <v>6.6985</v>
+        <v>1.532375</v>
       </c>
       <c r="D38" s="4" t="n">
-        <v>1</v>
+        <v>1.081572722081736</v>
       </c>
       <c r="E38" s="4" t="n">
-        <v>1.272449055758752</v>
+        <v>1.196093219699827</v>
       </c>
       <c r="F38" s="4" t="n">
-        <v>1.011732269607555</v>
+        <v>1</v>
       </c>
       <c r="G38" s="4" t="n">
-        <v>1</v>
+        <v>1.176555898858692</v>
       </c>
       <c r="H38" s="4" t="n">
-        <v>1.0057981098162</v>
+        <v>1</v>
       </c>
       <c r="I38" s="4" t="n">
-        <v>1</v>
+        <v>1.535934401629241</v>
       </c>
       <c r="J38" s="4" t="n">
-        <v>1.046117484291232</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K38" s="4" t="n">
-        <v>1.024797487187965</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="L38" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="M38" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="N38" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O38" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="P38" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Q38" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="R38" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="S38" s="4" t="n">
-        <v>1</v>
+        <v>1.056127569001012</v>
       </c>
       <c r="T38" s="4" t="n">
-        <v>1.010811958918105</v>
+        <v>1</v>
       </c>
       <c r="U38" s="4" t="n">
         <v>1</v>
@@ -4908,58 +4908,58 @@
         <v/>
       </c>
       <c r="B39" s="4" t="n">
-        <v>4</v>
+        <v/>
       </c>
       <c r="C39" s="4" t="n">
-        <v>1.532375</v>
+        <v>26.563375</v>
       </c>
       <c r="D39" s="4" t="n">
-        <v>1.081572722081736</v>
+        <v>1.015999472958538</v>
       </c>
       <c r="E39" s="4" t="n">
-        <v>1.196093219699827</v>
+        <v>1.004168461420889</v>
       </c>
       <c r="F39" s="4" t="n">
-        <v>1</v>
+        <v>1.001844958880479</v>
       </c>
       <c r="G39" s="4" t="n">
-        <v>1.176555898858692</v>
+        <v>1.012890928929546</v>
       </c>
       <c r="H39" s="4" t="n">
-        <v>1</v>
+        <v>1.005454371906348</v>
       </c>
       <c r="I39" s="4" t="n">
-        <v>1.535934401629241</v>
+        <v>1</v>
       </c>
       <c r="J39" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="K39" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="L39" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="M39" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="N39" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="O39" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="P39" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="Q39" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="R39" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.007283132993079</v>
       </c>
       <c r="S39" s="4" t="n">
-        <v>1.056127569001012</v>
+        <v>1.001356981444234</v>
       </c>
       <c r="T39" s="4" t="n">
         <v>1</v>
@@ -4983,25 +4983,25 @@
         <v/>
       </c>
       <c r="B40" s="4" t="n">
-        <v/>
+        <v>2.2</v>
       </c>
       <c r="C40" s="4" t="n">
-        <v>26.563375</v>
+        <v>1.022727272727273</v>
       </c>
       <c r="D40" s="4" t="n">
-        <v>1.015999472958538</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="E40" s="4" t="n">
-        <v>1.004168461420889</v>
+        <v>1.038095238095238</v>
       </c>
       <c r="F40" s="4" t="n">
-        <v>1.001844958880479</v>
+        <v>1.073394495412844</v>
       </c>
       <c r="G40" s="4" t="n">
-        <v>1.012890928929546</v>
+        <v>1.41025641025641</v>
       </c>
       <c r="H40" s="4" t="n">
-        <v>1.005454371906348</v>
+        <v>1.157575757575757</v>
       </c>
       <c r="I40" s="4" t="n">
         <v>1</v>
@@ -5010,31 +5010,31 @@
         <v>1</v>
       </c>
       <c r="K40" s="4" t="n">
-        <v>1</v>
+        <v>1.021032460732984</v>
       </c>
       <c r="L40" s="4" t="n">
         <v>1</v>
       </c>
       <c r="M40" s="4" t="n">
-        <v>1</v>
+        <v>1.04636309002488</v>
       </c>
       <c r="N40" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O40" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="P40" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Q40" s="4" t="n">
-        <v>1</v>
+        <v>1.069131054382364</v>
       </c>
       <c r="R40" s="4" t="n">
-        <v>1.007283132993079</v>
+        <v>1</v>
       </c>
       <c r="S40" s="4" t="n">
-        <v>1.001356981444234</v>
+        <v>1</v>
       </c>
       <c r="T40" s="4" t="n">
         <v>1</v>
@@ -5058,52 +5058,52 @@
         <v/>
       </c>
       <c r="B41" s="4" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="C41" s="4" t="n">
-        <v>1.022727272727273</v>
+        <v>1.5</v>
       </c>
       <c r="D41" s="4" t="n">
-        <v>1.166666666666667</v>
+        <v>1.617433333333333</v>
       </c>
       <c r="E41" s="4" t="n">
-        <v>1.038095238095238</v>
+        <v>1</v>
       </c>
       <c r="F41" s="4" t="n">
-        <v>1.073394495412844</v>
+        <v>1</v>
       </c>
       <c r="G41" s="4" t="n">
-        <v>1.41025641025641</v>
+        <v>1.041341219627806</v>
       </c>
       <c r="H41" s="4" t="n">
-        <v>1.157575757575757</v>
+        <v>1.039581230580459</v>
       </c>
       <c r="I41" s="4" t="n">
         <v>1</v>
       </c>
       <c r="J41" s="4" t="n">
-        <v>1</v>
+        <v>1.066827847474728</v>
       </c>
       <c r="K41" s="4" t="n">
-        <v>1.021032460732984</v>
+        <v>1</v>
       </c>
       <c r="L41" s="4" t="n">
         <v>1</v>
       </c>
       <c r="M41" s="4" t="n">
-        <v>1.04636309002488</v>
+        <v>1</v>
       </c>
       <c r="N41" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="O41" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="P41" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.017844587914931</v>
       </c>
       <c r="Q41" s="4" t="n">
-        <v>1.069131054382364</v>
+        <v>1</v>
       </c>
       <c r="R41" s="4" t="n">
         <v>1</v>
@@ -5133,31 +5133,31 @@
         <v/>
       </c>
       <c r="B42" s="4" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="C42" s="4" t="n">
-        <v>1.5</v>
+        <v>1.854166666666667</v>
       </c>
       <c r="D42" s="4" t="n">
-        <v>1.617433333333333</v>
+        <v>1</v>
       </c>
       <c r="E42" s="4" t="n">
-        <v>1</v>
+        <v>1.467415730337079</v>
       </c>
       <c r="F42" s="4" t="n">
         <v>1</v>
       </c>
       <c r="G42" s="4" t="n">
-        <v>1.041341219627806</v>
+        <v>1.03062787136294</v>
       </c>
       <c r="H42" s="4" t="n">
-        <v>1.039581230580459</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="I42" s="4" t="n">
-        <v>1</v>
+        <v>1.111579494799406</v>
       </c>
       <c r="J42" s="4" t="n">
-        <v>1.066827847474728</v>
+        <v>1</v>
       </c>
       <c r="K42" s="4" t="n">
         <v>1</v>
@@ -5166,16 +5166,16 @@
         <v>1</v>
       </c>
       <c r="M42" s="4" t="n">
-        <v>1</v>
+        <v>1.115079274902987</v>
       </c>
       <c r="N42" s="4" t="n">
         <v>1</v>
       </c>
       <c r="O42" s="4" t="n">
-        <v>1</v>
+        <v>1.011987777262303</v>
       </c>
       <c r="P42" s="4" t="n">
-        <v>1.017844587914931</v>
+        <v>1</v>
       </c>
       <c r="Q42" s="4" t="n">
         <v>1</v>
@@ -5208,31 +5208,31 @@
         <v/>
       </c>
       <c r="B43" s="4" t="n">
-        <v>2.4</v>
+        <v/>
       </c>
       <c r="C43" s="4" t="n">
-        <v>1.854166666666667</v>
+        <v>1.277777777777778</v>
       </c>
       <c r="D43" s="4" t="n">
-        <v>1</v>
+        <v>1.326086956521739</v>
       </c>
       <c r="E43" s="4" t="n">
-        <v>1.467415730337079</v>
+        <v>1.147540983606557</v>
       </c>
       <c r="F43" s="4" t="n">
         <v>1</v>
       </c>
       <c r="G43" s="4" t="n">
-        <v>1.03062787136294</v>
+        <v>1</v>
       </c>
       <c r="H43" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="I43" s="4" t="n">
-        <v>1.111579494799406</v>
+        <v>1</v>
       </c>
       <c r="J43" s="4" t="n">
-        <v>1</v>
+        <v>1.142857142857143</v>
       </c>
       <c r="K43" s="4" t="n">
         <v>1</v>
@@ -5241,13 +5241,13 @@
         <v>1</v>
       </c>
       <c r="M43" s="4" t="n">
-        <v>1.115079274902987</v>
+        <v>1</v>
       </c>
       <c r="N43" s="4" t="n">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="O43" s="4" t="n">
-        <v>1.011987777262303</v>
+        <v>1</v>
       </c>
       <c r="P43" s="4" t="n">
         <v>1</v>
@@ -5286,28 +5286,28 @@
         <v/>
       </c>
       <c r="C44" s="4" t="n">
-        <v>1.277777777777778</v>
+        <v>1</v>
       </c>
       <c r="D44" s="4" t="n">
-        <v>1.326086956521739</v>
+        <v>1</v>
       </c>
       <c r="E44" s="4" t="n">
-        <v>1.147540983606557</v>
+        <v>1.266666666666667</v>
       </c>
       <c r="F44" s="4" t="n">
-        <v>1</v>
+        <v>1.079468421052632</v>
       </c>
       <c r="G44" s="4" t="n">
-        <v>1</v>
+        <v>1.146480480158362</v>
       </c>
       <c r="H44" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I44" s="4" t="n">
-        <v>1</v>
+        <v>1.29769245817421</v>
       </c>
       <c r="J44" s="4" t="n">
-        <v>1.142857142857143</v>
+        <v>1.033256647724666</v>
       </c>
       <c r="K44" s="4" t="n">
         <v>1</v>
@@ -5316,22 +5316,22 @@
         <v>1</v>
       </c>
       <c r="M44" s="4" t="n">
-        <v>1</v>
+        <v>1.031716832122808</v>
       </c>
       <c r="N44" s="4" t="n">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="O44" s="4" t="n">
         <v>1</v>
       </c>
       <c r="P44" s="4" t="n">
-        <v>1</v>
+        <v>1.476497894186726</v>
       </c>
       <c r="Q44" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="R44" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="S44" t="n">
         <v/>
@@ -5361,49 +5361,49 @@
         <v/>
       </c>
       <c r="C45" s="4" t="n">
-        <v>1</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="D45" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E45" s="4" t="n">
-        <v>1.266666666666667</v>
+        <v>1.043028571428571</v>
       </c>
       <c r="F45" s="4" t="n">
-        <v>1.079468421052632</v>
+        <v>1.192127321536186</v>
       </c>
       <c r="G45" s="4" t="n">
-        <v>1.146480480158362</v>
+        <v>1</v>
       </c>
       <c r="H45" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I45" s="4" t="n">
-        <v>1.29769245817421</v>
+        <v>1</v>
       </c>
       <c r="J45" s="4" t="n">
-        <v>1.033256647724666</v>
+        <v>1.070363374831686</v>
       </c>
       <c r="K45" s="4" t="n">
         <v>1</v>
       </c>
       <c r="L45" s="4" t="n">
-        <v>1</v>
+        <v>1.085870078571122</v>
       </c>
       <c r="M45" s="4" t="n">
-        <v>1.031716832122808</v>
+        <v>1</v>
       </c>
       <c r="N45" s="4" t="n">
-        <v>1</v>
+        <v>1.059309635838836</v>
       </c>
       <c r="O45" s="4" t="n">
-        <v>1</v>
+        <v>1.130640886864992</v>
       </c>
       <c r="P45" s="4" t="n">
-        <v>1.476497894186726</v>
+        <v>1</v>
       </c>
       <c r="Q45" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="R45" s="4" t="n">
         <v/>
@@ -5436,46 +5436,46 @@
         <v/>
       </c>
       <c r="C46" s="4" t="n">
-        <v>1.166666666666667</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="D46" s="4" t="n">
-        <v>1</v>
+        <v>1.36158</v>
       </c>
       <c r="E46" s="4" t="n">
-        <v>1.043028571428571</v>
+        <v>1.264398713259596</v>
       </c>
       <c r="F46" s="4" t="n">
-        <v>1.192127321536186</v>
+        <v>1</v>
       </c>
       <c r="G46" s="4" t="n">
-        <v>1</v>
+        <v>1.058448634393987</v>
       </c>
       <c r="H46" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I46" s="4" t="n">
-        <v>1</v>
+        <v>1.055690800810447</v>
       </c>
       <c r="J46" s="4" t="n">
-        <v>1.070363374831686</v>
+        <v>1</v>
       </c>
       <c r="K46" s="4" t="n">
-        <v>1</v>
+        <v>1.020793435928146</v>
       </c>
       <c r="L46" s="4" t="n">
-        <v>1.085870078571122</v>
+        <v>1</v>
       </c>
       <c r="M46" s="4" t="n">
-        <v>1</v>
+        <v>1.015277407159197</v>
       </c>
       <c r="N46" s="4" t="n">
-        <v>1.059309635838836</v>
+        <v>1</v>
       </c>
       <c r="O46" s="4" t="n">
-        <v>1.130640886864992</v>
+        <v>1</v>
       </c>
       <c r="P46" s="4" t="n">
-        <v>1</v>
+        <v>1.010031680045584</v>
       </c>
       <c r="Q46" s="4" t="n">
         <v/>
@@ -5511,43 +5511,43 @@
         <v/>
       </c>
       <c r="C47" s="4" t="n">
-        <v>1.666666666666667</v>
+        <v/>
       </c>
       <c r="D47" s="4" t="n">
-        <v>1.36158</v>
+        <v>2.04607817758219</v>
       </c>
       <c r="E47" s="4" t="n">
-        <v>1.264398713259596</v>
+        <v>1.194643413266895</v>
       </c>
       <c r="F47" s="4" t="n">
         <v>1</v>
       </c>
       <c r="G47" s="4" t="n">
-        <v>1.058448634393987</v>
+        <v>1</v>
       </c>
       <c r="H47" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I47" s="4" t="n">
-        <v>1.055690800810447</v>
+        <v>1</v>
       </c>
       <c r="J47" s="4" t="n">
-        <v>1</v>
+        <v>1.081465067778936</v>
       </c>
       <c r="K47" s="4" t="n">
-        <v>1.020793435928146</v>
+        <v>1.151647432807039</v>
       </c>
       <c r="L47" s="4" t="n">
-        <v>1</v>
+        <v>1.024528480836715</v>
       </c>
       <c r="M47" s="4" t="n">
-        <v>1.015277407159197</v>
+        <v>1</v>
       </c>
       <c r="N47" s="4" t="n">
         <v>1</v>
       </c>
       <c r="O47" s="4" t="n">
-        <v>1</v>
+        <v>1.063843302997124</v>
       </c>
       <c r="P47" t="n">
         <v/>
@@ -5586,40 +5586,40 @@
         <v/>
       </c>
       <c r="C48" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="D48" s="4" t="n">
-        <v>2.04607817758219</v>
+        <v>1.2</v>
       </c>
       <c r="E48" s="4" t="n">
-        <v>1.194643413266895</v>
+        <v>1</v>
       </c>
       <c r="F48" s="4" t="n">
-        <v>1</v>
+        <v>1.166991666666667</v>
       </c>
       <c r="G48" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H48" s="4" t="n">
-        <v>1</v>
+        <v>1.144459757638943</v>
       </c>
       <c r="I48" s="4" t="n">
-        <v>1</v>
+        <v>1.062395098241082</v>
       </c>
       <c r="J48" s="4" t="n">
-        <v>1.081465067778936</v>
+        <v>1.236472875273831</v>
       </c>
       <c r="K48" s="4" t="n">
-        <v>1.151647432807039</v>
+        <v>1.035623868942161</v>
       </c>
       <c r="L48" s="4" t="n">
-        <v>1.024528480836715</v>
+        <v>1.435713859828558</v>
       </c>
       <c r="M48" s="4" t="n">
         <v>1</v>
       </c>
       <c r="N48" s="4" t="n">
-        <v>1</v>
+        <v>1.095836541195337</v>
       </c>
       <c r="O48" t="n">
         <v/>
@@ -5661,34 +5661,34 @@
         <v/>
       </c>
       <c r="C49" s="4" t="n">
-        <v>1</v>
+        <v>1.133333333333333</v>
       </c>
       <c r="D49" s="4" t="n">
-        <v>1.2</v>
+        <v>1.029876470588235</v>
       </c>
       <c r="E49" s="4" t="n">
-        <v>1</v>
+        <v>1.22891380462534</v>
       </c>
       <c r="F49" s="4" t="n">
-        <v>1.166991666666667</v>
+        <v>1</v>
       </c>
       <c r="G49" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H49" s="4" t="n">
-        <v>1.144459757638943</v>
+        <v>1.092955376771381</v>
       </c>
       <c r="I49" s="4" t="n">
-        <v>1.062395098241082</v>
+        <v>1</v>
       </c>
       <c r="J49" s="4" t="n">
-        <v>1.236472875273831</v>
+        <v>1.031893585987234</v>
       </c>
       <c r="K49" s="4" t="n">
-        <v>1.035623868942161</v>
+        <v>1</v>
       </c>
       <c r="L49" s="4" t="n">
-        <v>1.435713859828558</v>
+        <v>1</v>
       </c>
       <c r="M49" s="4" t="n">
         <v>1</v>
@@ -5736,28 +5736,28 @@
         <v/>
       </c>
       <c r="C50" s="4" t="n">
-        <v>1.133333333333333</v>
+        <v>1.133235627206715</v>
       </c>
       <c r="D50" s="4" t="n">
-        <v>1.029876470588235</v>
+        <v>1</v>
       </c>
       <c r="E50" s="4" t="n">
-        <v>1.22891380462534</v>
+        <v>1</v>
       </c>
       <c r="F50" s="4" t="n">
-        <v>1</v>
+        <v>1.029757215919111</v>
       </c>
       <c r="G50" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H50" s="4" t="n">
-        <v>1.092955376771381</v>
+        <v>1</v>
       </c>
       <c r="I50" s="4" t="n">
-        <v>1</v>
+        <v>1.114173498047633</v>
       </c>
       <c r="J50" s="4" t="n">
-        <v>1.031893585987234</v>
+        <v>1</v>
       </c>
       <c r="K50" s="4" t="n">
         <v>1</v>
@@ -5811,25 +5811,25 @@
         <v/>
       </c>
       <c r="C51" s="4" t="n">
-        <v>1.133235627206715</v>
+        <v/>
       </c>
       <c r="D51" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E51" s="4" t="n">
-        <v>1</v>
+        <v>1.667576197387518</v>
       </c>
       <c r="F51" s="4" t="n">
-        <v>1.029757215919111</v>
+        <v>3.191552111723397</v>
       </c>
       <c r="G51" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="H51" s="4" t="n">
-        <v>1</v>
+        <v>1.031166289294847</v>
       </c>
       <c r="I51" s="4" t="n">
-        <v>1.114173498047633</v>
+        <v>1</v>
       </c>
       <c r="J51" s="4" t="n">
         <v>1</v>
@@ -5889,25 +5889,25 @@
         <v/>
       </c>
       <c r="D52" s="4" t="n">
-        <v>1</v>
+        <v>1.697499378573204</v>
       </c>
       <c r="E52" s="4" t="n">
-        <v>1.667576197387518</v>
+        <v>16.29315979991331</v>
       </c>
       <c r="F52" s="4" t="n">
-        <v>3.191552111723397</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G52" s="4" t="n">
+        <v>1.003594967907721</v>
+      </c>
+      <c r="H52" s="4" t="n">
+        <v>1.007164180815327</v>
+      </c>
+      <c r="I52" s="4" t="n">
         <v>0.9999999999999999</v>
       </c>
-      <c r="H52" s="4" t="n">
-        <v>1.031166289294847</v>
-      </c>
-      <c r="I52" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="J52" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K52" t="n">
         <v/>
@@ -5964,19 +5964,19 @@
         <v/>
       </c>
       <c r="D53" s="4" t="n">
-        <v>1.697499378573204</v>
+        <v>5.726559999999999</v>
       </c>
       <c r="E53" s="4" t="n">
-        <v>16.29315979991331</v>
+        <v>1</v>
       </c>
       <c r="F53" s="4" t="n">
         <v>1</v>
       </c>
       <c r="G53" s="4" t="n">
-        <v>1.003594967907721</v>
+        <v>1</v>
       </c>
       <c r="H53" s="4" t="n">
-        <v>1.007164180815327</v>
+        <v>1</v>
       </c>
       <c r="I53" s="4" t="n">
         <v>1</v>
@@ -6039,7 +6039,7 @@
         <v/>
       </c>
       <c r="D54" s="4" t="n">
-        <v>5.726559999999999</v>
+        <v>1.28723494908466</v>
       </c>
       <c r="E54" s="4" t="n">
         <v>1</v>
@@ -6048,10 +6048,10 @@
         <v>1</v>
       </c>
       <c r="G54" s="4" t="n">
-        <v>1</v>
+        <v>1.055166022143641</v>
       </c>
       <c r="H54" s="4" t="n">
-        <v>1</v>
+        <v>2.045636818963669</v>
       </c>
       <c r="I54" t="n">
         <v/>
@@ -6111,10 +6111,10 @@
         <v/>
       </c>
       <c r="C55" s="4" t="n">
-        <v/>
+        <v>6.0329</v>
       </c>
       <c r="D55" s="4" t="n">
-        <v>1.28723494908466</v>
+        <v>23.0872217341577</v>
       </c>
       <c r="E55" s="4" t="n">
         <v>1</v>
@@ -6123,7 +6123,7 @@
         <v>1</v>
       </c>
       <c r="G55" s="4" t="n">
-        <v>1.055166022143641</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
         <v/>
@@ -6186,16 +6186,16 @@
         <v/>
       </c>
       <c r="C56" s="4" t="n">
-        <v>6.0329</v>
+        <v>1.399125914247797</v>
       </c>
       <c r="D56" s="4" t="n">
-        <v>23.0872217341577</v>
+        <v>1</v>
       </c>
       <c r="E56" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F56" s="4" t="n">
-        <v>1</v>
+        <v>1.927121146207005</v>
       </c>
       <c r="G56" t="n">
         <v/>
@@ -6261,13 +6261,13 @@
         <v/>
       </c>
       <c r="C57" s="4" t="n">
-        <v>1.399125914247797</v>
+        <v>1.260869565217391</v>
       </c>
       <c r="D57" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E57" s="4" t="n">
-        <v>1</v>
+        <v>2.03448275862069</v>
       </c>
       <c r="F57" t="n">
         <v/>
@@ -6333,13 +6333,13 @@
         <v/>
       </c>
       <c r="B58" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="C58" s="4" t="n">
-        <v>1.260869565217391</v>
+        <v>1</v>
       </c>
       <c r="D58" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E58" t="n">
         <v/>
@@ -6483,7 +6483,7 @@
         <v/>
       </c>
       <c r="B60" s="4" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="C60" t="n">
         <v/>
@@ -6704,61 +6704,61 @@
         <v>1</v>
       </c>
       <c r="B2" s="34" t="n">
-        <v>0.06775658085840525</v>
+        <v>0.06814855406999075</v>
       </c>
       <c r="C2" s="34" t="n">
-        <v>0.1302500334100365</v>
+        <v>0.08496458741845349</v>
       </c>
       <c r="D2" s="34" t="n">
-        <v>0.05131405831382037</v>
+        <v>0.03742444886867629</v>
       </c>
       <c r="E2" s="34" t="n">
-        <v>0.07573431090944804</v>
+        <v>0.3951861377219238</v>
       </c>
       <c r="F2" s="34" t="n">
-        <v>0.01820412519645586</v>
+        <v>0.01766944770401291</v>
       </c>
       <c r="G2" s="34" t="n">
-        <v>0.03850783221037829</v>
+        <v>0.02445085872950919</v>
       </c>
       <c r="H2" s="34" t="n">
-        <v>0.009651314349198371</v>
+        <v>0.006030325035571461</v>
       </c>
       <c r="I2" s="34" t="n">
-        <v>0.06254667420981581</v>
+        <v>0.1855190306077116</v>
       </c>
       <c r="J2" s="34" t="n">
-        <v>0.06117724879309462</v>
+        <v>0.0683738394908025</v>
       </c>
       <c r="M2" s="33" t="n">
         <v>1</v>
       </c>
       <c r="N2" s="22" t="n">
-        <v>1.927272727272727</v>
+        <v>1.969230769230769</v>
       </c>
       <c r="O2" s="22" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="P2" s="22" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="Q2" s="22" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="R2" s="22" t="n">
-        <v>2.1</v>
+        <v>2.114285714285714</v>
       </c>
       <c r="S2" s="22" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="T2" s="22" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="U2" s="22" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="V2" s="22" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="3">
@@ -6767,62 +6767,62 @@
         <v/>
       </c>
       <c r="B3" s="34" t="n">
-        <v>0.1305854103816537</v>
+        <v>0.1342002295532126</v>
       </c>
       <c r="C3" s="34" t="n">
-        <v>0.1302500334100365</v>
+        <v>0.1189504223858349</v>
       </c>
       <c r="D3" s="34" t="n">
-        <v>0.05131405831382037</v>
+        <v>0.0523942284161468</v>
       </c>
       <c r="E3" s="34" t="n">
-        <v>0.07573431090944804</v>
+        <v>0.5532605928106934</v>
       </c>
       <c r="F3" s="34" t="n">
-        <v>0.03822866291255731</v>
+        <v>0.03735826085991301</v>
       </c>
       <c r="G3" s="34" t="n">
-        <v>0.03850783221037829</v>
+        <v>0.03423120222131287</v>
       </c>
       <c r="H3" s="34" t="n">
-        <v>0.009651314349198371</v>
+        <v>0.008442455049800046</v>
       </c>
       <c r="I3" s="34" t="n">
-        <v>0.06254667420981581</v>
+        <v>0.2597266428507962</v>
       </c>
       <c r="J3" s="34" t="n">
-        <v>0.06117724879309462</v>
+        <v>0.09572337528712349</v>
       </c>
       <c r="M3">
         <f>+M2+1</f>
         <v/>
       </c>
       <c r="N3" s="22" t="n">
-        <v>3.687094836494779</v>
+        <v>3.342193037026068</v>
       </c>
       <c r="O3" s="22" t="n">
-        <v>1.286481289327634</v>
+        <v>1.25218566576762</v>
       </c>
       <c r="P3" s="22" t="n">
-        <v>1.509094054931254</v>
+        <v>1.392119829327304</v>
       </c>
       <c r="Q3" s="22" t="n">
-        <v>1.222067832205546</v>
+        <v>1.095238095238095</v>
       </c>
       <c r="R3" s="22" t="n">
-        <v>3.367159970030017</v>
+        <v>3.031954087677075</v>
       </c>
       <c r="S3" s="22" t="n">
-        <v>1.851352062857891</v>
+        <v>1.744933055000655</v>
       </c>
       <c r="T3" s="22" t="n">
-        <v>2.423223869866297</v>
+        <v>2.138579095893038</v>
       </c>
       <c r="U3" s="22" t="n">
-        <v>1.219998493155063</v>
+        <v>1.086956521739131</v>
       </c>
       <c r="V3" s="22" t="n">
-        <v>1.3655809435684</v>
+        <v>1.2436789622827</v>
       </c>
     </row>
     <row r="4">
@@ -6831,62 +6831,62 @@
         <v/>
       </c>
       <c r="B4" s="34" t="n">
-        <v>0.4814807923397473</v>
+        <v>0.4485230727800469</v>
       </c>
       <c r="C4" s="34" t="n">
-        <v>0.1675642309163112</v>
+        <v>0.1489480138485462</v>
       </c>
       <c r="D4" s="34" t="n">
-        <v>0.07743774033578198</v>
+        <v>0.07293904432042204</v>
       </c>
       <c r="E4" s="34" t="n">
-        <v>0.09255246515668999</v>
+        <v>0.6059520778402834</v>
       </c>
       <c r="F4" s="34" t="n">
-        <v>0.1287220234669341</v>
+        <v>0.1132685317227197</v>
       </c>
       <c r="G4" s="34" t="n">
-        <v>0.07129155459886939</v>
+        <v>0.05973115626838066</v>
       </c>
       <c r="H4" s="34" t="n">
-        <v>0.0233872953065606</v>
+        <v>0.01805485788751899</v>
       </c>
       <c r="I4" s="34" t="n">
-        <v>0.07630684828783593</v>
+        <v>0.2823115683160828</v>
       </c>
       <c r="J4" s="34" t="n">
-        <v>0.08432313783581681</v>
+        <v>0.1302051655086511</v>
       </c>
       <c r="M4">
         <f>+M3+1</f>
         <v/>
       </c>
       <c r="N4" s="22" t="n">
-        <v>1.3606925197134</v>
+        <v>1.411203464946303</v>
       </c>
       <c r="O4" s="22" t="n">
-        <v>3.009745106463143</v>
+        <v>3.154470284840137</v>
       </c>
       <c r="P4" s="22" t="n">
-        <v>5.319575948622781</v>
+        <v>5.222450441295309</v>
       </c>
       <c r="Q4" s="22" t="n">
-        <v>7.566028624435483</v>
+        <v>1</v>
       </c>
       <c r="R4" s="22" t="n">
         <v>2.459229041026096</v>
       </c>
       <c r="S4" s="22" t="n">
-        <v>3.453004225832166</v>
+        <v>3.422872559165499</v>
       </c>
       <c r="T4" s="22" t="n">
-        <v>5.633086010302594</v>
+        <v>5.516836113873726</v>
       </c>
       <c r="U4" s="22" t="n">
-        <v>8.362407244719234</v>
+        <v>1</v>
       </c>
       <c r="V4" s="22" t="n">
-        <v>6.442802286529131</v>
+        <v>3.111225220647654</v>
       </c>
     </row>
     <row r="5">
@@ -6895,62 +6895,62 @@
         <v/>
       </c>
       <c r="B5" s="34" t="n">
-        <v>0.6551473125223748</v>
+        <v>0.6329573144155649</v>
       </c>
       <c r="C5" s="34" t="n">
-        <v>0.5043256240186279</v>
+        <v>0.4698520836711962</v>
       </c>
       <c r="D5" s="34" t="n">
-        <v>0.411935941005922</v>
+        <v>0.3809205441988462</v>
       </c>
       <c r="E5" s="34" t="n">
-        <v>0.7002546006375842</v>
+        <v>0.6059520778402834</v>
       </c>
       <c r="F5" s="34" t="n">
-        <v>0.3165569383295269</v>
+        <v>0.2785532626468979</v>
       </c>
       <c r="G5" s="34" t="n">
-        <v>0.2461700392960406</v>
+        <v>0.2044521357182665</v>
       </c>
       <c r="H5" s="34" t="n">
-        <v>0.131742646010202</v>
+        <v>0.09960569202472265</v>
       </c>
       <c r="I5" s="34" t="n">
-        <v>0.6381089409438907</v>
+        <v>0.2823115683160828</v>
       </c>
       <c r="J5" s="34" t="n">
-        <v>0.5187241341418103</v>
+        <v>0.4677799142353559</v>
       </c>
       <c r="M5">
         <f>+M4+1</f>
         <v/>
       </c>
       <c r="N5" s="22" t="n">
-        <v>1.26675662716574</v>
+        <v>1.275123953571223</v>
       </c>
       <c r="O5" s="22" t="n">
-        <v>1.589020841267413</v>
+        <v>1.622101835105916</v>
       </c>
       <c r="P5" s="22" t="n">
-        <v>1.73041950706922</v>
+        <v>1.744348784455524</v>
       </c>
       <c r="Q5" s="22" t="n">
-        <v>1</v>
+        <v>1.048845981131775</v>
       </c>
       <c r="R5" s="22" t="n">
-        <v>1.904207492773312</v>
+        <v>1.942309177916409</v>
       </c>
       <c r="S5" s="22" t="n">
-        <v>2.390976708323436</v>
+        <v>2.473597890589446</v>
       </c>
       <c r="T5" s="22" t="n">
-        <v>3.660122666216805</v>
+        <v>3.721273759755667</v>
       </c>
       <c r="U5" s="22" t="n">
-        <v>1</v>
+        <v>1.344827586206897</v>
       </c>
       <c r="V5" s="22" t="n">
-        <v>1.36520975353461</v>
+        <v>1.396597382793649</v>
       </c>
     </row>
     <row r="6">
@@ -6959,62 +6959,62 @@
         <v/>
       </c>
       <c r="B6" s="34" t="n">
-        <v>0.8299121999075425</v>
+        <v>0.8070990331993986</v>
       </c>
       <c r="C6" s="34" t="n">
-        <v>0.8013839273507932</v>
+        <v>0.7621479271513859</v>
       </c>
       <c r="D6" s="34" t="n">
-        <v>0.7128219879795629</v>
+        <v>0.6644582882473942</v>
       </c>
       <c r="E6" s="34" t="n">
-        <v>0.7002546006375842</v>
+        <v>0.6355504016012294</v>
       </c>
       <c r="F6" s="34" t="n">
-        <v>0.6027900938564644</v>
+        <v>0.5410365585776299</v>
       </c>
       <c r="G6" s="34" t="n">
-        <v>0.588586830243898</v>
+        <v>0.5057323716392111</v>
       </c>
       <c r="H6" s="34" t="n">
-        <v>0.4821942447693173</v>
+        <v>0.3706600480539047</v>
       </c>
       <c r="I6" s="34" t="n">
-        <v>0.6381089409438907</v>
+        <v>0.3796603849768011</v>
       </c>
       <c r="J6" s="34" t="n">
-        <v>0.7064824094308975</v>
+        <v>0.6496829371072437</v>
       </c>
       <c r="M6">
         <f>+M5+1</f>
         <v/>
       </c>
       <c r="N6" s="22" t="n">
-        <v>1.033149468359075</v>
+        <v>1.043587253114439</v>
       </c>
       <c r="O6" s="22" t="n">
-        <v>1.066231159223728</v>
+        <v>1.081502411011193</v>
       </c>
       <c r="P6" s="22" t="n">
-        <v>1.069576330438749</v>
+        <v>1.089496895491209</v>
       </c>
       <c r="Q6" s="22" t="n">
-        <v>1</v>
+        <v>1.041839011208993</v>
       </c>
       <c r="R6" s="22" t="n">
-        <v>1.144572024252572</v>
+        <v>1.192750386178859</v>
       </c>
       <c r="S6" s="22" t="n">
-        <v>1.221658061408166</v>
+        <v>1.292295788504364</v>
       </c>
       <c r="T6" s="22" t="n">
-        <v>1.370218221273751</v>
+        <v>1.519778876321734</v>
       </c>
       <c r="U6" s="22" t="n">
-        <v>1</v>
+        <v>1.309040382069002</v>
       </c>
       <c r="V6" s="22" t="n">
-        <v>1.034788165219374</v>
+        <v>1.065667953350101</v>
       </c>
     </row>
     <row r="7">
@@ -7023,47 +7023,47 @@
         <v/>
       </c>
       <c r="B7" s="34" t="n">
-        <v>0.8574233481191879</v>
+        <v>0.84227826304788</v>
       </c>
       <c r="C7" s="34" t="n">
-        <v>0.8544605138424999</v>
+        <v>0.8242648207614071</v>
       </c>
       <c r="D7" s="34" t="n">
-        <v>0.7624175261592349</v>
+        <v>0.7239252422289387</v>
       </c>
       <c r="E7" s="34" t="n">
-        <v>0.7002546006375842</v>
+        <v>0.6621412019777032</v>
       </c>
       <c r="F7" s="34" t="n">
-        <v>0.6899366779246915</v>
+        <v>0.6453215641803489</v>
       </c>
       <c r="G7" s="34" t="n">
-        <v>0.7190518460061378</v>
+        <v>0.6535558139796762</v>
       </c>
       <c r="H7" s="34" t="n">
-        <v>0.660711340376254</v>
+        <v>0.5633213113287231</v>
       </c>
       <c r="I7" s="34" t="n">
-        <v>0.6381089409438907</v>
+        <v>0.4969907754064959</v>
       </c>
       <c r="J7" s="34" t="n">
-        <v>0.7300151148281128</v>
+        <v>0.6916562074422558</v>
       </c>
       <c r="M7">
         <f>+M6+1</f>
         <v/>
       </c>
       <c r="N7" s="22" t="n">
-        <v>1.025266514090432</v>
+        <v>1.02358193342331</v>
       </c>
       <c r="O7" s="22" t="n">
-        <v>1.012810843842084</v>
+        <v>1.009054004120349</v>
       </c>
       <c r="P7" s="22" t="n">
-        <v>1.004671464104587</v>
+        <v>1.002918935044063</v>
       </c>
       <c r="Q7" s="22" t="n">
-        <v>1.006155238184636</v>
+        <v>1.003073842613725</v>
       </c>
       <c r="R7" s="22" t="n">
         <v>1.051964579646617</v>
@@ -7075,10 +7075,10 @@
         <v>1.009793498341894</v>
       </c>
       <c r="U7" s="22" t="n">
-        <v>1.019586996683788</v>
+        <v>1.01838867404788</v>
       </c>
       <c r="V7" s="22" t="n">
-        <v>1.005413351144611</v>
+        <v>1.002996388828894</v>
       </c>
     </row>
     <row r="8">
@@ -7087,62 +7087,62 @@
         <v/>
       </c>
       <c r="B8" s="34" t="n">
-        <v>0.8790874472259064</v>
+        <v>0.8621408129709762</v>
       </c>
       <c r="C8" s="34" t="n">
-        <v>0.8654068740545635</v>
+        <v>0.8317277178448393</v>
       </c>
       <c r="D8" s="34" t="n">
-        <v>0.7659791322653954</v>
+        <v>0.7260383329877624</v>
       </c>
       <c r="E8" s="34" t="n">
-        <v>0.7045648344943954</v>
+        <v>0.6641765198206456</v>
       </c>
       <c r="F8" s="34" t="n">
-        <v>0.7257889473758313</v>
+        <v>0.678855427999878</v>
       </c>
       <c r="G8" s="34" t="n">
-        <v>0.7348524173802087</v>
+        <v>0.667917164059065</v>
       </c>
       <c r="H8" s="34" t="n">
-        <v>0.6671820157926994</v>
+        <v>0.5688381976571745</v>
       </c>
       <c r="I8" s="34" t="n">
-        <v>0.6506075786540539</v>
+        <v>0.5061297767802493</v>
       </c>
       <c r="J8" s="34" t="n">
-        <v>0.7339895613456139</v>
+        <v>0.6937310621966888</v>
       </c>
       <c r="M8">
         <f>+M7+1</f>
         <v/>
       </c>
       <c r="N8" s="22" t="n">
-        <v>1.013649226387547</v>
+        <v>1.029270684997572</v>
       </c>
       <c r="O8" s="22" t="n">
-        <v>1.012483512598732</v>
+        <v>1.047135916549092</v>
       </c>
       <c r="P8" s="22" t="n">
-        <v>1.018877287279937</v>
+        <v>1.060446658962042</v>
       </c>
       <c r="Q8" s="22" t="n">
-        <v>1.010753517811724</v>
+        <v>1.06729341304544</v>
       </c>
       <c r="R8" s="22" t="n">
-        <v>1.02847971025878</v>
+        <v>1.089646693149808</v>
       </c>
       <c r="S8" s="22" t="n">
-        <v>1.022978800376708</v>
+        <v>1.110115201957014</v>
       </c>
       <c r="T8" s="22" t="n">
-        <v>1.045957600753416</v>
+        <v>1.196153777640871</v>
       </c>
       <c r="U8" s="22" t="n">
-        <v>1.012776823370058</v>
+        <v>1.350933666592999</v>
       </c>
       <c r="V8" s="22" t="n">
-        <v>1.01481540254583</v>
+        <v>1.063870036003741</v>
       </c>
     </row>
     <row r="9">
@@ -7151,47 +7151,47 @@
         <v/>
       </c>
       <c r="B9" s="34" t="n">
-        <v>0.8910863108075433</v>
+        <v>0.8873762651310007</v>
       </c>
       <c r="C9" s="34" t="n">
-        <v>0.8762101916698526</v>
+        <v>0.8709319661447404</v>
       </c>
       <c r="D9" s="34" t="n">
-        <v>0.7804387403956058</v>
+        <v>0.7699249244952435</v>
       </c>
       <c r="E9" s="34" t="n">
-        <v>0.7121413849916451</v>
+        <v>0.7088712247040191</v>
       </c>
       <c r="F9" s="34" t="n">
-        <v>0.7464592063061201</v>
+        <v>0.7397125722468645</v>
       </c>
       <c r="G9" s="34" t="n">
-        <v>0.7517384443855298</v>
+        <v>0.7414649974699848</v>
       </c>
       <c r="H9" s="34" t="n">
-        <v>0.6978441005043599</v>
+        <v>0.6804179589940537</v>
       </c>
       <c r="I9" s="34" t="n">
-        <v>0.6589202767697377</v>
+        <v>0.6837477551176382</v>
       </c>
       <c r="J9" s="34" t="n">
-        <v>0.7447274903814808</v>
+        <v>0.7381377405568983</v>
       </c>
       <c r="M9">
         <f>+M8+1</f>
         <v/>
       </c>
       <c r="N9" s="22" t="n">
-        <v>1.0301213935027</v>
+        <v>1.033351455408995</v>
       </c>
       <c r="O9" s="22" t="n">
-        <v>1.029715527665074</v>
+        <v>1.030806777881476</v>
       </c>
       <c r="P9" s="22" t="n">
-        <v>1.006993843319726</v>
+        <v>1.006927908873058</v>
       </c>
       <c r="Q9" s="22" t="n">
-        <v>1.005481619171634</v>
+        <v>1</v>
       </c>
       <c r="R9" s="22" t="n">
         <v>1.073591609481376</v>
@@ -7203,10 +7203,10 @@
         <v>1.029428099381453</v>
       </c>
       <c r="U9" s="22" t="n">
-        <v>1.038057832682544</v>
+        <v>1</v>
       </c>
       <c r="V9" s="22" t="n">
-        <v>1.00623773124568</v>
+        <v>1.003463954436529</v>
       </c>
     </row>
     <row r="10">
@@ -7215,50 +7215,50 @@
         <v/>
       </c>
       <c r="B10" s="34" t="n">
-        <v>0.9179270722202463</v>
+        <v>0.916971555068518</v>
       </c>
       <c r="C10" s="34" t="n">
-        <v>0.9022472398608382</v>
+        <v>0.897762573775639</v>
       </c>
       <c r="D10" s="34" t="n">
-        <v>0.7858970066665766</v>
+        <v>0.7752588942112426</v>
       </c>
       <c r="E10" s="34" t="n">
-        <v>0.7160450728605294</v>
+        <v>0.7088712247040191</v>
       </c>
       <c r="F10" s="34" t="n">
-        <v>0.8013923407103779</v>
+        <v>0.79414921099212</v>
       </c>
       <c r="G10" s="34" t="n">
-        <v>0.791927092646218</v>
+        <v>0.781104417541537</v>
       </c>
       <c r="H10" s="34" t="n">
-        <v>0.7183803260467625</v>
+        <v>0.7004413663122558</v>
       </c>
       <c r="I10" s="34" t="n">
-        <v>0.6839973544141762</v>
+        <v>0.6837477551176382</v>
       </c>
       <c r="J10" s="34" t="n">
-        <v>0.7493467119272956</v>
+        <v>0.7405802426594172</v>
       </c>
       <c r="M10">
         <f>+M9+1</f>
         <v/>
       </c>
       <c r="N10" s="22" t="n">
-        <v>1.020512372996183</v>
+        <v>1.013044484539981</v>
       </c>
       <c r="O10" s="22" t="n">
-        <v>1.038662803428869</v>
+        <v>1.025671370980512</v>
       </c>
       <c r="P10" s="22" t="n">
-        <v>1.03407380142824</v>
+        <v>1.01568797405803</v>
       </c>
       <c r="Q10" s="22" t="n">
-        <v>1.006867829985495</v>
+        <v>1</v>
       </c>
       <c r="R10" s="22" t="n">
-        <v>1.047283601747964</v>
+        <v>1.044209102795215</v>
       </c>
       <c r="S10" s="22" t="n">
         <v>1.055261378494019</v>
@@ -7267,10 +7267,10 @@
         <v>1.05830525484</v>
       </c>
       <c r="U10" s="22" t="n">
-        <v>1.010631195329078</v>
+        <v>1</v>
       </c>
       <c r="V10" s="22" t="n">
-        <v>1.020470815706867</v>
+        <v>1.007843987029015</v>
       </c>
     </row>
     <row r="11">
@@ -7279,50 +7279,50 @@
         <v/>
       </c>
       <c r="B11" s="34" t="n">
-        <v>0.9367559347089223</v>
+        <v>0.9289329763422117</v>
       </c>
       <c r="C11" s="34" t="n">
-        <v>0.9371306475398178</v>
+        <v>0.9208093698594527</v>
       </c>
       <c r="D11" s="34" t="n">
-        <v>0.8126755052147814</v>
+        <v>0.7874211356318859</v>
       </c>
       <c r="E11" s="34" t="n">
-        <v>0.7209627486828871</v>
+        <v>0.7088712247040191</v>
       </c>
       <c r="F11" s="34" t="n">
-        <v>0.8392850569923961</v>
+        <v>0.8292578350956094</v>
       </c>
       <c r="G11" s="34" t="n">
-        <v>0.8356900754526084</v>
+        <v>0.82426932440265</v>
       </c>
       <c r="H11" s="34" t="n">
-        <v>0.7602656740289615</v>
+        <v>0.7412807786755699</v>
       </c>
       <c r="I11" s="34" t="n">
-        <v>0.6912690638935259</v>
+        <v>0.6837477551176382</v>
       </c>
       <c r="J11" s="34" t="n">
-        <v>0.7640768799785002</v>
+        <v>0.7460843877434458</v>
       </c>
       <c r="M11">
         <f>+M10+1</f>
         <v/>
       </c>
       <c r="N11" s="22" t="n">
-        <v>1.009253732714569</v>
+        <v>1.006143326342218</v>
       </c>
       <c r="O11" s="22" t="n">
-        <v>1.007019873075775</v>
+        <v>1.014153693421808</v>
       </c>
       <c r="P11" s="22" t="n">
-        <v>1.035487563102961</v>
+        <v>1.028087931666623</v>
       </c>
       <c r="Q11" s="22" t="n">
-        <v>1.011567611920501</v>
+        <v>1</v>
       </c>
       <c r="R11" s="22" t="n">
-        <v>1.018135334685593</v>
+        <v>1.016364085600738</v>
       </c>
       <c r="S11" s="22" t="n">
         <v>1.019091433200861</v>
@@ -7331,10 +7331,10 @@
         <v>1.034677456279558</v>
       </c>
       <c r="U11" s="22" t="n">
-        <v>1.01187462298072</v>
+        <v>1</v>
       </c>
       <c r="V11" s="22" t="n">
-        <v>1.023527587511731</v>
+        <v>1.014043965833312</v>
       </c>
     </row>
     <row r="12">
@@ -7343,47 +7343,47 @@
         <v/>
       </c>
       <c r="B12" s="34" t="n">
-        <v>0.9454244237475052</v>
+        <v>0.9346397147659302</v>
       </c>
       <c r="C12" s="34" t="n">
-        <v>0.9437091857409662</v>
+        <v>0.9338422233803712</v>
       </c>
       <c r="D12" s="34" t="n">
-        <v>0.8415153784883216</v>
+        <v>0.809538166682369</v>
       </c>
       <c r="E12" s="34" t="n">
-        <v>0.7293025659687886</v>
+        <v>0.7088712247040191</v>
       </c>
       <c r="F12" s="34" t="n">
-        <v>0.8545057723975698</v>
+        <v>0.8428278812941965</v>
       </c>
       <c r="G12" s="34" t="n">
-        <v>0.8516445967047341</v>
+        <v>0.8400058071490016</v>
       </c>
       <c r="H12" s="34" t="n">
-        <v>0.7866297537009493</v>
+        <v>0.7669865104689685</v>
       </c>
       <c r="I12" s="34" t="n">
-        <v>0.699477623405497</v>
+        <v>0.6837477551176382</v>
       </c>
       <c r="J12" s="34" t="n">
-        <v>0.7814009599258005</v>
+        <v>0.7558677059245719</v>
       </c>
       <c r="M12">
         <f>+M11+1</f>
         <v/>
       </c>
       <c r="N12" s="22" t="n">
-        <v>1.01011731292758</v>
+        <v>1.011729862698366</v>
       </c>
       <c r="O12" s="22" t="n">
-        <v>1.011953250981777</v>
+        <v>1.012593869304423</v>
       </c>
       <c r="P12" s="22" t="n">
-        <v>1.067845310476756</v>
+        <v>1.072680455187308</v>
       </c>
       <c r="Q12" s="22" t="n">
-        <v>1.133732225030237</v>
+        <v>1.144847544148007</v>
       </c>
       <c r="R12" s="22" t="n">
         <v>1.042008647633569</v>
@@ -7395,10 +7395,10 @@
         <v>1.091018736539399</v>
       </c>
       <c r="U12" s="22" t="n">
-        <v>1.153414113555091</v>
+        <v>1.145237953276186</v>
       </c>
       <c r="V12" s="22" t="n">
-        <v>1.100788767753496</v>
+        <v>1.108763999667657</v>
       </c>
     </row>
     <row r="13">
@@ -7407,47 +7407,47 @@
         <v/>
       </c>
       <c r="B13" s="34" t="n">
-        <v>0.9549895784919361</v>
+        <v>0.9456029102925748</v>
       </c>
       <c r="C13" s="34" t="n">
-        <v>0.9549895784919361</v>
+        <v>0.9456029102925748</v>
       </c>
       <c r="D13" s="34" t="n">
-        <v>0.8986082506128267</v>
+        <v>0.8683757691283424</v>
       </c>
       <c r="E13" s="34" t="n">
-        <v>0.8268338208360557</v>
+        <v>0.8115494807195861</v>
       </c>
       <c r="F13" s="34" t="n">
-        <v>0.8904024042910698</v>
+        <v>0.8782339407752319</v>
       </c>
       <c r="G13" s="34" t="n">
-        <v>0.8904024042910698</v>
+        <v>0.8782339407752319</v>
       </c>
       <c r="H13" s="34" t="n">
-        <v>0.8582278000071086</v>
+        <v>0.8367966535946167</v>
       </c>
       <c r="I13" s="34" t="n">
-        <v>0.8067873629518733</v>
+        <v>0.7830538796281108</v>
       </c>
       <c r="J13" s="34" t="n">
-        <v>0.8612282099567657</v>
+        <v>0.8390015026792073</v>
       </c>
       <c r="M13">
         <f>+M12+1</f>
         <v/>
       </c>
       <c r="N13" s="22" t="n">
-        <v>1.010526868105335</v>
+        <v>1.012168252310969</v>
       </c>
       <c r="O13" s="22" t="n">
-        <v>1.010526868105335</v>
+        <v>1.012168252310969</v>
       </c>
       <c r="P13" s="22" t="n">
-        <v>1.008391590954536</v>
+        <v>1.009076396286872</v>
       </c>
       <c r="Q13" s="22" t="n">
-        <v>1.006713085414614</v>
+        <v>1</v>
       </c>
       <c r="R13" s="22" t="n">
         <v>1.017369717017489</v>
@@ -7459,10 +7459,10 @@
         <v>1.007832373213667</v>
       </c>
       <c r="U13" s="22" t="n">
-        <v>1.005092469053066</v>
+        <v>1</v>
       </c>
       <c r="V13" s="22" t="n">
-        <v>1.007552338184575</v>
+        <v>1.004538198143436</v>
       </c>
     </row>
     <row r="14">
@@ -7471,62 +7471,62 @@
         <v/>
       </c>
       <c r="B14" s="34" t="n">
-        <v>0.96504262782669</v>
+        <v>0.9571092450910016</v>
       </c>
       <c r="C14" s="34" t="n">
-        <v>0.96504262782669</v>
+        <v>0.9571092450910016</v>
       </c>
       <c r="D14" s="34" t="n">
-        <v>0.9061490034803409</v>
+        <v>0.8762574917348687</v>
       </c>
       <c r="E14" s="34" t="n">
-        <v>0.8323844268990194</v>
+        <v>0.8115494807195861</v>
       </c>
       <c r="F14" s="34" t="n">
-        <v>0.9058684420852976</v>
+        <v>0.8934886158016521</v>
       </c>
       <c r="G14" s="34" t="n">
-        <v>0.9058684420852976</v>
+        <v>0.8934886158016521</v>
       </c>
       <c r="H14" s="34" t="n">
-        <v>0.864949760439109</v>
+        <v>0.8433507572895177</v>
       </c>
       <c r="I14" s="34" t="n">
-        <v>0.81089590263011</v>
+        <v>0.7830538796281108</v>
       </c>
       <c r="J14" s="34" t="n">
-        <v>0.8677018293315365</v>
+        <v>0.8426630817384769</v>
       </c>
       <c r="M14">
         <f>+M13+1</f>
         <v/>
       </c>
       <c r="N14" s="22" t="n">
-        <v>1.00296585990193</v>
+        <v>1.006338807299771</v>
       </c>
       <c r="O14" s="22" t="n">
-        <v>1.00296585990193</v>
+        <v>1.006338807299771</v>
       </c>
       <c r="P14" s="22" t="n">
-        <v>1.013338053734064</v>
+        <v>1.030909387466291</v>
       </c>
       <c r="Q14" s="22" t="n">
-        <v>1.014089825455242</v>
+        <v>1.026673281640514</v>
       </c>
       <c r="R14" s="22" t="n">
-        <v>1.009937239621713</v>
+        <v>1.018649652457652</v>
       </c>
       <c r="S14" s="22" t="n">
-        <v>1.009937239621713</v>
+        <v>1.018649652457652</v>
       </c>
       <c r="T14" s="22" t="n">
-        <v>1.018218272639806</v>
+        <v>1.034191029505696</v>
       </c>
       <c r="U14" s="22" t="n">
-        <v>1.019769878612945</v>
+        <v>1.031945513731779</v>
       </c>
       <c r="V14" s="22" t="n">
-        <v>1.013713939594653</v>
+        <v>1.028791334553402</v>
       </c>
     </row>
     <row r="15">
@@ -7535,62 +7535,62 @@
         <v/>
       </c>
       <c r="B15" s="34" t="n">
-        <v>0.9679048090602144</v>
+        <v>0.9631761761604624</v>
       </c>
       <c r="C15" s="34" t="n">
-        <v>0.9679048090602144</v>
+        <v>0.9631761761604624</v>
       </c>
       <c r="D15" s="34" t="n">
-        <v>0.9182352675798305</v>
+        <v>0.9033420740671421</v>
       </c>
       <c r="E15" s="34" t="n">
-        <v>0.8441125781856884</v>
+        <v>0.8331961685840322</v>
       </c>
       <c r="F15" s="34" t="n">
-        <v>0.9148702738600467</v>
+        <v>0.9101518679612214</v>
       </c>
       <c r="G15" s="34" t="n">
-        <v>0.9148702738600467</v>
+        <v>0.9101518679612214</v>
       </c>
       <c r="H15" s="34" t="n">
-        <v>0.8807076509945235</v>
+        <v>0.8721857879156542</v>
       </c>
       <c r="I15" s="34" t="n">
-        <v>0.8269272161928423</v>
+        <v>0.8080689380924934</v>
       </c>
       <c r="J15" s="34" t="n">
-        <v>0.8796151576548218</v>
+        <v>0.8668523808429435</v>
       </c>
       <c r="M15">
         <f>+M14+1</f>
         <v/>
       </c>
       <c r="N15" s="22" t="n">
-        <v>1.00390533638181</v>
+        <v>1.006515466414174</v>
       </c>
       <c r="O15" s="22" t="n">
-        <v>1.00390533638181</v>
+        <v>1.006515466414174</v>
       </c>
       <c r="P15" s="22" t="n">
-        <v>1.015484148017444</v>
+        <v>1.024444627465758</v>
       </c>
       <c r="Q15" s="22" t="n">
-        <v>1.032062409938981</v>
+        <v>1.050944888745626</v>
       </c>
       <c r="R15" s="22" t="n">
-        <v>1.01426286641273</v>
+        <v>1.020647196712442</v>
       </c>
       <c r="S15" s="22" t="n">
-        <v>1.01426286641273</v>
+        <v>1.020647196712442</v>
       </c>
       <c r="T15" s="22" t="n">
-        <v>1.023771444021216</v>
+        <v>1.034411994520737</v>
       </c>
       <c r="U15" s="22" t="n">
-        <v>1.043546962288331</v>
+        <v>1.064828063287372</v>
       </c>
       <c r="V15" s="22" t="n">
-        <v>1.023773278978212</v>
+        <v>1.037694758105692</v>
       </c>
     </row>
     <row r="16">
@@ -7599,62 +7599,62 @@
         <v/>
       </c>
       <c r="B16" s="34" t="n">
-        <v>0.971684802925166</v>
+        <v>0.9694517181871686</v>
       </c>
       <c r="C16" s="34" t="n">
-        <v>0.971684802925166</v>
+        <v>0.9694517181871686</v>
       </c>
       <c r="D16" s="34" t="n">
-        <v>0.9324533583778741</v>
+        <v>0.9254239345418582</v>
       </c>
       <c r="E16" s="34" t="n">
-        <v>0.8711768617021277</v>
+        <v>0.8756432546958273</v>
       </c>
       <c r="F16" s="34" t="n">
-        <v>0.92791894636109</v>
+        <v>0.9289439526172133</v>
       </c>
       <c r="G16" s="34" t="n">
-        <v>0.92791894636109</v>
+        <v>0.9289439526172133</v>
       </c>
       <c r="H16" s="34" t="n">
-        <v>0.9016433436191964</v>
+        <v>0.9021994404704721</v>
       </c>
       <c r="I16" s="34" t="n">
-        <v>0.8629373844915861</v>
+        <v>0.860454482351713</v>
       </c>
       <c r="J16" s="34" t="n">
-        <v>0.9007742068096574</v>
+        <v>0.8998456369177805</v>
       </c>
       <c r="M16">
         <f>+M15+1</f>
         <v/>
       </c>
       <c r="N16" s="22" t="n">
-        <v>1.014906126634863</v>
+        <v>1.017511339880171</v>
       </c>
       <c r="O16" s="22" t="n">
-        <v>1.014906126634863</v>
+        <v>1.017511339880171</v>
       </c>
       <c r="P16" s="22" t="n">
-        <v>1.055688232300255</v>
+        <v>1.057603725673438</v>
       </c>
       <c r="Q16" s="22" t="n">
-        <v>1.147872543407747</v>
+        <v>1.142017590653822</v>
       </c>
       <c r="R16" s="22" t="n">
-        <v>1.05492694245574</v>
+        <v>1.056041573571916</v>
       </c>
       <c r="S16" s="22" t="n">
-        <v>1.05492694245574</v>
+        <v>1.056041573571916</v>
       </c>
       <c r="T16" s="22" t="n">
-        <v>1.08239041368361</v>
+        <v>1.084062360357873</v>
       </c>
       <c r="U16" s="22" t="n">
-        <v>1.158832631395575</v>
+        <v>1.162176524744103</v>
       </c>
       <c r="V16" s="22" t="n">
-        <v>1.101780387854001</v>
+        <v>1.09981065816363</v>
       </c>
     </row>
     <row r="17">
@@ -7663,44 +7663,44 @@
         <v/>
       </c>
       <c r="B17" s="34" t="n">
-        <v>0.9861688596467406</v>
+        <v>0.9864281167217598</v>
       </c>
       <c r="C17" s="34" t="n">
-        <v>0.9861688596467406</v>
+        <v>0.9864281167217598</v>
       </c>
       <c r="D17" s="34" t="n">
-        <v>0.984380037608374</v>
+        <v>0.9787318009988413</v>
       </c>
       <c r="E17" s="34" t="n">
         <v>1</v>
       </c>
       <c r="F17" s="34" t="n">
-        <v>0.9788866969314561</v>
+        <v>0.9810034334819969</v>
       </c>
       <c r="G17" s="34" t="n">
-        <v>0.9788866969314561</v>
+        <v>0.9810034334819969</v>
       </c>
       <c r="H17" s="34" t="n">
-        <v>0.9759301116950548</v>
+        <v>0.9780404549499726</v>
       </c>
       <c r="I17" s="34" t="n">
         <v>1</v>
       </c>
       <c r="J17" s="34" t="n">
-        <v>0.9921285428720339</v>
+        <v>0.9892516009544989</v>
       </c>
       <c r="M17">
         <f>+M16+1</f>
         <v/>
       </c>
       <c r="N17" s="22" t="n">
-        <v>1.003226221357188</v>
+        <v>1.003761984277899</v>
       </c>
       <c r="O17" s="22" t="n">
-        <v>1.003226221357188</v>
+        <v>1.003761984277899</v>
       </c>
       <c r="P17" s="22" t="n">
-        <v>1.004220969747064</v>
+        <v>1.011274890310634</v>
       </c>
       <c r="Q17" s="22" t="n">
         <v>1</v>
@@ -7718,7 +7718,7 @@
         <v>1</v>
       </c>
       <c r="V17" s="22" t="n">
-        <v>1.002110484873532</v>
+        <v>1.005637445155317</v>
       </c>
     </row>
     <row r="18">
@@ -7727,44 +7727,44 @@
         <v/>
       </c>
       <c r="B18" s="34" t="n">
-        <v>0.9893504586835269</v>
+        <v>0.9901390437881444</v>
       </c>
       <c r="C18" s="34" t="n">
-        <v>0.9893504586835269</v>
+        <v>0.9901390437881444</v>
       </c>
       <c r="D18" s="34" t="n">
-        <v>0.9885350759667324</v>
+        <v>0.9897668946986325</v>
       </c>
       <c r="E18" s="34" t="n">
         <v>1</v>
       </c>
       <c r="F18" s="34" t="n">
-        <v>0.9873456306164238</v>
+        <v>0.9894806586956632</v>
       </c>
       <c r="G18" s="34" t="n">
-        <v>0.9873456306164238</v>
+        <v>0.9894806586956632</v>
       </c>
       <c r="H18" s="34" t="n">
-        <v>0.987174624632551</v>
+        <v>0.9893092829298556</v>
       </c>
       <c r="I18" s="34" t="n">
         <v>1</v>
       </c>
       <c r="J18" s="34" t="n">
-        <v>0.9942344874013883</v>
+        <v>0.9948571336026187</v>
       </c>
       <c r="M18">
         <f>+M17+1</f>
         <v/>
       </c>
       <c r="N18" s="22" t="n">
-        <v>1.003840901225699</v>
+        <v>1.004422675432591</v>
       </c>
       <c r="O18" s="22" t="n">
-        <v>1.003840901225699</v>
+        <v>1.004422675432591</v>
       </c>
       <c r="P18" s="22" t="n">
-        <v>1.004668908790803</v>
+        <v>1.004800335047344</v>
       </c>
       <c r="Q18" s="22" t="n">
         <v>1</v>
@@ -7782,7 +7782,7 @@
         <v>1</v>
       </c>
       <c r="V18" s="22" t="n">
-        <v>1.002334454395402</v>
+        <v>1.002400167523672</v>
       </c>
     </row>
     <row r="19">
@@ -7791,44 +7791,44 @@
         <v/>
       </c>
       <c r="B19" s="34" t="n">
-        <v>0.9931504560729305</v>
+        <v>0.9945181074119553</v>
       </c>
       <c r="C19" s="34" t="n">
-        <v>0.9931504560729305</v>
+        <v>0.9945181074119553</v>
       </c>
       <c r="D19" s="34" t="n">
-        <v>0.9931504560729305</v>
+        <v>0.9945181074119553</v>
       </c>
       <c r="E19" s="34" t="n">
         <v>1</v>
       </c>
       <c r="F19" s="34" t="n">
-        <v>0.988372911978983</v>
+        <v>0.9905101614430001</v>
       </c>
       <c r="G19" s="34" t="n">
-        <v>0.988372911978983</v>
+        <v>0.9905101614430001</v>
       </c>
       <c r="H19" s="34" t="n">
-        <v>0.988372911978983</v>
+        <v>0.9905101614430001</v>
       </c>
       <c r="I19" s="34" t="n">
         <v>1</v>
       </c>
       <c r="J19" s="34" t="n">
-        <v>0.9965634586660533</v>
+        <v>0.9972515202706492</v>
       </c>
       <c r="M19">
         <f>+M18+1</f>
         <v/>
       </c>
       <c r="N19" s="22" t="n">
-        <v>1.0047269027087</v>
+        <v>1.005512109379597</v>
       </c>
       <c r="O19" s="22" t="n">
-        <v>1.0047269027087</v>
+        <v>1.005512109379597</v>
       </c>
       <c r="P19" s="22" t="n">
-        <v>1.0047269027087</v>
+        <v>1.005512109379597</v>
       </c>
       <c r="Q19" s="22" t="n">
         <v>1</v>
@@ -7846,7 +7846,7 @@
         <v>1</v>
       </c>
       <c r="V19" s="22" t="n">
-        <v>1.00236345135435</v>
+        <v>1.002756054689799</v>
       </c>
     </row>
     <row r="20">
@@ -7855,62 +7855,62 @@
         <v/>
       </c>
       <c r="B20" s="34" t="n">
-        <v>0.9978449816538885</v>
+        <v>1</v>
       </c>
       <c r="C20" s="34" t="n">
-        <v>0.9978449816538885</v>
+        <v>1</v>
       </c>
       <c r="D20" s="34" t="n">
-        <v>0.9978449816538885</v>
+        <v>1</v>
       </c>
       <c r="E20" s="34" t="n">
         <v>1</v>
       </c>
       <c r="F20" s="34" t="n">
-        <v>0.9978422740652116</v>
+        <v>1</v>
       </c>
       <c r="G20" s="34" t="n">
-        <v>0.9978422740652116</v>
+        <v>1</v>
       </c>
       <c r="H20" s="34" t="n">
-        <v>0.9978422740652116</v>
+        <v>1</v>
       </c>
       <c r="I20" s="34" t="n">
         <v>1</v>
       </c>
       <c r="J20" s="34" t="n">
-        <v>0.9989213285485605</v>
+        <v>1</v>
       </c>
       <c r="M20">
         <f>+M19+1</f>
         <v/>
       </c>
       <c r="N20" s="22" t="n">
-        <v>1.002159672479927</v>
+        <v>1</v>
       </c>
       <c r="O20" s="22" t="n">
-        <v>1.002159672479927</v>
+        <v>1</v>
       </c>
       <c r="P20" s="22" t="n">
-        <v>1.002159672479927</v>
+        <v>1</v>
       </c>
       <c r="Q20" s="22" t="n">
         <v>1</v>
       </c>
       <c r="R20" s="22" t="n">
-        <v>1.002162391783621</v>
+        <v>1</v>
       </c>
       <c r="S20" s="22" t="n">
-        <v>1.002162391783621</v>
+        <v>1</v>
       </c>
       <c r="T20" s="22" t="n">
-        <v>1.002162391783621</v>
+        <v>1</v>
       </c>
       <c r="U20" s="22" t="n">
         <v>1</v>
       </c>
       <c r="V20" s="22" t="n">
-        <v>1.001079836239964</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -8234,7 +8234,7 @@
         </is>
       </c>
       <c r="H4" s="8" t="n">
-        <v>45808</v>
+        <v>45838</v>
       </c>
       <c r="J4" s="40" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v/>
       </c>
       <c r="B8" s="14" t="n">
-        <v>18798.07</v>
+        <v>7566.89</v>
       </c>
       <c r="C8" s="14">
         <f>+'Completion Factors'!J30</f>
@@ -8582,7 +8582,7 @@
         <v/>
       </c>
       <c r="I8" s="14" t="n">
-        <v>96762.10166666667</v>
+        <v>96190.69166666667</v>
       </c>
       <c r="J8" s="14">
         <f>100*$G8/$I8</f>
@@ -8605,76 +8605,76 @@
         <v/>
       </c>
       <c r="S8" s="22" t="n">
-        <v/>
+        <v>500</v>
       </c>
       <c r="T8" s="22" t="n">
         <v>2000</v>
       </c>
       <c r="U8" s="22" t="n">
-        <v>13397</v>
+        <v>3064.75</v>
       </c>
       <c r="V8" s="22" t="n">
-        <v>13397</v>
+        <v>3314.75</v>
       </c>
       <c r="W8" s="22" t="n">
-        <v>17047</v>
+        <v>3964.75</v>
       </c>
       <c r="X8" s="22" t="n">
-        <v>17247</v>
+        <v>3964.75</v>
       </c>
       <c r="Y8" s="22" t="n">
-        <v>17247</v>
+        <v>4664.75</v>
       </c>
       <c r="Z8" s="22" t="n">
-        <v>17347</v>
+        <v>4664.75</v>
       </c>
       <c r="AA8" s="22" t="n">
-        <v>17347</v>
+        <v>7164.75</v>
       </c>
       <c r="AB8" s="22" t="n">
-        <v>18147</v>
+        <v>7164.75</v>
       </c>
       <c r="AC8" s="22" t="n">
-        <v>18597</v>
+        <v>7164.75</v>
       </c>
       <c r="AD8" s="22" t="n">
-        <v>18597</v>
+        <v>7164.75</v>
       </c>
       <c r="AE8" s="22" t="n">
-        <v>18597</v>
+        <v>7164.75</v>
       </c>
       <c r="AF8" s="22" t="n">
-        <v>18597</v>
+        <v>7164.75</v>
       </c>
       <c r="AG8" s="22" t="n">
-        <v>18597</v>
+        <v>7164.75</v>
       </c>
       <c r="AH8" s="22" t="n">
-        <v>18597</v>
+        <v>7164.75</v>
       </c>
       <c r="AI8" s="22" t="n">
-        <v>18597</v>
+        <v>7164.75</v>
       </c>
       <c r="AJ8" s="22" t="n">
-        <v>18597</v>
+        <v>7164.75</v>
       </c>
       <c r="AK8" s="22" t="n">
-        <v>18597</v>
+        <v>7566.89</v>
       </c>
       <c r="AL8" s="22" t="n">
-        <v>18798.07</v>
+        <v>7566.89</v>
       </c>
       <c r="AM8" s="22" t="n">
-        <v>18798.07</v>
+        <v>7566.89</v>
       </c>
       <c r="AN8" s="22" t="n">
-        <v>18798.07</v>
+        <v>7566.89</v>
       </c>
       <c r="AO8" s="22" t="n">
-        <v>18798.07</v>
+        <v>7566.89</v>
       </c>
       <c r="AP8" s="22" t="n">
-        <v>18798.07</v>
+        <v>7566.89</v>
       </c>
       <c r="AQ8" s="14" t="n"/>
       <c r="AR8" s="14" t="n"/>
@@ -8685,7 +8685,7 @@
         <v/>
       </c>
       <c r="B9" s="14" t="n">
-        <v>7566.89</v>
+        <v>55780.10999999999</v>
       </c>
       <c r="C9" s="14">
         <f>+'Completion Factors'!J29</f>
@@ -8709,7 +8709,7 @@
         <v/>
       </c>
       <c r="I9" s="14" t="n">
-        <v>96190.69166666667</v>
+        <v>95491.68500000001</v>
       </c>
       <c r="J9" s="14">
         <f>100*$G9/$I9</f>
@@ -8732,73 +8732,73 @@
         <v/>
       </c>
       <c r="S9" s="22" t="n">
-        <v>500</v>
+        <v/>
       </c>
       <c r="T9" s="22" t="n">
         <v>2000</v>
       </c>
       <c r="U9" s="22" t="n">
-        <v>3064.75</v>
+        <v>53126.75</v>
       </c>
       <c r="V9" s="22" t="n">
-        <v>3314.75</v>
+        <v>53976.75</v>
       </c>
       <c r="W9" s="22" t="n">
-        <v>3964.75</v>
+        <v>54201.75</v>
       </c>
       <c r="X9" s="22" t="n">
-        <v>3964.75</v>
+        <v>54301.75</v>
       </c>
       <c r="Y9" s="22" t="n">
-        <v>4664.75</v>
+        <v>55001.75</v>
       </c>
       <c r="Z9" s="22" t="n">
-        <v>4664.75</v>
+        <v>55301.75</v>
       </c>
       <c r="AA9" s="22" t="n">
-        <v>7164.75</v>
+        <v>55301.75</v>
       </c>
       <c r="AB9" s="22" t="n">
-        <v>7164.75</v>
+        <v>55301.75</v>
       </c>
       <c r="AC9" s="22" t="n">
-        <v>7164.75</v>
+        <v>55301.75</v>
       </c>
       <c r="AD9" s="22" t="n">
-        <v>7164.75</v>
+        <v>55301.75</v>
       </c>
       <c r="AE9" s="22" t="n">
-        <v>7164.75</v>
+        <v>55301.75</v>
       </c>
       <c r="AF9" s="22" t="n">
-        <v>7164.75</v>
+        <v>55301.75</v>
       </c>
       <c r="AG9" s="22" t="n">
-        <v>7164.75</v>
+        <v>55301.75</v>
       </c>
       <c r="AH9" s="22" t="n">
-        <v>7164.75</v>
+        <v>55301.75</v>
       </c>
       <c r="AI9" s="22" t="n">
-        <v>7164.75</v>
+        <v>55301.75</v>
       </c>
       <c r="AJ9" s="22" t="n">
-        <v>7164.75</v>
+        <v>55704.52</v>
       </c>
       <c r="AK9" s="22" t="n">
-        <v>7566.89</v>
+        <v>55780.10999999999</v>
       </c>
       <c r="AL9" s="22" t="n">
-        <v>7566.89</v>
+        <v>55780.10999999999</v>
       </c>
       <c r="AM9" s="22" t="n">
-        <v>7566.89</v>
+        <v>55780.10999999999</v>
       </c>
       <c r="AN9" s="22" t="n">
-        <v>7566.89</v>
+        <v>55780.10999999999</v>
       </c>
       <c r="AO9" s="22" t="n">
-        <v>7566.89</v>
+        <v>55780.10999999999</v>
       </c>
       <c r="AP9" s="22" t="n">
         <v/>
@@ -8812,7 +8812,7 @@
         <v/>
       </c>
       <c r="B10" s="14" t="n">
-        <v>55780.10999999999</v>
+        <v>5454.14</v>
       </c>
       <c r="C10" s="14">
         <f>+'Completion Factors'!J28</f>
@@ -8836,7 +8836,7 @@
         <v/>
       </c>
       <c r="I10" s="14" t="n">
-        <v>95491.685</v>
+        <v>94994.745</v>
       </c>
       <c r="J10" s="14">
         <f>100*$G10/$I10</f>
@@ -8859,70 +8859,70 @@
         <v/>
       </c>
       <c r="S10" s="22" t="n">
-        <v/>
+        <v>1000</v>
       </c>
       <c r="T10" s="22" t="n">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="U10" s="22" t="n">
-        <v>53126.75</v>
+        <v>2250</v>
       </c>
       <c r="V10" s="22" t="n">
-        <v>53976.75</v>
+        <v>2625</v>
       </c>
       <c r="W10" s="22" t="n">
-        <v>54201.75</v>
+        <v>2725</v>
       </c>
       <c r="X10" s="22" t="n">
-        <v>54301.75</v>
+        <v>2925</v>
       </c>
       <c r="Y10" s="22" t="n">
-        <v>55001.75</v>
+        <v>4125</v>
       </c>
       <c r="Z10" s="22" t="n">
-        <v>55301.75</v>
+        <v>4775</v>
       </c>
       <c r="AA10" s="22" t="n">
-        <v>55301.75</v>
+        <v>4775</v>
       </c>
       <c r="AB10" s="22" t="n">
-        <v>55301.75</v>
+        <v>4775</v>
       </c>
       <c r="AC10" s="22" t="n">
-        <v>55301.75</v>
+        <v>4875.43</v>
       </c>
       <c r="AD10" s="22" t="n">
-        <v>55301.75</v>
+        <v>4875.43</v>
       </c>
       <c r="AE10" s="22" t="n">
-        <v>55301.75</v>
+        <v>5101.47</v>
       </c>
       <c r="AF10" s="22" t="n">
-        <v>55301.75</v>
+        <v>5101.47</v>
       </c>
       <c r="AG10" s="22" t="n">
-        <v>55301.75</v>
+        <v>5101.47</v>
       </c>
       <c r="AH10" s="22" t="n">
-        <v>55301.75</v>
+        <v>5101.47</v>
       </c>
       <c r="AI10" s="22" t="n">
-        <v>55301.75</v>
+        <v>5454.14</v>
       </c>
       <c r="AJ10" s="22" t="n">
-        <v>55704.52</v>
+        <v>5454.14</v>
       </c>
       <c r="AK10" s="22" t="n">
-        <v>55780.10999999999</v>
+        <v>5454.14</v>
       </c>
       <c r="AL10" s="22" t="n">
-        <v>55780.10999999999</v>
+        <v>5454.14</v>
       </c>
       <c r="AM10" s="22" t="n">
-        <v>55780.10999999999</v>
+        <v>5454.14</v>
       </c>
       <c r="AN10" s="22" t="n">
-        <v>55780.10999999999</v>
+        <v>5454.14</v>
       </c>
       <c r="AO10" s="22" t="n">
         <v/>
@@ -8939,7 +8939,7 @@
         <v/>
       </c>
       <c r="B11" s="14" t="n">
-        <v>5454.14</v>
+        <v>5703.940000000001</v>
       </c>
       <c r="C11" s="14">
         <f>+'Completion Factors'!J27</f>
@@ -8963,7 +8963,7 @@
         <v/>
       </c>
       <c r="I11" s="14" t="n">
-        <v>94994.745</v>
+        <v>94248.85166666667</v>
       </c>
       <c r="J11" s="14">
         <f>100*$G11/$I11</f>
@@ -8989,64 +8989,64 @@
         <v>1000</v>
       </c>
       <c r="T11" s="22" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="U11" s="22" t="n">
-        <v>2250</v>
+        <v>3000</v>
       </c>
       <c r="V11" s="22" t="n">
-        <v>2625</v>
+        <v>4852.3</v>
       </c>
       <c r="W11" s="22" t="n">
-        <v>2725</v>
+        <v>4852.3</v>
       </c>
       <c r="X11" s="22" t="n">
-        <v>2925</v>
+        <v>4852.3</v>
       </c>
       <c r="Y11" s="22" t="n">
-        <v>4125</v>
+        <v>5052.900000000001</v>
       </c>
       <c r="Z11" s="22" t="n">
-        <v>4775</v>
+        <v>5252.900000000001</v>
       </c>
       <c r="AA11" s="22" t="n">
-        <v>4775</v>
+        <v>5252.900000000001</v>
       </c>
       <c r="AB11" s="22" t="n">
-        <v>4775</v>
+        <v>5603.940000000001</v>
       </c>
       <c r="AC11" s="22" t="n">
-        <v>4875.43</v>
+        <v>5603.940000000001</v>
       </c>
       <c r="AD11" s="22" t="n">
-        <v>4875.43</v>
+        <v>5603.940000000001</v>
       </c>
       <c r="AE11" s="22" t="n">
-        <v>5101.47</v>
+        <v>5603.940000000001</v>
       </c>
       <c r="AF11" s="22" t="n">
-        <v>5101.47</v>
+        <v>5603.940000000001</v>
       </c>
       <c r="AG11" s="22" t="n">
-        <v>5101.47</v>
+        <v>5603.940000000001</v>
       </c>
       <c r="AH11" s="22" t="n">
-        <v>5101.47</v>
+        <v>5703.940000000001</v>
       </c>
       <c r="AI11" s="22" t="n">
-        <v>5454.14</v>
+        <v>5703.940000000001</v>
       </c>
       <c r="AJ11" s="22" t="n">
-        <v>5454.14</v>
+        <v>5703.940000000001</v>
       </c>
       <c r="AK11" s="22" t="n">
-        <v>5454.14</v>
+        <v>5703.940000000001</v>
       </c>
       <c r="AL11" s="22" t="n">
-        <v>5454.14</v>
+        <v>5703.940000000001</v>
       </c>
       <c r="AM11" s="22" t="n">
-        <v>5454.14</v>
+        <v>5703.940000000001</v>
       </c>
       <c r="AN11" s="22" t="n">
         <v/>
@@ -9066,7 +9066,7 @@
         <v/>
       </c>
       <c r="B12" s="14" t="n">
-        <v>5703.940000000001</v>
+        <v>8441.83</v>
       </c>
       <c r="C12" s="14">
         <f>++'Completion Factors'!J26</f>
@@ -9090,7 +9090,7 @@
         <v/>
       </c>
       <c r="I12" s="14" t="n">
-        <v>94248.85166666667</v>
+        <v>93522.47000000002</v>
       </c>
       <c r="J12" s="14">
         <f>100*$G12/$I12</f>
@@ -9116,61 +9116,61 @@
         <v>1000</v>
       </c>
       <c r="T12" s="22" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="U12" s="22" t="n">
-        <v>3000</v>
+        <v>4450</v>
       </c>
       <c r="V12" s="22" t="n">
-        <v>4852.3</v>
+        <v>4450</v>
       </c>
       <c r="W12" s="22" t="n">
-        <v>4852.3</v>
+        <v>6530</v>
       </c>
       <c r="X12" s="22" t="n">
-        <v>4852.3</v>
+        <v>6530</v>
       </c>
       <c r="Y12" s="22" t="n">
-        <v>5052.900000000001</v>
+        <v>6730</v>
       </c>
       <c r="Z12" s="22" t="n">
-        <v>5252.900000000001</v>
+        <v>6730</v>
       </c>
       <c r="AA12" s="22" t="n">
-        <v>5252.900000000001</v>
+        <v>7480.93</v>
       </c>
       <c r="AB12" s="22" t="n">
-        <v>5603.940000000001</v>
+        <v>7480.93</v>
       </c>
       <c r="AC12" s="22" t="n">
-        <v>5603.940000000001</v>
+        <v>7480.93</v>
       </c>
       <c r="AD12" s="22" t="n">
-        <v>5603.940000000001</v>
+        <v>7480.93</v>
       </c>
       <c r="AE12" s="22" t="n">
-        <v>5603.940000000001</v>
+        <v>8341.83</v>
       </c>
       <c r="AF12" s="22" t="n">
-        <v>5603.940000000001</v>
+        <v>8341.83</v>
       </c>
       <c r="AG12" s="22" t="n">
-        <v>5603.940000000001</v>
+        <v>8441.83</v>
       </c>
       <c r="AH12" s="22" t="n">
-        <v>5703.940000000001</v>
+        <v>8441.83</v>
       </c>
       <c r="AI12" s="22" t="n">
-        <v>5703.940000000001</v>
+        <v>8441.83</v>
       </c>
       <c r="AJ12" s="22" t="n">
-        <v>5703.940000000001</v>
+        <v>8441.83</v>
       </c>
       <c r="AK12" s="22" t="n">
-        <v>5703.940000000001</v>
+        <v>8441.83</v>
       </c>
       <c r="AL12" s="22" t="n">
-        <v>5703.940000000001</v>
+        <v>8441.83</v>
       </c>
       <c r="AM12" s="22" t="n">
         <v/>
@@ -9193,7 +9193,7 @@
         <v/>
       </c>
       <c r="B13" s="14" t="n">
-        <v>8441.83</v>
+        <v>4200</v>
       </c>
       <c r="C13" s="14">
         <f>++'Completion Factors'!J25</f>
@@ -9217,7 +9217,7 @@
         <v/>
       </c>
       <c r="I13" s="14" t="n">
-        <v>93522.47000000002</v>
+        <v>92888.80333333334</v>
       </c>
       <c r="J13" s="14">
         <f>100*$G13/$I13</f>
@@ -9240,61 +9240,61 @@
         <v/>
       </c>
       <c r="S13" s="22" t="n">
-        <v>1000</v>
+        <v/>
       </c>
       <c r="T13" s="22" t="n">
-        <v>2400</v>
+        <v>1800</v>
       </c>
       <c r="U13" s="22" t="n">
-        <v>4450</v>
+        <v>2300</v>
       </c>
       <c r="V13" s="22" t="n">
-        <v>4450</v>
+        <v>3050</v>
       </c>
       <c r="W13" s="22" t="n">
-        <v>6530</v>
+        <v>3500</v>
       </c>
       <c r="X13" s="22" t="n">
-        <v>6530</v>
+        <v>3500</v>
       </c>
       <c r="Y13" s="22" t="n">
-        <v>6730</v>
+        <v>3500</v>
       </c>
       <c r="Z13" s="22" t="n">
-        <v>6730</v>
+        <v>3500</v>
       </c>
       <c r="AA13" s="22" t="n">
-        <v>7480.93</v>
+        <v>3500</v>
       </c>
       <c r="AB13" s="22" t="n">
-        <v>7480.93</v>
+        <v>4000</v>
       </c>
       <c r="AC13" s="22" t="n">
-        <v>7480.93</v>
+        <v>4000</v>
       </c>
       <c r="AD13" s="22" t="n">
-        <v>7480.93</v>
+        <v>4000</v>
       </c>
       <c r="AE13" s="22" t="n">
-        <v>8341.83</v>
+        <v>4000</v>
       </c>
       <c r="AF13" s="22" t="n">
-        <v>8341.83</v>
+        <v>4200</v>
       </c>
       <c r="AG13" s="22" t="n">
-        <v>8441.83</v>
+        <v>4200</v>
       </c>
       <c r="AH13" s="22" t="n">
-        <v>8441.83</v>
+        <v>4200</v>
       </c>
       <c r="AI13" s="22" t="n">
-        <v>8441.83</v>
+        <v>4200</v>
       </c>
       <c r="AJ13" s="22" t="n">
-        <v>8441.83</v>
+        <v>4200</v>
       </c>
       <c r="AK13" s="22" t="n">
-        <v>8441.83</v>
+        <v>4200</v>
       </c>
       <c r="AL13" s="22" t="n">
         <v/>
@@ -9320,7 +9320,7 @@
         <v/>
       </c>
       <c r="B14" s="14" t="n">
-        <v>4200</v>
+        <v>4802.9</v>
       </c>
       <c r="C14" s="14">
         <f>++'Completion Factors'!J24</f>
@@ -9344,7 +9344,7 @@
         <v/>
       </c>
       <c r="I14" s="14" t="n">
-        <v>92888.80333333334</v>
+        <v>92054.53333333333</v>
       </c>
       <c r="J14" s="14">
         <f>100*$G14/$I14</f>
@@ -9370,55 +9370,55 @@
         <v/>
       </c>
       <c r="T14" s="22" t="n">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="U14" s="22" t="n">
-        <v>2300</v>
+        <v>1500</v>
       </c>
       <c r="V14" s="22" t="n">
-        <v>3050</v>
+        <v>1500</v>
       </c>
       <c r="W14" s="22" t="n">
-        <v>3500</v>
+        <v>1900</v>
       </c>
       <c r="X14" s="22" t="n">
-        <v>3500</v>
+        <v>2050.99</v>
       </c>
       <c r="Y14" s="22" t="n">
-        <v>3500</v>
+        <v>2351.42</v>
       </c>
       <c r="Z14" s="22" t="n">
-        <v>3500</v>
+        <v>2351.42</v>
       </c>
       <c r="AA14" s="22" t="n">
-        <v>3500</v>
+        <v>3051.42</v>
       </c>
       <c r="AB14" s="22" t="n">
-        <v>4000</v>
+        <v>3152.9</v>
       </c>
       <c r="AC14" s="22" t="n">
-        <v>4000</v>
+        <v>3152.9</v>
       </c>
       <c r="AD14" s="22" t="n">
-        <v>4000</v>
+        <v>3152.9</v>
       </c>
       <c r="AE14" s="22" t="n">
-        <v>4000</v>
+        <v>3252.9</v>
       </c>
       <c r="AF14" s="22" t="n">
-        <v>4200</v>
+        <v>3252.9</v>
       </c>
       <c r="AG14" s="22" t="n">
-        <v>4200</v>
+        <v>3252.9</v>
       </c>
       <c r="AH14" s="22" t="n">
-        <v>4200</v>
+        <v>4802.9</v>
       </c>
       <c r="AI14" s="22" t="n">
-        <v>4200</v>
+        <v>4802.9</v>
       </c>
       <c r="AJ14" s="22" t="n">
-        <v>4200</v>
+        <v>4802.9</v>
       </c>
       <c r="AK14" s="22" t="n">
         <v/>
@@ -9447,7 +9447,7 @@
         <v/>
       </c>
       <c r="B15" s="14" t="n">
-        <v>4802.9</v>
+        <v>3029.1</v>
       </c>
       <c r="C15" s="14">
         <f>++'Completion Factors'!J23</f>
@@ -9471,7 +9471,7 @@
         <v/>
       </c>
       <c r="I15" s="14" t="n">
-        <v>92054.53333333333</v>
+        <v>91387.24333333333</v>
       </c>
       <c r="J15" s="14">
         <f>100*$G15/$I15</f>
@@ -9500,49 +9500,49 @@
         <v>1500</v>
       </c>
       <c r="U15" s="22" t="n">
-        <v>1500</v>
+        <v>1750</v>
       </c>
       <c r="V15" s="22" t="n">
-        <v>1500</v>
+        <v>1750</v>
       </c>
       <c r="W15" s="22" t="n">
-        <v>1900</v>
+        <v>1825.3</v>
       </c>
       <c r="X15" s="22" t="n">
-        <v>2050.99</v>
+        <v>2175.99</v>
       </c>
       <c r="Y15" s="22" t="n">
-        <v>2351.42</v>
+        <v>2175.99</v>
       </c>
       <c r="Z15" s="22" t="n">
-        <v>2351.42</v>
+        <v>2175.99</v>
       </c>
       <c r="AA15" s="22" t="n">
-        <v>3051.42</v>
+        <v>2175.99</v>
       </c>
       <c r="AB15" s="22" t="n">
-        <v>3152.9</v>
+        <v>2329.1</v>
       </c>
       <c r="AC15" s="22" t="n">
-        <v>3152.9</v>
+        <v>2329.1</v>
       </c>
       <c r="AD15" s="22" t="n">
-        <v>3152.9</v>
+        <v>2529.1</v>
       </c>
       <c r="AE15" s="22" t="n">
-        <v>3252.9</v>
+        <v>2529.1</v>
       </c>
       <c r="AF15" s="22" t="n">
-        <v>3252.9</v>
+        <v>2679.1</v>
       </c>
       <c r="AG15" s="22" t="n">
-        <v>3252.9</v>
+        <v>3029.1</v>
       </c>
       <c r="AH15" s="22" t="n">
-        <v>4802.9</v>
+        <v>3029.1</v>
       </c>
       <c r="AI15" s="22" t="n">
-        <v>4802.9</v>
+        <v>3029.1</v>
       </c>
       <c r="AJ15" s="22" t="n">
         <v/>
@@ -9574,7 +9574,7 @@
         <v/>
       </c>
       <c r="B16" s="14" t="n">
-        <v>3029.1</v>
+        <v>5034.21</v>
       </c>
       <c r="C16" s="14">
         <f>++'Completion Factors'!J22</f>
@@ -9598,7 +9598,7 @@
         <v/>
       </c>
       <c r="I16" s="14" t="n">
-        <v>91387.24333333333</v>
+        <v>90637.03000000001</v>
       </c>
       <c r="J16" s="14">
         <f>100*$G16/$I16</f>
@@ -9627,46 +9627,46 @@
         <v>1500</v>
       </c>
       <c r="U16" s="22" t="n">
-        <v>1750</v>
+        <v>2500</v>
       </c>
       <c r="V16" s="22" t="n">
-        <v>1750</v>
+        <v>3403.95</v>
       </c>
       <c r="W16" s="22" t="n">
-        <v>1825.3</v>
+        <v>4303.95</v>
       </c>
       <c r="X16" s="22" t="n">
-        <v>2175.99</v>
+        <v>4303.95</v>
       </c>
       <c r="Y16" s="22" t="n">
-        <v>2175.99</v>
+        <v>4555.51</v>
       </c>
       <c r="Z16" s="22" t="n">
-        <v>2175.99</v>
+        <v>4555.51</v>
       </c>
       <c r="AA16" s="22" t="n">
-        <v>2175.99</v>
+        <v>4809.21</v>
       </c>
       <c r="AB16" s="22" t="n">
-        <v>2329.1</v>
+        <v>4809.21</v>
       </c>
       <c r="AC16" s="22" t="n">
-        <v>2329.1</v>
+        <v>4909.21</v>
       </c>
       <c r="AD16" s="22" t="n">
-        <v>2529.1</v>
+        <v>4909.21</v>
       </c>
       <c r="AE16" s="22" t="n">
-        <v>2529.1</v>
+        <v>4984.21</v>
       </c>
       <c r="AF16" s="22" t="n">
-        <v>2679.1</v>
+        <v>4984.21</v>
       </c>
       <c r="AG16" s="22" t="n">
-        <v>3029.1</v>
+        <v>4984.21</v>
       </c>
       <c r="AH16" s="22" t="n">
-        <v>3029.1</v>
+        <v>5034.21</v>
       </c>
       <c r="AI16" s="22" t="n">
         <v/>
@@ -9701,7 +9701,7 @@
         <v/>
       </c>
       <c r="B17" s="14" t="n">
-        <v>4984.21</v>
+        <v>3332.67</v>
       </c>
       <c r="C17" s="14">
         <f>++'Completion Factors'!J21</f>
@@ -9725,7 +9725,7 @@
         <v/>
       </c>
       <c r="I17" s="14" t="n">
-        <v>90637.03000000001</v>
+        <v>90077.69499999999</v>
       </c>
       <c r="J17" s="14">
         <f>100*$G17/$I17</f>
@@ -9751,46 +9751,46 @@
         <v/>
       </c>
       <c r="T17" s="22" t="n">
-        <v>1500</v>
+        <v/>
       </c>
       <c r="U17" s="22" t="n">
-        <v>2500</v>
+        <v>1004.38</v>
       </c>
       <c r="V17" s="22" t="n">
-        <v>3403.95</v>
+        <v>2055.04</v>
       </c>
       <c r="W17" s="22" t="n">
-        <v>4303.95</v>
+        <v>2455.04</v>
       </c>
       <c r="X17" s="22" t="n">
-        <v>4303.95</v>
+        <v>2455.04</v>
       </c>
       <c r="Y17" s="22" t="n">
-        <v>4555.51</v>
+        <v>2455.04</v>
       </c>
       <c r="Z17" s="22" t="n">
-        <v>4555.51</v>
+        <v>2455.04</v>
       </c>
       <c r="AA17" s="22" t="n">
-        <v>4809.21</v>
+        <v>2455.04</v>
       </c>
       <c r="AB17" s="22" t="n">
-        <v>4809.21</v>
+        <v>2655.04</v>
       </c>
       <c r="AC17" s="22" t="n">
-        <v>4909.21</v>
+        <v>3057.67</v>
       </c>
       <c r="AD17" s="22" t="n">
-        <v>4909.21</v>
+        <v>3132.67</v>
       </c>
       <c r="AE17" s="22" t="n">
-        <v>4984.21</v>
+        <v>3132.67</v>
       </c>
       <c r="AF17" s="22" t="n">
-        <v>4984.21</v>
+        <v>3132.67</v>
       </c>
       <c r="AG17" s="22" t="n">
-        <v>4984.21</v>
+        <v>3332.67</v>
       </c>
       <c r="AH17" s="22" t="n">
         <v/>
@@ -9828,7 +9828,7 @@
         <v/>
       </c>
       <c r="B18" s="14" t="n">
-        <v>3132.67</v>
+        <v>3430.33</v>
       </c>
       <c r="C18" s="14">
         <f>++'Completion Factors'!J20</f>
@@ -9852,7 +9852,7 @@
         <v/>
       </c>
       <c r="I18" s="14" t="n">
-        <v>90077.69499999999</v>
+        <v>89632.09499999999</v>
       </c>
       <c r="J18" s="14">
         <f>100*$G18/$I18</f>
@@ -9878,43 +9878,43 @@
         <v/>
       </c>
       <c r="T18" s="22" t="n">
-        <v/>
+        <v>1000</v>
       </c>
       <c r="U18" s="22" t="n">
-        <v>1004.38</v>
+        <v>1000</v>
       </c>
       <c r="V18" s="22" t="n">
-        <v>2055.04</v>
+        <v>1200</v>
       </c>
       <c r="W18" s="22" t="n">
-        <v>2455.04</v>
+        <v>1200</v>
       </c>
       <c r="X18" s="22" t="n">
-        <v>2455.04</v>
+        <v>1400.39</v>
       </c>
       <c r="Y18" s="22" t="n">
-        <v>2455.04</v>
+        <v>1400.39</v>
       </c>
       <c r="Z18" s="22" t="n">
-        <v>2455.04</v>
+        <v>1602.69</v>
       </c>
       <c r="AA18" s="22" t="n">
-        <v>2455.04</v>
+        <v>1702.69</v>
       </c>
       <c r="AB18" s="22" t="n">
-        <v>2655.04</v>
+        <v>2105.33</v>
       </c>
       <c r="AC18" s="22" t="n">
-        <v>3057.67</v>
+        <v>2180.33</v>
       </c>
       <c r="AD18" s="22" t="n">
-        <v>3132.67</v>
+        <v>3130.33</v>
       </c>
       <c r="AE18" s="22" t="n">
-        <v>3132.67</v>
+        <v>3130.33</v>
       </c>
       <c r="AF18" s="22" t="n">
-        <v>3132.67</v>
+        <v>3430.33</v>
       </c>
       <c r="AG18" s="22" t="n">
         <v/>
@@ -9955,7 +9955,7 @@
         <v/>
       </c>
       <c r="B19" s="14" t="n">
-        <v>3130.33</v>
+        <v>2426.57</v>
       </c>
       <c r="C19" s="14">
         <f>++'Completion Factors'!J19</f>
@@ -9979,7 +9979,7 @@
         <v/>
       </c>
       <c r="I19" s="14" t="n">
-        <v>89632.09500000002</v>
+        <v>89284.03500000002</v>
       </c>
       <c r="J19" s="14">
         <f>100*$G19/$I19</f>
@@ -10008,40 +10008,40 @@
         <v/>
       </c>
       <c r="T19" s="22" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="U19" s="22" t="n">
-        <v>1000</v>
+        <v>1700</v>
       </c>
       <c r="V19" s="22" t="n">
-        <v>1200</v>
+        <v>1750.79</v>
       </c>
       <c r="W19" s="22" t="n">
-        <v>1200</v>
+        <v>2151.57</v>
       </c>
       <c r="X19" s="22" t="n">
-        <v>1400.39</v>
+        <v>2151.57</v>
       </c>
       <c r="Y19" s="22" t="n">
-        <v>1400.39</v>
+        <v>2151.57</v>
       </c>
       <c r="Z19" s="22" t="n">
-        <v>1602.69</v>
+        <v>2351.57</v>
       </c>
       <c r="AA19" s="22" t="n">
-        <v>1702.69</v>
+        <v>2351.57</v>
       </c>
       <c r="AB19" s="22" t="n">
-        <v>2105.33</v>
+        <v>2426.57</v>
       </c>
       <c r="AC19" s="22" t="n">
-        <v>2180.33</v>
+        <v>2426.57</v>
       </c>
       <c r="AD19" s="22" t="n">
-        <v>3130.33</v>
+        <v>2426.57</v>
       </c>
       <c r="AE19" s="22" t="n">
-        <v>3130.33</v>
+        <v>2426.57</v>
       </c>
       <c r="AF19" s="22" t="n">
         <v/>
@@ -10085,7 +10085,7 @@
         <v/>
       </c>
       <c r="B20" s="14" t="n">
-        <v>2426.57</v>
+        <v>1951.72</v>
       </c>
       <c r="C20" s="14">
         <f>++'Completion Factors'!J18</f>
@@ -10109,7 +10109,7 @@
         <v/>
       </c>
       <c r="I20" s="14" t="n">
-        <v>89284.03500000002</v>
+        <v>88586.81666666665</v>
       </c>
       <c r="J20" s="14">
         <f>100*$G20/$I20</f>
@@ -10144,37 +10144,37 @@
         <v/>
       </c>
       <c r="T20" s="22" t="n">
-        <v>1500</v>
+        <v>1501.1</v>
       </c>
       <c r="U20" s="22" t="n">
-        <v>1700</v>
+        <v>1701.1</v>
       </c>
       <c r="V20" s="22" t="n">
-        <v>1750.79</v>
+        <v>1701.1</v>
       </c>
       <c r="W20" s="22" t="n">
-        <v>2151.57</v>
+        <v>1701.1</v>
       </c>
       <c r="X20" s="22" t="n">
-        <v>2151.57</v>
+        <v>1751.72</v>
       </c>
       <c r="Y20" s="22" t="n">
-        <v>2151.57</v>
+        <v>1751.72</v>
       </c>
       <c r="Z20" s="22" t="n">
-        <v>2351.57</v>
+        <v>1751.72</v>
       </c>
       <c r="AA20" s="22" t="n">
-        <v>2351.57</v>
+        <v>1951.72</v>
       </c>
       <c r="AB20" s="22" t="n">
-        <v>2426.57</v>
+        <v>1951.72</v>
       </c>
       <c r="AC20" s="22" t="n">
-        <v>2426.57</v>
+        <v>1951.72</v>
       </c>
       <c r="AD20" s="22" t="n">
-        <v>2426.57</v>
+        <v>1951.72</v>
       </c>
       <c r="AE20" s="22" t="n">
         <v/>
@@ -10221,7 +10221,7 @@
         <v/>
       </c>
       <c r="B21" s="14" t="n">
-        <v>1951.72</v>
+        <v>6617.190000000001</v>
       </c>
       <c r="C21" s="14">
         <f>++'Completion Factors'!J17</f>
@@ -10245,7 +10245,7 @@
         <v/>
       </c>
       <c r="I21" s="14" t="n">
-        <v>88586.81666666665</v>
+        <v>88010.36666666665</v>
       </c>
       <c r="J21" s="14">
         <f>100*$G21/$I21</f>
@@ -10280,34 +10280,34 @@
         <v/>
       </c>
       <c r="T21" s="22" t="n">
-        <v>1501.1</v>
+        <v/>
       </c>
       <c r="U21" s="22" t="n">
-        <v>1701.1</v>
+        <v>1205.75</v>
       </c>
       <c r="V21" s="22" t="n">
-        <v>1701.1</v>
+        <v>1205.75</v>
       </c>
       <c r="W21" s="22" t="n">
-        <v>1701.1</v>
+        <v>2010.68</v>
       </c>
       <c r="X21" s="22" t="n">
-        <v>1751.72</v>
+        <v>6417.190000000001</v>
       </c>
       <c r="Y21" s="22" t="n">
-        <v>1751.72</v>
+        <v>6417.190000000001</v>
       </c>
       <c r="Z21" s="22" t="n">
-        <v>1751.72</v>
+        <v>6617.190000000001</v>
       </c>
       <c r="AA21" s="22" t="n">
-        <v>1951.72</v>
+        <v>6617.190000000001</v>
       </c>
       <c r="AB21" s="22" t="n">
-        <v>1951.72</v>
+        <v>6617.190000000001</v>
       </c>
       <c r="AC21" s="22" t="n">
-        <v>1951.72</v>
+        <v>6617.190000000001</v>
       </c>
       <c r="AD21" s="22" t="n">
         <v/>
@@ -10357,7 +10357,7 @@
         <v/>
       </c>
       <c r="B22" s="14" t="n">
-        <v>6617.190000000001</v>
+        <v>28116.66</v>
       </c>
       <c r="C22" s="14">
         <f>++'Completion Factors'!J16</f>
@@ -10381,7 +10381,7 @@
         <v/>
       </c>
       <c r="I22" s="14" t="n">
-        <v>88010.36666666665</v>
+        <v>87641.90666666666</v>
       </c>
       <c r="J22" s="14">
         <f>100*$G22/$I22</f>
@@ -10419,28 +10419,28 @@
         <v/>
       </c>
       <c r="U22" s="22" t="n">
-        <v>1205.75</v>
+        <v>1005.75</v>
       </c>
       <c r="V22" s="22" t="n">
-        <v>1205.75</v>
+        <v>1707.26</v>
       </c>
       <c r="W22" s="22" t="n">
-        <v>2010.68</v>
+        <v>27816.66</v>
       </c>
       <c r="X22" s="22" t="n">
-        <v>6417.190000000001</v>
+        <v>27816.66</v>
       </c>
       <c r="Y22" s="22" t="n">
-        <v>6417.190000000001</v>
+        <v>27916.66</v>
       </c>
       <c r="Z22" s="22" t="n">
-        <v>6617.190000000001</v>
+        <v>28116.66</v>
       </c>
       <c r="AA22" s="22" t="n">
-        <v>6617.190000000001</v>
+        <v>28116.66</v>
       </c>
       <c r="AB22" s="22" t="n">
-        <v>6617.190000000001</v>
+        <v>28116.66</v>
       </c>
       <c r="AC22" s="22" t="n">
         <v/>
@@ -10493,7 +10493,7 @@
         <v/>
       </c>
       <c r="B23" s="14" t="n">
-        <v>28116.66</v>
+        <v>2863.28</v>
       </c>
       <c r="C23" s="14">
         <f>++'Completion Factors'!J15</f>
@@ -10517,7 +10517,7 @@
         <v/>
       </c>
       <c r="I23" s="14" t="n">
-        <v>87641.90666666666</v>
+        <v>86708.92666666667</v>
       </c>
       <c r="J23" s="14">
         <f>100*$G23/$I23</f>
@@ -10555,25 +10555,25 @@
         <v/>
       </c>
       <c r="U23" s="22" t="n">
-        <v>1005.75</v>
+        <v>500</v>
       </c>
       <c r="V23" s="22" t="n">
-        <v>1707.26</v>
+        <v>2863.28</v>
       </c>
       <c r="W23" s="22" t="n">
-        <v>27816.66</v>
+        <v>2863.28</v>
       </c>
       <c r="X23" s="22" t="n">
-        <v>27816.66</v>
+        <v>2863.28</v>
       </c>
       <c r="Y23" s="22" t="n">
-        <v>27916.66</v>
+        <v>2863.28</v>
       </c>
       <c r="Z23" s="22" t="n">
-        <v>28116.66</v>
+        <v>2863.28</v>
       </c>
       <c r="AA23" s="22" t="n">
-        <v>28116.66</v>
+        <v>2863.28</v>
       </c>
       <c r="AB23" s="22" t="n">
         <v/>
@@ -10629,7 +10629,7 @@
         <v/>
       </c>
       <c r="B24" s="14" t="n">
-        <v>2863.28</v>
+        <v>3912.71</v>
       </c>
       <c r="C24" s="14">
         <f>++'Completion Factors'!J14</f>
@@ -10655,7 +10655,7 @@
         <v/>
       </c>
       <c r="I24" s="14" t="n">
-        <v>86708.92666666668</v>
+        <v>86091.15333333334</v>
       </c>
       <c r="J24" s="14">
         <f>100*$G24/$I24</f>
@@ -10693,22 +10693,22 @@
         <v/>
       </c>
       <c r="U24" s="22" t="n">
-        <v>500</v>
+        <v>1408.22</v>
       </c>
       <c r="V24" s="22" t="n">
-        <v>2863.28</v>
+        <v>1812.71</v>
       </c>
       <c r="W24" s="22" t="n">
-        <v>2863.28</v>
+        <v>1812.71</v>
       </c>
       <c r="X24" s="22" t="n">
-        <v>2863.28</v>
+        <v>1812.71</v>
       </c>
       <c r="Y24" s="22" t="n">
-        <v>2863.28</v>
+        <v>1912.71</v>
       </c>
       <c r="Z24" s="22" t="n">
-        <v>2863.28</v>
+        <v>3912.71</v>
       </c>
       <c r="AA24" s="22" t="n">
         <v/>
@@ -10767,7 +10767,7 @@
         <v/>
       </c>
       <c r="B25" s="14" t="n">
-        <v>1912.71</v>
+        <v>27856.58</v>
       </c>
       <c r="C25" s="14">
         <f>++'Completion Factors'!J13</f>
@@ -10793,7 +10793,7 @@
         <v/>
       </c>
       <c r="I25" s="14" t="n">
-        <v>86091.15333333334</v>
+        <v>85710.18333333333</v>
       </c>
       <c r="J25" s="14">
         <f>100*$G25/$I25</f>
@@ -10828,22 +10828,22 @@
         <v/>
       </c>
       <c r="T25" s="22" t="n">
-        <v/>
+        <v>200</v>
       </c>
       <c r="U25" s="22" t="n">
-        <v>1408.22</v>
+        <v>1206.58</v>
       </c>
       <c r="V25" s="22" t="n">
-        <v>1812.71</v>
+        <v>27856.58</v>
       </c>
       <c r="W25" s="22" t="n">
-        <v>1812.71</v>
+        <v>27856.58</v>
       </c>
       <c r="X25" s="22" t="n">
-        <v>1812.71</v>
+        <v>27856.58</v>
       </c>
       <c r="Y25" s="22" t="n">
-        <v>1912.71</v>
+        <v>27856.58</v>
       </c>
       <c r="Z25" s="22" t="n">
         <v/>
@@ -10905,7 +10905,7 @@
         <v/>
       </c>
       <c r="B26" s="14" t="n">
-        <v>27856.58</v>
+        <v>2702.19</v>
       </c>
       <c r="C26" s="14">
         <f>++'Completion Factors'!J12</f>
@@ -10931,7 +10931,7 @@
         <v/>
       </c>
       <c r="I26" s="14" t="n">
-        <v>85710.18333333333</v>
+        <v>84639.57333333332</v>
       </c>
       <c r="J26" s="14">
         <f>100*$G26/$I26</f>
@@ -10966,19 +10966,19 @@
         <v/>
       </c>
       <c r="T26" s="22" t="n">
-        <v>200</v>
+        <v>1002.19</v>
       </c>
       <c r="U26" s="22" t="n">
-        <v>1206.58</v>
+        <v>1402.19</v>
       </c>
       <c r="V26" s="22" t="n">
-        <v>27856.58</v>
+        <v>1402.19</v>
       </c>
       <c r="W26" s="22" t="n">
-        <v>27856.58</v>
+        <v>1402.19</v>
       </c>
       <c r="X26" s="22" t="n">
-        <v>27856.58</v>
+        <v>2702.19</v>
       </c>
       <c r="Y26" s="22" t="n">
         <v/>
@@ -11043,7 +11043,7 @@
         <v/>
       </c>
       <c r="B27" s="14" t="n">
-        <v>1402.19</v>
+        <v>2950</v>
       </c>
       <c r="C27" s="14">
         <f>++'Completion Factors'!J11</f>
@@ -11069,7 +11069,7 @@
         <v/>
       </c>
       <c r="I27" s="14" t="n">
-        <v>84639.57333333332</v>
+        <v>84198.78333333333</v>
       </c>
       <c r="J27" s="14">
         <f>100*$G27/$I27</f>
@@ -11104,16 +11104,16 @@
         <v/>
       </c>
       <c r="T27" s="22" t="n">
-        <v>1002.19</v>
+        <v>1150</v>
       </c>
       <c r="U27" s="22" t="n">
-        <v>1402.19</v>
+        <v>1450</v>
       </c>
       <c r="V27" s="22" t="n">
-        <v>1402.19</v>
+        <v>1450</v>
       </c>
       <c r="W27" s="22" t="n">
-        <v>1402.19</v>
+        <v>2950</v>
       </c>
       <c r="X27" s="22" t="n">
         <v/>
@@ -11181,7 +11181,7 @@
         <v/>
       </c>
       <c r="B28" s="14" t="n">
-        <v>1450</v>
+        <v>1000</v>
       </c>
       <c r="C28" s="14">
         <f>++'Completion Factors'!J10</f>
@@ -11207,7 +11207,7 @@
         <v/>
       </c>
       <c r="I28" s="14" t="n">
-        <v>84198.78333333334</v>
+        <v>83734.29666666668</v>
       </c>
       <c r="J28" s="14">
         <f>100*$G28/$I28</f>
@@ -11239,16 +11239,16 @@
         <v/>
       </c>
       <c r="S28" s="22" t="n">
-        <v/>
+        <v>1000</v>
       </c>
       <c r="T28" s="22" t="n">
-        <v>1150</v>
+        <v>1000</v>
       </c>
       <c r="U28" s="22" t="n">
-        <v>1450</v>
+        <v>1000</v>
       </c>
       <c r="V28" s="22" t="n">
-        <v>1450</v>
+        <v>1000</v>
       </c>
       <c r="W28" s="22" t="n">
         <v/>
@@ -11346,7 +11346,7 @@
         <v/>
       </c>
       <c r="I29" s="14" t="n">
-        <v>83734.29666666668</v>
+        <v>83042.50999999999</v>
       </c>
       <c r="J29" s="20" t="n">
         <v>15</v>
@@ -11457,7 +11457,7 @@
         <v/>
       </c>
       <c r="B30" s="14" t="n">
-        <v>1000</v>
+        <v>2200</v>
       </c>
       <c r="C30" s="14">
         <f>++'Completion Factors'!J8</f>
@@ -11484,7 +11484,7 @@
         <v/>
       </c>
       <c r="I30" s="14" t="n">
-        <v>83042.50999999999</v>
+        <v>82457.045</v>
       </c>
       <c r="J30" s="20" t="n">
         <v>15</v>
@@ -11518,7 +11518,7 @@
         <v>1000</v>
       </c>
       <c r="T30" s="22" t="n">
-        <v>1000</v>
+        <v>2200</v>
       </c>
       <c r="U30" s="22" t="n">
         <v/>
@@ -11595,7 +11595,7 @@
         <v/>
       </c>
       <c r="B31" s="14" t="n">
-        <v>1000</v>
+        <v/>
       </c>
       <c r="C31" s="14">
         <f>+'Completion Factors'!J7</f>
@@ -11622,7 +11622,7 @@
         <v/>
       </c>
       <c r="I31" s="14" t="n">
-        <v>82457.045</v>
+        <v>81825.395</v>
       </c>
       <c r="J31" s="20" t="n">
         <v>15</v>
@@ -11653,7 +11653,7 @@
         <v/>
       </c>
       <c r="S31" s="22" t="n">
-        <v>1000</v>
+        <v/>
       </c>
       <c r="T31" s="22" t="n">
         <v/>
